--- a/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>124</v>
       </c>
       <c r="E2">
-        <v>0.001085985138239338</v>
+        <v>0.001048487683236386</v>
       </c>
       <c r="F2">
         <v>0.5109377030578858</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.0233278007203636</v>
+        <v>0.02303314456298656</v>
       </c>
       <c r="F3">
         <v>0.515620844112838</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>123</v>
       </c>
       <c r="E4">
-        <v>0.007859037917845904</v>
+        <v>0.007764583867857662</v>
       </c>
       <c r="F4">
         <v>0.5169781115143512</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>121</v>
       </c>
       <c r="E5">
-        <v>0.02755650263840803</v>
+        <v>0.02721509362612558</v>
       </c>
       <c r="F5">
         <v>0.5002050181337823</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>124</v>
       </c>
       <c r="E6">
-        <v>0.02628139144066901</v>
+        <v>0.0252262077297413</v>
       </c>
       <c r="F6">
         <v>0.5039007287925781</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>144</v>
       </c>
       <c r="E2">
-        <v>0.001085985138239338</v>
+        <v>0.001048487683236386</v>
       </c>
       <c r="F2">
         <v>0.7434574085404452</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>144</v>
       </c>
       <c r="E3">
-        <v>0.0233278007203636</v>
+        <v>0.02303314456298656</v>
       </c>
       <c r="F3">
         <v>0.7556155526867786</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>143</v>
       </c>
       <c r="E4">
-        <v>0.007859037917845904</v>
+        <v>0.007764583867857662</v>
       </c>
       <c r="F4">
         <v>0.7223827221441333</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.02755650263840803</v>
+        <v>0.02721509362612558</v>
       </c>
       <c r="F5">
         <v>0.7227465486077422</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>144</v>
       </c>
       <c r="E6">
-        <v>0.02628139144066901</v>
+        <v>0.0252262077297413</v>
       </c>
       <c r="F6">
         <v>0.7563719028518732</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.001085985138239338</v>
+        <v>0.001048487683236386</v>
       </c>
       <c r="F2">
         <v>0.8086589415329837</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>154</v>
       </c>
       <c r="E3">
-        <v>0.0233278007203636</v>
+        <v>0.02303314456298656</v>
       </c>
       <c r="F3">
         <v>0.8106102535200344</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.007859037917845904</v>
+        <v>0.007764583867857662</v>
       </c>
       <c r="F4">
         <v>0.8003088312524178</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.02755650263840803</v>
+        <v>0.02721509362612558</v>
       </c>
       <c r="F5">
         <v>0.8008444887258896</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>151</v>
       </c>
       <c r="E6">
-        <v>0.02628139144066901</v>
+        <v>0.0252262077297413</v>
       </c>
       <c r="F6">
         <v>0.8042908185208744</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>166</v>
       </c>
       <c r="E2">
-        <v>0.001085985138239338</v>
+        <v>0.001048487683236386</v>
       </c>
       <c r="F2">
         <v>0.9041781493571828</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
-        <v>0.0233278007203636</v>
+        <v>0.02303314456298656</v>
       </c>
       <c r="F3">
         <v>0.900622183899395</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.007859037917845904</v>
+        <v>0.007764583867857662</v>
       </c>
       <c r="F4">
         <v>0.9017625713552833</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>172</v>
       </c>
       <c r="E5">
-        <v>0.02755650263840803</v>
+        <v>0.02721509362612558</v>
       </c>
       <c r="F5">
         <v>0.9055584829300617</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>171</v>
       </c>
       <c r="E6">
-        <v>0.02628139144066901</v>
+        <v>0.0252262077297413</v>
       </c>
       <c r="F6">
         <v>0.9074599832791433</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>50</v>

--- a/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.275125737924788E-06</v>
+        <v>7.127588171141205E-06</v>
       </c>
       <c r="C2">
-        <v>2.191650530673382E-05</v>
+        <v>2.176939321866316E-05</v>
       </c>
       <c r="D2">
-        <v>2.012497544514717E-05</v>
+        <v>1.997781129519149E-05</v>
       </c>
       <c r="E2">
-        <v>2.984639969407127E-05</v>
+        <v>2.969951804885211E-05</v>
       </c>
       <c r="F2">
-        <v>4.779235130756952E-06</v>
+        <v>4.631625033354368E-06</v>
       </c>
       <c r="G2">
-        <v>1.477446885852657E-07</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.477446885852657E-07</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.719293312647911E-07</v>
+        <v>2.241911574886509E-07</v>
       </c>
       <c r="J2">
-        <v>2.700530791357363E-07</v>
+        <v>1.2231194483416E-07</v>
       </c>
       <c r="K2">
-        <v>6.662697885240879E-09</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.846729316502911E-07</v>
+        <v>7.369496582109756E-07</v>
       </c>
       <c r="M2">
-        <v>8.542342340019807E-06</v>
+        <v>8.394841598569952E-06</v>
       </c>
       <c r="N2">
-        <v>5.389068983641272E-06</v>
+        <v>5.241476608019728E-06</v>
       </c>
       <c r="O2">
-        <v>1.592026877000223E-05</v>
+        <v>1.577298243120663E-05</v>
       </c>
       <c r="P2">
-        <v>5.600481567307565E-06</v>
+        <v>5.452895335338917E-06</v>
       </c>
       <c r="Q2">
-        <v>7.19565844406442E-07</v>
+        <v>5.718377729526605E-07</v>
       </c>
       <c r="R2">
-        <v>5.749793555771742E-05</v>
+        <v>5.735185746655096E-05</v>
       </c>
       <c r="S2">
-        <v>1.739230765627271E-05</v>
+        <v>1.724506409494953E-05</v>
       </c>
       <c r="T2">
-        <v>2.511764105941451E-06</v>
+        <v>2.364088115796404E-06</v>
       </c>
       <c r="U2">
-        <v>6.259124816420878E-06</v>
+        <v>6.111557724635066E-06</v>
       </c>
       <c r="V2">
-        <v>3.034117765584479E-05</v>
+        <v>3.019431038888072E-05</v>
       </c>
       <c r="W2">
-        <v>6.551019493869136E-05</v>
+        <v>6.536434968390436E-05</v>
       </c>
       <c r="X2">
-        <v>2.497185607067784E-05</v>
+        <v>2.482483277114685E-05</v>
       </c>
       <c r="Y2">
-        <v>9.911244234258637E-06</v>
+        <v>9.763783273118647E-06</v>
       </c>
       <c r="Z2">
-        <v>1.062474917913334E-06</v>
+        <v>9.147568114024435E-07</v>
       </c>
       <c r="AA2">
-        <v>1.15747721057347E-06</v>
+        <v>1.009761864830649E-06</v>
       </c>
       <c r="AB2">
-        <v>1.294917599954844E-08</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.251833203283539E-06</v>
+        <v>1.104120599527301E-06</v>
       </c>
       <c r="AD2">
-        <v>2.063923440541559E-06</v>
+        <v>1.916234436139965E-06</v>
       </c>
       <c r="AE2">
-        <v>7.205555443299779E-06</v>
+        <v>7.058015854802377E-06</v>
       </c>
       <c r="AF2">
-        <v>1.510798983275879E-05</v>
+        <v>1.496067988912492E-05</v>
       </c>
       <c r="AG2">
-        <v>5.191309898920112E-06</v>
+        <v>5.043711776416558E-06</v>
       </c>
       <c r="AH2">
-        <v>2.377338916327123E-06</v>
+        <v>2.229659019784021E-06</v>
       </c>
       <c r="AI2">
-        <v>5.826118049874921E-06</v>
+        <v>5.678538374905888E-06</v>
       </c>
       <c r="AJ2">
-        <v>5.610447566537594E-06</v>
+        <v>5.462861624181035E-06</v>
       </c>
       <c r="AK2">
-        <v>2.636391396312764E-05</v>
+        <v>2.621693111682017E-05</v>
       </c>
       <c r="AL2">
-        <v>3.18736795374439E-05</v>
+        <v>3.172685680500781E-05</v>
       </c>
       <c r="AM2">
-        <v>2.729826089094012E-05</v>
+        <v>2.715130519676859E-05</v>
       </c>
       <c r="AN2">
-        <v>4.486237953393873E-05</v>
+        <v>4.471593425332207E-05</v>
       </c>
       <c r="AO2">
-        <v>1.855717556627517E-05</v>
+        <v>1.840996585603117E-05</v>
       </c>
       <c r="AP2">
-        <v>2.96614417083611E-06</v>
+        <v>2.818481384982659E-06</v>
       </c>
       <c r="AQ2">
-        <v>4.98784231463999E-06</v>
+        <v>4.840238279365343E-06</v>
       </c>
       <c r="AR2">
-        <v>1.294917599954844E-08</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>4.460700255366913E-07</v>
+        <v>2.983340062902541E-07</v>
       </c>
       <c r="AT2">
-        <v>6.865073469605369E-08</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>2.700530791357363E-07</v>
+        <v>1.2231194483416E-07</v>
       </c>
       <c r="AV2">
-        <v>2.063923440541559E-06</v>
+        <v>1.916234436139965E-06</v>
       </c>
       <c r="AW2">
-        <v>2.234011027400616E-06</v>
+        <v>2.086326965746883E-06</v>
       </c>
       <c r="AX2">
-        <v>2.958899371395842E-06</v>
+        <v>2.811236375008409E-06</v>
       </c>
       <c r="AY2">
-        <v>1.372263593979104E-05</v>
+        <v>1.357528573775197E-05</v>
       </c>
       <c r="AZ2">
-        <v>1.148348711278737E-05</v>
+        <v>1.133607184104934E-05</v>
       </c>
       <c r="BA2">
-        <v>5.815962150659565E-06</v>
+        <v>5.668382180559946E-06</v>
       </c>
       <c r="BB2">
-        <v>3.612024520935483E-06</v>
+        <v>3.464380504374828E-06</v>
       </c>
       <c r="BC2">
-        <v>3.277327046794164E-06</v>
+        <v>3.12967330391982E-06</v>
       </c>
       <c r="BD2">
-        <v>2.96614417083611E-06</v>
+        <v>2.818481384982659E-06</v>
       </c>
       <c r="BE2">
-        <v>4.393016460596153E-06</v>
+        <v>4.245395139673142E-06</v>
       </c>
       <c r="BF2">
-        <v>3.442642034021951E-06</v>
+        <v>3.29499309520365E-06</v>
       </c>
       <c r="BG2">
-        <v>1.93638165039542E-06</v>
+        <v>1.788688939627465E-06</v>
       </c>
       <c r="BH2">
-        <v>9.71540224938936E-07</v>
+        <v>8.238194758644846E-07</v>
       </c>
       <c r="BI2">
-        <v>2.700530791357363E-07</v>
+        <v>1.2231194483416E-07</v>
       </c>
       <c r="BJ2">
-        <v>3.339526741988624E-05</v>
+        <v>3.324848890481715E-05</v>
       </c>
       <c r="BK2">
-        <v>4.128387081041383E-05</v>
+        <v>4.113732153827923E-05</v>
       </c>
       <c r="BL2">
-        <v>9.766735245423379E-05</v>
+        <v>9.752244168693322E-05</v>
       </c>
       <c r="BM2">
-        <v>6.697836482526075E-05</v>
+        <v>6.683256223551297E-05</v>
       </c>
       <c r="BN2">
-        <v>1.339055496544757E-05</v>
+        <v>1.324319511313034E-05</v>
       </c>
       <c r="BO2">
-        <v>2.727627289263891E-05</v>
+        <v>2.712931655949581E-05</v>
       </c>
       <c r="BP2">
-        <v>2.774935985608828E-05</v>
+        <v>2.760241727085953E-05</v>
       </c>
       <c r="BQ2">
-        <v>1.07813951670309E-05</v>
+        <v>1.063395949249024E-05</v>
       </c>
       <c r="BR2">
-        <v>1.461795287061897E-06</v>
+        <v>1.314088784807007E-06</v>
       </c>
       <c r="BS2">
-        <v>6.484756998988568E-07</v>
+        <v>5.007455625643947E-07</v>
       </c>
       <c r="BT2">
-        <v>2.663606794210106E-06</v>
+        <v>2.51593521661589E-06</v>
       </c>
       <c r="BU2">
-        <v>3.793668506901694E-06</v>
+        <v>3.646029768918033E-06</v>
       </c>
       <c r="BV2">
-        <v>4.788441930045636E-06</v>
+        <v>4.640832100192781E-06</v>
       </c>
       <c r="BW2">
-        <v>1.578500678045255E-07</v>
+        <v>1.010567288173358E-08</v>
       </c>
       <c r="BX2">
-        <v>3.123514058677734E-06</v>
+        <v>2.975855845995617E-06</v>
       </c>
       <c r="BY2">
-        <v>3.62002832031711E-06</v>
+        <v>3.472384536346987E-06</v>
       </c>
       <c r="BZ2">
-        <v>5.398845182885965E-06</v>
+        <v>5.251253091360919E-06</v>
       </c>
       <c r="CA2">
-        <v>8.820484318530596E-06</v>
+        <v>8.672991659890867E-06</v>
       </c>
       <c r="CB2">
-        <v>2.014386344368788E-05</v>
+        <v>1.999669984261773E-05</v>
       </c>
       <c r="CC2">
-        <v>2.970531770497125E-05</v>
+        <v>2.955843195990733E-05</v>
       </c>
       <c r="CD2">
-        <v>1.581727377795961E-05</v>
+        <v>1.566998444612797E-05</v>
       </c>
       <c r="CE2">
-        <v>1.109359714291021E-05</v>
+        <v>1.094617054096373E-05</v>
       </c>
       <c r="CF2">
-        <v>2.836564780847396E-07</v>
+        <v>1.359157390981436E-07</v>
       </c>
       <c r="CG2">
-        <v>3.612024520935483E-06</v>
+        <v>3.464380504374828E-06</v>
       </c>
       <c r="CH2">
-        <v>7.033885056563009E-06</v>
+        <v>6.886340479321557E-06</v>
       </c>
       <c r="CI2">
-        <v>2.656741794740495E-06</v>
+        <v>2.509070017649289E-06</v>
       </c>
       <c r="CJ2">
-        <v>1.058140918248178E-06</v>
+        <v>9.104226857911915E-07</v>
       </c>
       <c r="CK2">
-        <v>4.023067689178344E-06</v>
+        <v>3.875435617538409E-06</v>
       </c>
       <c r="CL2">
-        <v>7.19565844406442E-07</v>
+        <v>5.718377729526605E-07</v>
       </c>
       <c r="CM2">
-        <v>3.677788915854535E-05</v>
+        <v>3.663120894251543E-05</v>
       </c>
       <c r="CN2">
-        <v>0.01377822993549585</v>
+        <v>0.01377848258208526</v>
       </c>
       <c r="CO2">
-        <v>0.08210465365660576</v>
+        <v>0.08210689187010757</v>
       </c>
       <c r="CP2">
-        <v>0.09340847278327426</v>
+        <v>0.0934110394859318</v>
       </c>
       <c r="CQ2">
-        <v>0.03068198162951432</v>
+        <v>0.03068272549938502</v>
       </c>
       <c r="CR2">
-        <v>0.02324984620372008</v>
+        <v>0.02325037409562229</v>
       </c>
       <c r="CS2">
-        <v>0.01280054601103158</v>
+        <v>0.01280077024611127</v>
       </c>
       <c r="CT2">
-        <v>0.001562499579281498</v>
+        <v>0.001562397236560985</v>
       </c>
       <c r="CU2">
-        <v>0.01083517716287571</v>
+        <v>0.01083534428430678</v>
       </c>
       <c r="CV2">
-        <v>0.005459758978179773</v>
+        <v>0.00545976988987666</v>
       </c>
       <c r="CW2">
-        <v>0.007240536040597182</v>
+        <v>0.007240598701702584</v>
       </c>
       <c r="CX2">
-        <v>0.005026931011620003</v>
+        <v>0.005026929345329599</v>
       </c>
       <c r="CY2">
-        <v>0.01954232149016293</v>
+        <v>0.01954274164134058</v>
       </c>
       <c r="CZ2">
-        <v>0.07746003401544843</v>
+        <v>0.07746213725623284</v>
       </c>
       <c r="DA2">
-        <v>1.844467057496729E-07</v>
+        <v>3.670308372558414E-08</v>
       </c>
       <c r="DB2">
-        <v>0.04211824674595006</v>
+        <v>0.04211932295385895</v>
       </c>
       <c r="DC2">
-        <v>0.0001127687272875037</v>
+        <v>0.0001126242553663854</v>
       </c>
       <c r="DD2">
-        <v>0.002702984791167767</v>
+        <v>0.002702915590964856</v>
       </c>
       <c r="DE2">
-        <v>0.005598359267471533</v>
+        <v>0.005598374206894935</v>
       </c>
       <c r="DF2">
-        <v>0.0002390011215348063</v>
+        <v>0.0002388603179289845</v>
       </c>
       <c r="DG2">
-        <v>0.0001982124346861346</v>
+        <v>0.0001980704457604527</v>
       </c>
       <c r="DH2">
-        <v>0.008578542337222999</v>
+        <v>0.008578643880811728</v>
       </c>
       <c r="DI2">
-        <v>0.000588964214496706</v>
+        <v>0.0005888335808236877</v>
       </c>
       <c r="DJ2">
-        <v>0.00596206653937156</v>
+        <v>0.005962092048133813</v>
       </c>
       <c r="DK2">
-        <v>0.006418517504106221</v>
+        <v>0.006418556277340452</v>
       </c>
       <c r="DL2">
-        <v>2.094234338199743E-05</v>
+        <v>2.079520298476643E-05</v>
       </c>
       <c r="DM2">
-        <v>0.003562259024780358</v>
+        <v>0.003562214795099743</v>
       </c>
       <c r="DN2">
-        <v>0.009660451253634867</v>
+        <v>0.00966058423751316</v>
       </c>
       <c r="DO2">
-        <v>0.002973366770278093</v>
+        <v>0.002973305427379606</v>
       </c>
       <c r="DP2">
-        <v>0.0005601407167236054</v>
+        <v>0.0005600092454393035</v>
       </c>
       <c r="DQ2">
-        <v>3.956361994332017E-05</v>
+        <v>3.941702068066922E-05</v>
       </c>
       <c r="DR2">
-        <v>0.002684042092631277</v>
+        <v>0.002683972341953258</v>
       </c>
       <c r="DS2">
-        <v>0.000850837084264444</v>
+        <v>0.0008507140606210036</v>
       </c>
       <c r="DT2">
-        <v>0.00251867080540784</v>
+        <v>0.0025185962490377</v>
       </c>
       <c r="DU2">
-        <v>0.03131260758079225</v>
+        <v>0.03131336977666268</v>
       </c>
       <c r="DV2">
-        <v>0.02091906838379566</v>
+        <v>0.02091952854325897</v>
       </c>
       <c r="DW2">
-        <v>0.004194580675927275</v>
+        <v>0.004194554821523458</v>
       </c>
       <c r="DX2">
-        <v>0.0201132264460549</v>
+        <v>0.02011366318773924</v>
       </c>
       <c r="DY2">
-        <v>2.8057867832253E-06</v>
+        <v>2.658119337383726E-06</v>
       </c>
       <c r="DZ2">
-        <v>4.564303647362528E-05</v>
+        <v>4.549661387891116E-05</v>
       </c>
       <c r="EA2">
-        <v>0.005446438279208929</v>
+        <v>0.005446448803806101</v>
       </c>
       <c r="EB2">
-        <v>0.0001969446447840838</v>
+        <v>0.0001968026190164081</v>
       </c>
       <c r="EC2">
-        <v>0.001977944547184277</v>
+        <v>0.001977854277300849</v>
       </c>
       <c r="ED2">
-        <v>0.008534434340630778</v>
+        <v>0.008534534602440455</v>
       </c>
       <c r="EE2">
-        <v>0.001019022121270491</v>
+        <v>0.001018903985086784</v>
       </c>
       <c r="EF2">
-        <v>0.01095083815393975</v>
+        <v>0.01095100863648099</v>
       </c>
       <c r="EG2">
-        <v>0.0003886338999741984</v>
+        <v>0.0003884974446991936</v>
       </c>
       <c r="EH2">
-        <v>0.01746162065091759</v>
+        <v>0.01746198033689721</v>
       </c>
       <c r="EI2">
-        <v>0.02121142336120835</v>
+        <v>0.02121189201651175</v>
       </c>
       <c r="EJ2">
-        <v>0.01678498170319462</v>
+        <v>0.01678532172603613</v>
       </c>
       <c r="EK2">
-        <v>0.007907580389061428</v>
+        <v>0.00790766243448574</v>
       </c>
       <c r="EL2">
-        <v>0.0002565076401822551</v>
+        <v>0.0002563673453161314</v>
       </c>
       <c r="EM2">
-        <v>0.0002062757540631636</v>
+        <v>0.0002061339994576655</v>
       </c>
       <c r="EN2">
-        <v>0.01565883179020081</v>
+        <v>0.01565913908710872</v>
       </c>
       <c r="EO2">
-        <v>0.07924290387770416</v>
+        <v>0.07924505892871389</v>
       </c>
       <c r="EP2">
-        <v>0.02930745473571008</v>
+        <v>0.02930815866180835</v>
       </c>
       <c r="EQ2">
-        <v>0.005138084603032291</v>
+        <v>0.005138086166866944</v>
       </c>
       <c r="ER2">
-        <v>0.004290533368513982</v>
+        <v>0.004290510302496871</v>
       </c>
       <c r="ES2">
-        <v>0.0002252608025963814</v>
+        <v>0.0002251195996966823</v>
       </c>
       <c r="ET2">
-        <v>0.0005306543590017173</v>
+        <v>0.0005305220308434117</v>
       </c>
       <c r="EU2">
-        <v>0.001932559350690731</v>
+        <v>0.001932467761912803</v>
       </c>
       <c r="EV2">
-        <v>0.005110407605170612</v>
+        <v>0.005110408364711287</v>
       </c>
       <c r="EW2">
-        <v>0.003831178304003692</v>
+        <v>0.00383114188912142</v>
       </c>
       <c r="EX2">
-        <v>8.78660032114847E-05</v>
+        <v>8.772080761682608E-05</v>
       </c>
       <c r="EY2">
-        <v>0.01474753386060757</v>
+        <v>0.01474781467518378</v>
       </c>
       <c r="EZ2">
-        <v>0.03624360019982444</v>
+        <v>0.03624450569041537</v>
       </c>
       <c r="FA2">
-        <v>0.008031038879523042</v>
+        <v>0.008031124512652964</v>
       </c>
       <c r="FB2">
-        <v>0.009335638278729873</v>
+        <v>0.009335761823538175</v>
       </c>
       <c r="FC2">
-        <v>0.0003544519426150918</v>
+        <v>0.0003543144940118863</v>
       </c>
       <c r="FD2">
-        <v>0.01959219848630944</v>
+        <v>0.01959262008691335</v>
       </c>
       <c r="FE2">
-        <v>0.0009472585968149312</v>
+        <v>0.0009471383751821119</v>
       </c>
       <c r="FF2">
-        <v>0.0003159376255907026</v>
+        <v>0.0003157990577608587</v>
       </c>
       <c r="FG2">
-        <v>0.005033030611148749</v>
+        <v>0.0050330291221128</v>
       </c>
       <c r="FH2">
-        <v>0.0008827003618026916</v>
+        <v>0.000882578264106581</v>
       </c>
       <c r="FI2">
-        <v>8.280763360229363E-06</v>
+        <v>8.133255017290378E-06</v>
       </c>
       <c r="FJ2">
-        <v>0.0004048011887251159</v>
+        <v>0.000404665203271768</v>
       </c>
       <c r="FK2">
-        <v>0.01437027088975485</v>
+        <v>0.01437054074106339</v>
       </c>
       <c r="FL2">
-        <v>0.003464498732333305</v>
+        <v>0.003464451661737104</v>
       </c>
       <c r="FM2">
-        <v>0.001801376360825911</v>
+        <v>0.001801280959868302</v>
       </c>
       <c r="FN2">
-        <v>0.0001070951917258402</v>
+        <v>0.0001069505549316923</v>
       </c>
       <c r="FO2">
-        <v>0.00104885431896566</v>
+        <v>0.001048737049706071</v>
       </c>
       <c r="FP2">
-        <v>0.007368652030698959</v>
+        <v>0.007368718414856981</v>
       </c>
       <c r="FQ2">
-        <v>0.001324933997635782</v>
+        <v>0.001324824751255854</v>
       </c>
       <c r="FR2">
-        <v>0.0009389490274569275</v>
+        <v>0.0009388285643478962</v>
       </c>
       <c r="FS2">
-        <v>0.002449534210749324</v>
+        <v>0.002449457645268691</v>
       </c>
       <c r="FT2">
-        <v>0.0005135768003211272</v>
+        <v>0.0005134439758887065</v>
       </c>
       <c r="FU2">
-        <v>0.001715826467435483</v>
+        <v>0.001715728580396672</v>
       </c>
       <c r="FV2">
-        <v>0.001852959956840569</v>
+        <v>0.001852866054903045</v>
       </c>
       <c r="FW2">
-        <v>0.005515749173853978</v>
+        <v>0.005515761712626803</v>
       </c>
       <c r="FX2">
-        <v>0.01002775122525732</v>
+        <v>0.01002789488287838</v>
       </c>
       <c r="FY2">
-        <v>0.002588555200008582</v>
+        <v>0.002588482674480011</v>
       </c>
       <c r="FZ2">
-        <v>0.0001090140515775894</v>
+        <v>0.0001088694705455379</v>
       </c>
       <c r="GA2">
-        <v>0.0005115348204788902</v>
+        <v>0.0005114019367065043</v>
       </c>
       <c r="GB2">
-        <v>0.0002638494296150294</v>
+        <v>0.0002637093481014183</v>
       </c>
       <c r="GC2">
-        <v>2.454402410373208E-05</v>
+        <v>2.439698837139762E-05</v>
       </c>
       <c r="GD2">
-        <v>0.005377873584506228</v>
+        <v>0.00537788211661233</v>
       </c>
       <c r="GE2">
-        <v>0.01243917403895113</v>
+        <v>0.01243938777255582</v>
       </c>
       <c r="GF2">
-        <v>0.01374599493798632</v>
+        <v>0.01374624664782621</v>
       </c>
       <c r="GG2">
-        <v>0.005982652737781074</v>
+        <v>0.005982678844778566</v>
       </c>
       <c r="GH2">
-        <v>0.001275072501488074</v>
+        <v>0.00127496180613231</v>
       </c>
       <c r="GI2">
-        <v>0.0005629905565034271</v>
+        <v>0.0005628591680355126</v>
       </c>
       <c r="GJ2">
-        <v>0.0002887605276904014</v>
+        <v>0.0002886211700936792</v>
       </c>
       <c r="GK2">
-        <v>0.0007588772413692488</v>
+        <v>0.0007587515453713754</v>
       </c>
       <c r="GL2">
-        <v>0.000525913919367963</v>
+        <v>0.0005257814534524094</v>
       </c>
       <c r="GM2">
-        <v>0.001146587111414838</v>
+        <v>0.001146472682271684</v>
       </c>
       <c r="GN2">
-        <v>0.001254905903046143</v>
+        <v>0.001254794621648721</v>
       </c>
       <c r="GO2">
-        <v>0.001629758974085046</v>
+        <v>0.001629658585923569</v>
       </c>
       <c r="GP2">
-        <v>0.001876328155035145</v>
+        <v>0.001876234932177816</v>
       </c>
       <c r="GQ2">
-        <v>0.001541181480928531</v>
+        <v>0.001541078518703756</v>
       </c>
       <c r="GR2">
-        <v>0.00229743032250085</v>
+        <v>0.002297349336878912</v>
       </c>
       <c r="GS2">
-        <v>0.003491093630278587</v>
+        <v>0.003491047332530525</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.00117880976951909</v>
+        <v>0.001131545164578622</v>
       </c>
       <c r="C3">
-        <v>0.001172968569174612</v>
+        <v>0.00112564372267775</v>
       </c>
       <c r="D3">
-        <v>0.0005787219341295293</v>
+        <v>0.0005252684941818115</v>
       </c>
       <c r="E3">
-        <v>0.0005060337298428174</v>
+        <v>0.0004518306407991275</v>
       </c>
       <c r="F3">
-        <v>8.246360486320606E-05</v>
+        <v>2.38921459528001E-05</v>
       </c>
       <c r="G3">
-        <v>2.936968673204699E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.363323493218377E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002218418530828945</v>
+        <v>0.000164707832045681</v>
       </c>
       <c r="J3">
-        <v>0.0003690097617619701</v>
+        <v>0.0003133935150428869</v>
       </c>
       <c r="K3">
-        <v>0.0001245696873463689</v>
+        <v>6.643247752738256E-05</v>
       </c>
       <c r="L3">
-        <v>5.881534846857452E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.575938010887257E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.865465210013887E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>8.796642518772921E-05</v>
+        <v>2.945171804773851E-05</v>
       </c>
       <c r="P3">
-        <v>0.0005253742309834034</v>
+        <v>0.0004713706046907604</v>
       </c>
       <c r="Q3">
-        <v>0.0007754385457306885</v>
+        <v>0.0007240138865390318</v>
       </c>
       <c r="R3">
-        <v>0.0002397195341372123</v>
+        <v>0.0001827698894726436</v>
       </c>
       <c r="S3">
-        <v>0.0002631214155173141</v>
+        <v>0.0002064131194923602</v>
       </c>
       <c r="T3">
-        <v>0.0001645683497052487</v>
+        <v>0.0001068436547003464</v>
       </c>
       <c r="U3">
-        <v>7.407114436826935E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>3.022015178220228E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0003811052224752875</v>
+        <v>0.0003256137188459268</v>
       </c>
       <c r="X3">
-        <v>0.0006144573362369877</v>
+        <v>0.0005613724431827712</v>
       </c>
       <c r="Y3">
-        <v>0.001024863460440266</v>
+        <v>0.0009760111740793838</v>
       </c>
       <c r="Z3">
-        <v>0.0006229312067367256</v>
+        <v>0.0005699337065328601</v>
       </c>
       <c r="AA3">
-        <v>0.0001385673281718653</v>
+        <v>8.05744790355172E-05</v>
       </c>
       <c r="AB3">
-        <v>8.705548513400746E-07</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.382707899491709E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>8.957130528237535E-05</v>
+        <v>3.107314961622969E-05</v>
       </c>
       <c r="AE3">
-        <v>6.615734990156148E-09</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.252502932839037E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.754471962442143E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.045078756502285E-05</v>
+        <v>1.652305731856382E-06</v>
       </c>
       <c r="AI3">
-        <v>5.783102041052479E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.772457763502837E-08</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0001074572963371832</v>
+        <v>4.914360274650604E-05</v>
       </c>
       <c r="AL3">
-        <v>0.0001508593488967745</v>
+        <v>9.299327001585541E-05</v>
       </c>
       <c r="AM3">
-        <v>0.0001508593488967745</v>
+        <v>9.299327001585541E-05</v>
       </c>
       <c r="AN3">
-        <v>0.00018004486061796</v>
+        <v>0.0001224797782012123</v>
       </c>
       <c r="AO3">
-        <v>1.317747777712816E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.390875782025465E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0002174073828213762</v>
+        <v>0.0001602276281378953</v>
       </c>
       <c r="AR3">
-        <v>0.0007371846434747041</v>
+        <v>0.0006853654635554407</v>
       </c>
       <c r="AS3">
-        <v>0.0005787219341295293</v>
+        <v>0.0005252684941818115</v>
       </c>
       <c r="AT3">
-        <v>0.0003243450991279177</v>
+        <v>0.0002682682161296186</v>
       </c>
       <c r="AU3">
-        <v>0.0006042675356360547</v>
+        <v>0.0005510775529750226</v>
       </c>
       <c r="AV3">
-        <v>9.809428578500935E-05</v>
+        <v>3.968402945124485E-05</v>
       </c>
       <c r="AW3">
-        <v>6.645095391887648E-05</v>
+        <v>7.714353092772818E-06</v>
       </c>
       <c r="AX3">
-        <v>0.0003364925698443023</v>
+        <v>0.0002805409663260818</v>
       </c>
       <c r="AY3">
-        <v>0.0005675349734697898</v>
+        <v>0.0005139661599889444</v>
       </c>
       <c r="AZ3">
-        <v>9.188060541856395E-05</v>
+        <v>3.340626606176876E-05</v>
       </c>
       <c r="BA3">
-        <v>2.125249225334381E-08</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>4.27924195236388E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>4.429712261237712E-06</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>5.817047743054392E-07</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>9.518348061334761E-07</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1.554227391658958E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>9.227834544202026E-05</v>
+        <v>3.380810806369518E-05</v>
       </c>
       <c r="BH3">
-        <v>7.921439467158722E-09</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001896942511870228</v>
+        <v>0.0001322286850121161</v>
       </c>
       <c r="BJ3">
-        <v>0.0002312420636372622</v>
+        <v>0.0001742049889947655</v>
       </c>
       <c r="BK3">
-        <v>0.0002248116832580372</v>
+        <v>0.0001677082907186362</v>
       </c>
       <c r="BL3">
-        <v>0.0001873554210490928</v>
+        <v>0.0001298657340155716</v>
       </c>
       <c r="BM3">
-        <v>0.0001673258798678712</v>
+        <v>0.0001096296238650575</v>
       </c>
       <c r="BN3">
-        <v>0.0005108605301274729</v>
+        <v>0.0004567072209140228</v>
       </c>
       <c r="BO3">
-        <v>0.0003962162233664431</v>
+        <v>0.0003408805627417137</v>
       </c>
       <c r="BP3">
-        <v>0.0001651297097383543</v>
+        <v>0.0001074108041602986</v>
       </c>
       <c r="BQ3">
-        <v>6.950772409914634E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0004453824962659734</v>
+        <v>0.0003905538979960391</v>
       </c>
       <c r="BS3">
-        <v>0.001170053469002697</v>
+        <v>0.001122698558450326</v>
       </c>
       <c r="BT3">
-        <v>0.0008473950499742492</v>
+        <v>0.0007967124936985308</v>
       </c>
       <c r="BU3">
-        <v>0.0007730686755909278</v>
+        <v>0.0007216195754184368</v>
       </c>
       <c r="BV3">
-        <v>0.0003698064218089523</v>
+        <v>0.0003141983912164041</v>
       </c>
       <c r="BW3">
-        <v>1.658710797820759E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>5.559479827864589E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0002312420636372622</v>
+        <v>0.0001742049889947655</v>
       </c>
       <c r="BZ3">
-        <v>0.0004409241060030444</v>
+        <v>0.0003860495273947197</v>
       </c>
       <c r="CA3">
-        <v>0.0002248116832580372</v>
+        <v>0.0001677082907186362</v>
       </c>
       <c r="CB3">
-        <v>2.975376075469736E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.977454616618347E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.000101497475985709</v>
+        <v>4.312231748497544E-05</v>
       </c>
       <c r="CE3">
-        <v>0.0002905090371324709</v>
+        <v>0.0002340831955440531</v>
       </c>
       <c r="CF3">
-        <v>0.0005497269724195812</v>
+        <v>0.0004959745011909713</v>
       </c>
       <c r="CG3">
-        <v>0.0006282283370491183</v>
+        <v>0.000575285467290301</v>
       </c>
       <c r="CH3">
-        <v>0.0007066742416753846</v>
+        <v>0.0006545404014154092</v>
       </c>
       <c r="CI3">
-        <v>0.0001555893391757208</v>
+        <v>9.77720417026156E-05</v>
       </c>
       <c r="CJ3">
-        <v>4.464910263313478E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>3.367165598575118E-06</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.000294656157377043</v>
+        <v>0.0002382730859323197</v>
       </c>
       <c r="CM3">
-        <v>0.0001086376864067955</v>
+        <v>5.03361664329694E-05</v>
       </c>
       <c r="CN3">
-        <v>0.03337676196836011</v>
+        <v>0.03366156177462463</v>
       </c>
       <c r="CO3">
-        <v>0.05791297341535789</v>
+        <v>0.05845082045136647</v>
       </c>
       <c r="CP3">
-        <v>0.07141223421146285</v>
+        <v>0.07208930202959692</v>
       </c>
       <c r="CQ3">
-        <v>0.01548264591307308</v>
+        <v>0.0155828998489904</v>
       </c>
       <c r="CR3">
-        <v>0.03268260192742274</v>
+        <v>0.03296024271177642</v>
       </c>
       <c r="CS3">
-        <v>0.01654228097556396</v>
+        <v>0.01665346315595302</v>
       </c>
       <c r="CT3">
-        <v>0.0003212845989474279</v>
+        <v>0.0002651761523520357</v>
       </c>
       <c r="CU3">
-        <v>0.02235181931817549</v>
+        <v>0.02252291651791729</v>
       </c>
       <c r="CV3">
-        <v>0.01166829668812576</v>
+        <v>0.01172921241949858</v>
       </c>
       <c r="CW3">
-        <v>0.005455337821722922</v>
+        <v>0.005452177971050267</v>
       </c>
       <c r="CX3">
-        <v>0.01479641687260343</v>
+        <v>0.01488959358072477</v>
       </c>
       <c r="CY3">
-        <v>0.03180345187557578</v>
+        <v>0.03207202579621947</v>
       </c>
       <c r="CZ3">
-        <v>0.08291450488979742</v>
+        <v>0.08371019810114699</v>
       </c>
       <c r="DA3">
-        <v>0.002322092136942989</v>
+        <v>0.002286618449133993</v>
       </c>
       <c r="DB3">
-        <v>0.05627451331873139</v>
+        <v>0.05679546256310686</v>
       </c>
       <c r="DC3">
-        <v>0.01280014875487557</v>
+        <v>0.01287273752022879</v>
       </c>
       <c r="DD3">
-        <v>0.00713175302058778</v>
+        <v>0.007145882400686957</v>
       </c>
       <c r="DE3">
-        <v>0.01693528799874115</v>
+        <v>0.01705052334514974</v>
       </c>
       <c r="DF3">
-        <v>0.001951069415062307</v>
+        <v>0.00191176929006488</v>
       </c>
       <c r="DG3">
-        <v>0.0001852087709224962</v>
+        <v>0.0001276969450241818</v>
       </c>
       <c r="DH3">
-        <v>0.01124893066339409</v>
+        <v>0.01130552138269092</v>
       </c>
       <c r="DI3">
-        <v>0.000121878367187651</v>
+        <v>6.371340120459722E-05</v>
       </c>
       <c r="DJ3">
-        <v>0.004856269586393491</v>
+        <v>0.004846931416068462</v>
       </c>
       <c r="DK3">
-        <v>0.001939224614363772</v>
+        <v>0.001899802331387306</v>
       </c>
       <c r="DL3">
-        <v>0.0005319016313683502</v>
+        <v>0.0004779653235608128</v>
       </c>
       <c r="DM3">
-        <v>0.001014401959823309</v>
+        <v>0.0009654417817548669</v>
       </c>
       <c r="DN3">
-        <v>0.001804695806430074</v>
+        <v>0.001763886098901862</v>
       </c>
       <c r="DO3">
-        <v>0.002255540933018201</v>
+        <v>0.002219380888318873</v>
       </c>
       <c r="DP3">
-        <v>0.004737234979373547</v>
+        <v>0.004726669179525717</v>
       </c>
       <c r="DQ3">
-        <v>0.003162559286508672</v>
+        <v>0.003135753517312455</v>
       </c>
       <c r="DR3">
-        <v>0.001450183185523058</v>
+        <v>0.001405717313031334</v>
       </c>
       <c r="DS3">
-        <v>0.000139726038240199</v>
+        <v>8.174513913018248E-05</v>
       </c>
       <c r="DT3">
-        <v>0.00238342514056004</v>
+        <v>0.002348583993218455</v>
       </c>
       <c r="DU3">
-        <v>0.01431349784412377</v>
+        <v>0.01440169410436255</v>
       </c>
       <c r="DV3">
-        <v>0.009755992575349601</v>
+        <v>0.009797186302809485</v>
       </c>
       <c r="DW3">
-        <v>0.001028920960679553</v>
+        <v>0.0009801105201919613</v>
       </c>
       <c r="DX3">
-        <v>0.009785346577080724</v>
+        <v>0.009826843038678517</v>
       </c>
       <c r="DY3">
-        <v>1.282331125624156E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.002322092136942989</v>
+        <v>0.002286618449133993</v>
       </c>
       <c r="EA3">
-        <v>0.003003362777120223</v>
+        <v>0.002974915180057764</v>
       </c>
       <c r="EB3">
-        <v>0.003325113796095157</v>
+        <v>0.003299984486543988</v>
       </c>
       <c r="EC3">
-        <v>0.004177493246363356</v>
+        <v>0.004161154709546073</v>
       </c>
       <c r="ED3">
-        <v>0.009669257570234494</v>
+        <v>0.009709556780918076</v>
       </c>
       <c r="EE3">
-        <v>0.0001061253362586323</v>
+        <v>4.779790587697839E-05</v>
       </c>
       <c r="EF3">
-        <v>0.004309647254157003</v>
+        <v>0.004294671650066477</v>
       </c>
       <c r="EG3">
-        <v>0.0001699064000200547</v>
+        <v>0.0001122367574769929</v>
       </c>
       <c r="EH3">
-        <v>0.01055403362241325</v>
+        <v>0.01060345771895916</v>
       </c>
       <c r="EI3">
-        <v>0.022182363308182</v>
+        <v>0.0223517128716196</v>
       </c>
       <c r="EJ3">
-        <v>0.0102960546071992</v>
+        <v>0.01034281811063468</v>
       </c>
       <c r="EK3">
-        <v>0.007947409468690278</v>
+        <v>0.007969950889297873</v>
       </c>
       <c r="EL3">
-        <v>4.399514259456816E-05</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.001655932097656888</v>
+        <v>0.0016135881579807</v>
       </c>
       <c r="EN3">
-        <v>0.02440656643935209</v>
+        <v>0.0245988546884114</v>
       </c>
       <c r="EO3">
-        <v>0.06314652372400111</v>
+        <v>0.06373834549079441</v>
       </c>
       <c r="EP3">
-        <v>0.02367586739625986</v>
+        <v>0.02386061978881458</v>
       </c>
       <c r="EQ3">
-        <v>0.005925225349434055</v>
+        <v>0.005926911549971687</v>
       </c>
       <c r="ER3">
-        <v>0.003557338609790376</v>
+        <v>0.003534604284726129</v>
       </c>
       <c r="ES3">
-        <v>0.0004883099287975745</v>
+        <v>0.000433924050378894</v>
       </c>
       <c r="ET3">
-        <v>0.0009199584542536011</v>
+        <v>0.0008700242599845175</v>
       </c>
       <c r="EU3">
-        <v>0.00020952668235662</v>
+        <v>0.0001522656523130308</v>
       </c>
       <c r="EV3">
-        <v>0.003638292414564543</v>
+        <v>0.003616392983513155</v>
       </c>
       <c r="EW3">
-        <v>0.0003641178414734742</v>
+        <v>0.0003084511433275353</v>
       </c>
       <c r="EX3">
-        <v>0.0004974742293380296</v>
+        <v>0.0004431828643233159</v>
       </c>
       <c r="EY3">
-        <v>0.01571858992698763</v>
+        <v>0.01582127720430425</v>
       </c>
       <c r="EZ3">
-        <v>0.03656671815648449</v>
+        <v>0.03688441666751252</v>
       </c>
       <c r="FA3">
-        <v>0.01402288582698523</v>
+        <v>0.01410808494294091</v>
       </c>
       <c r="FB3">
-        <v>0.01713738501065961</v>
+        <v>0.01725470462705079</v>
       </c>
       <c r="FC3">
-        <v>1.691437199750764E-05</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01412885283323453</v>
+        <v>0.01421514480973363</v>
       </c>
       <c r="FE3">
-        <v>0.001361837880312984</v>
+        <v>0.001316460883673485</v>
       </c>
       <c r="FF3">
-        <v>0.001483891687510982</v>
+        <v>0.001439773458055564</v>
       </c>
       <c r="FG3">
-        <v>0.002669360657422792</v>
+        <v>0.002637468424610406</v>
       </c>
       <c r="FH3">
-        <v>0.002624083954752645</v>
+        <v>0.002591724773560418</v>
       </c>
       <c r="FI3">
-        <v>0.0001997800417818219</v>
+        <v>0.0001424184925361508</v>
       </c>
       <c r="FJ3">
-        <v>0.001735422502344752</v>
+        <v>0.001693898364321357</v>
       </c>
       <c r="FK3">
-        <v>0.008339356491804948</v>
+        <v>0.008365940146423277</v>
       </c>
       <c r="FL3">
-        <v>0.001429220784286822</v>
+        <v>0.001384538722039273</v>
       </c>
       <c r="FM3">
-        <v>0.001628321496028581</v>
+        <v>0.001585692802274988</v>
       </c>
       <c r="FN3">
-        <v>1.834450408184821E-05</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001727153601857103</v>
+        <v>0.001685544184883208</v>
       </c>
       <c r="FP3">
-        <v>0.00601075995447837</v>
+        <v>0.006013328291808003</v>
       </c>
       <c r="FQ3">
-        <v>9.64144556859431E-05</v>
+        <v>3.798687490280598E-05</v>
       </c>
       <c r="FR3">
-        <v>0.0004939723591315104</v>
+        <v>0.0004396448785756261</v>
       </c>
       <c r="FS3">
-        <v>0.004593741270911154</v>
+        <v>0.004581695589562849</v>
       </c>
       <c r="FT3">
-        <v>0.0002845110867787479</v>
+        <v>0.0002280233870373537</v>
       </c>
       <c r="FU3">
-        <v>0.002879483369814562</v>
+        <v>0.002849758177761175</v>
       </c>
       <c r="FV3">
-        <v>0.002772335863495649</v>
+        <v>0.002741505636147527</v>
       </c>
       <c r="FW3">
-        <v>0.003226002190250152</v>
+        <v>0.003199850721375457</v>
       </c>
       <c r="FX3">
-        <v>0.007124562720163739</v>
+        <v>0.007138617945147026</v>
       </c>
       <c r="FY3">
-        <v>0.0007176902423250419</v>
+        <v>0.0006656700124508131</v>
       </c>
       <c r="FZ3">
-        <v>0.0008264846887410821</v>
+        <v>0.0007755864794092907</v>
       </c>
       <c r="GA3">
-        <v>0.002470131845673478</v>
+        <v>0.002436184923244186</v>
       </c>
       <c r="GB3">
-        <v>0.0003459318404009735</v>
+        <v>0.0002900775861116806</v>
       </c>
       <c r="GC3">
-        <v>1.471853586801047E-05</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.002634273755353578</v>
+        <v>0.002602019663768167</v>
       </c>
       <c r="GE3">
-        <v>0.009553640563416101</v>
+        <v>0.009592747391023351</v>
       </c>
       <c r="GF3">
-        <v>0.008599205507129276</v>
+        <v>0.008628469040571667</v>
       </c>
       <c r="GG3">
-        <v>0.006749715098057487</v>
+        <v>0.006759904438833059</v>
       </c>
       <c r="GH3">
-        <v>0.003939611232334509</v>
+        <v>0.003920819367105626</v>
       </c>
       <c r="GI3">
-        <v>0.00201427361878971</v>
+        <v>0.001975625332349182</v>
       </c>
       <c r="GJ3">
-        <v>1.13877226715792E-05</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0008215948984527118</v>
+        <v>0.0007706462596612145</v>
       </c>
       <c r="GL3">
-        <v>3.68699011743644E-06</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.00110451596513769</v>
+        <v>0.001056485152201888</v>
       </c>
       <c r="GN3">
-        <v>0.00138027628140037</v>
+        <v>0.001335089443959904</v>
       </c>
       <c r="GO3">
-        <v>0.002959246674518521</v>
+        <v>0.00293034409859453</v>
       </c>
       <c r="GP3">
-        <v>0.003670901016487602</v>
+        <v>0.003649337884966411</v>
       </c>
       <c r="GQ3">
-        <v>0.001989554917331949</v>
+        <v>0.001950651701602918</v>
       </c>
       <c r="GR3">
-        <v>0.003011988377628908</v>
+        <v>0.002983629738241041</v>
       </c>
       <c r="GS3">
-        <v>0.0039996036358725</v>
+        <v>0.003981430485213866</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.787147259433485E-06</v>
+        <v>1.534589524589052E-06</v>
       </c>
       <c r="C4">
-        <v>2.404366274245321E-07</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.796793959330153E-05</v>
+        <v>3.57303549422164E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001224267986886096</v>
+        <v>0.0001202262117044918</v>
       </c>
       <c r="F4">
-        <v>7.306380621736764E-06</v>
+        <v>5.055364506389843E-06</v>
       </c>
       <c r="G4">
-        <v>4.842026448134011E-08</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>9.986519893028107E-05</v>
+        <v>9.765472871350956E-05</v>
       </c>
       <c r="I4">
-        <v>0.000121654888696878</v>
+        <v>0.00011945396357335</v>
       </c>
       <c r="J4">
-        <v>0.0001464374484314164</v>
+        <v>0.0001442473794442545</v>
       </c>
       <c r="K4">
-        <v>5.714301938790519E-05</v>
+        <v>5.491383448580926E-05</v>
       </c>
       <c r="L4">
-        <v>2.21473507627658E-05</v>
+        <v>1.99028358158769E-05</v>
       </c>
       <c r="M4">
-        <v>1.227900686847184E-05</v>
+        <v>1.003016903935564E-05</v>
       </c>
       <c r="N4">
-        <v>4.913317347370369E-05</v>
+        <v>4.690047981462515E-05</v>
       </c>
       <c r="O4">
-        <v>0.0001135208987840063</v>
+        <v>0.0001113164105215354</v>
       </c>
       <c r="P4">
-        <v>0.0001180317547356877</v>
+        <v>0.0001158292424784343</v>
       </c>
       <c r="Q4">
-        <v>2.190576676535356E-05</v>
+        <v>1.966114599126812E-05</v>
       </c>
       <c r="R4">
-        <v>2.25322967586424E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.22916598683363E-07</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>6.798640927175483E-06</v>
+        <v>4.547402393667499E-06</v>
       </c>
       <c r="U4">
-        <v>1.359079285442047E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>5.504974541032757E-05</v>
+        <v>5.281964353807215E-05</v>
       </c>
       <c r="W4">
-        <v>0.0002099168877514482</v>
+        <v>0.0002077546262812288</v>
       </c>
       <c r="X4">
-        <v>0.0004667349250005088</v>
+        <v>0.0004646851640816244</v>
       </c>
       <c r="Y4">
-        <v>0.0001455930984404608</v>
+        <v>0.0001434026595811492</v>
       </c>
       <c r="Z4">
-        <v>5.453252941586779E-05</v>
+        <v>5.230220097430611E-05</v>
       </c>
       <c r="AA4">
-        <v>3.460163962936009E-05</v>
+        <v>3.236258035209232E-05</v>
       </c>
       <c r="AB4">
-        <v>3.736613959974779E-05</v>
+        <v>3.512829132687116E-05</v>
       </c>
       <c r="AC4">
-        <v>6.530115930051823E-05</v>
+        <v>6.307554811640514E-05</v>
       </c>
       <c r="AD4">
-        <v>0.0002359140274729765</v>
+        <v>0.0002337631541925554</v>
       </c>
       <c r="AE4">
-        <v>0.0002064855777882031</v>
+        <v>0.0002043218132138139</v>
       </c>
       <c r="AF4">
-        <v>0.0001942877679188616</v>
+        <v>0.0001921186600268842</v>
       </c>
       <c r="AG4">
-        <v>4.608015950640644E-05</v>
+        <v>4.384612845779625E-05</v>
       </c>
       <c r="AH4">
-        <v>9.231340901117304E-06</v>
+        <v>6.981168025190201E-06</v>
       </c>
       <c r="AI4">
-        <v>1.203537687108151E-05</v>
+        <v>9.786432318507254E-06</v>
       </c>
       <c r="AJ4">
-        <v>5.485029941246396E-06</v>
+        <v>3.233215973233344E-06</v>
       </c>
       <c r="AK4">
-        <v>6.040933335291765E-08</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>3.337955364245062E-05</v>
+        <v>3.113995902370614E-05</v>
       </c>
       <c r="AM4">
-        <v>3.787147259433485E-06</v>
+        <v>1.534589524589052E-06</v>
       </c>
       <c r="AN4">
-        <v>1.521074983706809E-05</v>
+        <v>1.29631962740567E-05</v>
       </c>
       <c r="AO4">
-        <v>9.879226894177391E-06</v>
+        <v>7.629337828266914E-06</v>
       </c>
       <c r="AP4">
-        <v>1.767941981062462E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>5.649897439480396E-06</v>
+        <v>3.398155692580188E-06</v>
       </c>
       <c r="AR4">
-        <v>3.736613959974779E-05</v>
+        <v>3.512829132687116E-05</v>
       </c>
       <c r="AS4">
-        <v>3.526101462229711E-05</v>
+        <v>3.302224418786545E-05</v>
       </c>
       <c r="AT4">
-        <v>2.68440687124563E-05</v>
+        <v>2.460161118865367E-05</v>
       </c>
       <c r="AU4">
-        <v>3.137763966389438E-06</v>
+        <v>8.849217656278994E-07</v>
       </c>
       <c r="AV4">
-        <v>0.0001946807779146518</v>
+        <v>0.000192511842182861</v>
       </c>
       <c r="AW4">
-        <v>0.000385569375869924</v>
+        <v>0.000383484059936585</v>
       </c>
       <c r="AX4">
-        <v>0.0001956569279041956</v>
+        <v>0.0001934884197802676</v>
       </c>
       <c r="AY4">
-        <v>0.0001062485188619053</v>
+        <v>0.0001040408448934789</v>
       </c>
       <c r="AZ4">
-        <v>0.000205886897794616</v>
+        <v>0.0002037228709651684</v>
       </c>
       <c r="BA4">
-        <v>7.306380621736764E-06</v>
+        <v>5.055364506389843E-06</v>
       </c>
       <c r="BB4">
-        <v>6.287725932648215E-05</v>
+        <v>6.065058633967646E-05</v>
       </c>
       <c r="BC4">
-        <v>5.36401054254271E-05</v>
+        <v>5.140938605263635E-05</v>
       </c>
       <c r="BD4">
-        <v>0.000241672677411292</v>
+        <v>0.0002395243267390955</v>
       </c>
       <c r="BE4">
-        <v>0.000354565876202022</v>
+        <v>0.0003524669790154217</v>
       </c>
       <c r="BF4">
-        <v>7.424607520470361E-05</v>
+        <v>7.202438239011645E-05</v>
       </c>
       <c r="BG4">
-        <v>3.567716261783949E-05</v>
+        <v>3.343857447932223E-05</v>
       </c>
       <c r="BH4">
-        <v>7.22527092260558E-05</v>
+        <v>7.003014320655666E-05</v>
       </c>
       <c r="BI4">
-        <v>4.148471355563115E-06</v>
+        <v>1.896071900722924E-06</v>
       </c>
       <c r="BJ4">
-        <v>0.0001370112285323866</v>
+        <v>0.0001348170303378411</v>
       </c>
       <c r="BK4">
-        <v>0.0002579454972369836</v>
+        <v>0.0002558042749628614</v>
       </c>
       <c r="BL4">
-        <v>0.0003952335357664051</v>
+        <v>0.0003931524532713721</v>
       </c>
       <c r="BM4">
-        <v>0.0002479443173441126</v>
+        <v>0.0002457987139982245</v>
       </c>
       <c r="BN4">
-        <v>0.0003200185265720804</v>
+        <v>0.0003179044957292845</v>
       </c>
       <c r="BO4">
-        <v>0.0001762880981116674</v>
+        <v>0.0001741111053654997</v>
       </c>
       <c r="BP4">
-        <v>1.372379835299577E-05</v>
+        <v>1.147559342272233E-05</v>
       </c>
       <c r="BQ4">
-        <v>3.110382966682733E-05</v>
+        <v>2.886323815469995E-05</v>
       </c>
       <c r="BR4">
-        <v>4.962417946844421E-05</v>
+        <v>4.739170089723765E-05</v>
       </c>
       <c r="BS4">
-        <v>0.0001572823683152497</v>
+        <v>0.0001550970500047894</v>
       </c>
       <c r="BT4">
-        <v>0.000421967295480043</v>
+        <v>0.0004198979238552403</v>
       </c>
       <c r="BU4">
-        <v>0.0001195549037193723</v>
+        <v>0.0001173530586858945</v>
       </c>
       <c r="BV4">
-        <v>6.343255432053404E-05</v>
+        <v>6.120612458374947E-05</v>
       </c>
       <c r="BW4">
-        <v>9.821478894795965E-06</v>
+        <v>7.571564532057281E-06</v>
       </c>
       <c r="BX4">
-        <v>7.630928918260323E-05</v>
+        <v>7.408850017022764E-05</v>
       </c>
       <c r="BY4">
-        <v>8.085111913395283E-05</v>
+        <v>7.863231969512538E-05</v>
       </c>
       <c r="BZ4">
-        <v>6.617669929113977E-06</v>
+        <v>4.366352120266629E-06</v>
       </c>
       <c r="CA4">
-        <v>1.936758979254157E-05</v>
+        <v>1.712185715609675E-05</v>
       </c>
       <c r="CB4">
-        <v>9.822983894779844E-07</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>3.985658557307106E-05</v>
+        <v>3.761982825372742E-05</v>
       </c>
       <c r="CD4">
-        <v>0.000150695758385803</v>
+        <v>0.0001485075547746978</v>
       </c>
       <c r="CE4">
-        <v>6.159147134025503E-06</v>
+        <v>3.907628466750143E-06</v>
       </c>
       <c r="CF4">
-        <v>1.108527288125867E-05</v>
+        <v>8.835912130414907E-06</v>
       </c>
       <c r="CG4">
-        <v>8.605426907821861E-06</v>
+        <v>6.35497984683327E-06</v>
       </c>
       <c r="CH4">
-        <v>3.30828216456291E-05</v>
+        <v>3.084309704180414E-05</v>
       </c>
       <c r="CI4">
-        <v>1.431592184665316E-05</v>
+        <v>1.20679762993273E-05</v>
       </c>
       <c r="CJ4">
-        <v>2.747647270568223E-05</v>
+        <v>2.523429220992118E-05</v>
       </c>
       <c r="CK4">
-        <v>3.01521096770218E-06</v>
+        <v>7.623150819266614E-07</v>
       </c>
       <c r="CL4">
-        <v>9.143883902054111E-05</v>
+        <v>8.922467759054429E-05</v>
       </c>
       <c r="CM4">
-        <v>0.001001258389274892</v>
+        <v>0.0009994427792944563</v>
       </c>
       <c r="CN4">
-        <v>0.1452944684436596</v>
+        <v>0.1453558612666184</v>
       </c>
       <c r="CO4">
-        <v>0.04074140256359322</v>
+        <v>0.0407569953419707</v>
       </c>
       <c r="CP4">
-        <v>0.04845668348095</v>
+        <v>0.04847565598049583</v>
       </c>
       <c r="CQ4">
-        <v>0.01570241283180158</v>
+        <v>0.01570703714324474</v>
       </c>
       <c r="CR4">
-        <v>0.01791775780807163</v>
+        <v>0.01792335256354551</v>
       </c>
       <c r="CS4">
-        <v>0.0002772947170297219</v>
+        <v>0.0002751619707875712</v>
       </c>
       <c r="CT4">
-        <v>0.01792957280794507</v>
+        <v>0.01793517273904452</v>
       </c>
       <c r="CU4">
-        <v>0.002146276977009878</v>
+        <v>0.002144962948708786</v>
       </c>
       <c r="CV4">
-        <v>0.0006969411525346251</v>
+        <v>0.0006949922347177119</v>
       </c>
       <c r="CW4">
-        <v>0.009121279902296237</v>
+        <v>0.009123021312324415</v>
       </c>
       <c r="CX4">
-        <v>0.005121087945144808</v>
+        <v>0.005121077049122187</v>
       </c>
       <c r="CY4">
-        <v>0.06843286926697252</v>
+        <v>0.06846059244438574</v>
       </c>
       <c r="CZ4">
-        <v>0.01112233688086166</v>
+        <v>0.01112495486488656</v>
       </c>
       <c r="DA4">
-        <v>0.03226511965438802</v>
+        <v>0.03227699935049615</v>
       </c>
       <c r="DB4">
-        <v>0.009741448895653216</v>
+        <v>0.009743461974114114</v>
       </c>
       <c r="DC4">
-        <v>0.006911866325962654</v>
+        <v>0.006912639890242429</v>
       </c>
       <c r="DD4">
-        <v>0.001305949186011157</v>
+        <v>0.001304267047507206</v>
       </c>
       <c r="DE4">
-        <v>0.001165188187518937</v>
+        <v>0.001163444387886716</v>
       </c>
       <c r="DF4">
-        <v>0.00170331518175472</v>
+        <v>0.001701807111607034</v>
       </c>
       <c r="DG4">
-        <v>0.001529402683617606</v>
+        <v>0.001527818430145204</v>
       </c>
       <c r="DH4">
-        <v>0.005431010941825028</v>
+        <v>0.005431135809272806</v>
       </c>
       <c r="DI4">
-        <v>0.004799609448588366</v>
+        <v>0.004799457727145177</v>
       </c>
       <c r="DJ4">
-        <v>0.009965220893256254</v>
+        <v>0.009967331996269374</v>
       </c>
       <c r="DK4">
-        <v>0.0009373025299599633</v>
+        <v>0.0009354589037641905</v>
       </c>
       <c r="DL4">
-        <v>0.002966794968220794</v>
+        <v>0.002965840372330994</v>
       </c>
       <c r="DM4">
-        <v>0.009406449899241602</v>
+        <v>0.009408316229552733</v>
       </c>
       <c r="DN4">
-        <v>0.008751856906253358</v>
+        <v>0.008753436488509719</v>
       </c>
       <c r="DO4">
-        <v>0.002600782272141386</v>
+        <v>0.002599667342380392</v>
       </c>
       <c r="DP4">
-        <v>0.001895118279700197</v>
+        <v>0.001893694229952704</v>
       </c>
       <c r="DQ4">
-        <v>0.001482404084121038</v>
+        <v>0.00148079924265407</v>
       </c>
       <c r="DR4">
-        <v>0.001611544582737733</v>
+        <v>0.001609996311975259</v>
       </c>
       <c r="DS4">
-        <v>0.0001923447279396747</v>
+        <v>0.0001901747688883658</v>
       </c>
       <c r="DT4">
-        <v>0.02049470078046838</v>
+        <v>0.0205014243799606</v>
       </c>
       <c r="DU4">
-        <v>0.0349668396254482</v>
+        <v>0.03497990282482406</v>
       </c>
       <c r="DV4">
-        <v>0.0007198776522889379</v>
+        <v>0.0007179387819316802</v>
       </c>
       <c r="DW4">
-        <v>0.01605460182802907</v>
+        <v>0.0160593804177958</v>
       </c>
       <c r="DX4">
-        <v>0.002263287775756502</v>
+        <v>0.002262025004678276</v>
       </c>
       <c r="DY4">
-        <v>0.0004890296947616955</v>
+        <v>0.0004869897001891196</v>
       </c>
       <c r="DZ4">
-        <v>0.006464695530752581</v>
+        <v>0.006465273209410221</v>
       </c>
       <c r="EA4">
-        <v>0.0009676431596349657</v>
+        <v>0.0009658128243186142</v>
       </c>
       <c r="EB4">
-        <v>0.0001891280279741308</v>
+        <v>0.0001869566598297399</v>
       </c>
       <c r="EC4">
-        <v>0.002427715573995212</v>
+        <v>0.002426524831416833</v>
       </c>
       <c r="ED4">
-        <v>0.004507296251719516</v>
+        <v>0.004507016480875427</v>
       </c>
       <c r="EE4">
-        <v>0.004485758451950221</v>
+        <v>0.004485469246354686</v>
       </c>
       <c r="EF4">
-        <v>0.003315191964488894</v>
+        <v>0.003314389985816263</v>
       </c>
       <c r="EG4">
-        <v>0.006851967926604263</v>
+        <v>0.006852715252061313</v>
       </c>
       <c r="EH4">
-        <v>0.02660069571506322</v>
+        <v>0.02661009407916291</v>
       </c>
       <c r="EI4">
-        <v>0.01718277681594448</v>
+        <v>0.01718804960895917</v>
       </c>
       <c r="EJ4">
-        <v>0.01423192084755295</v>
+        <v>0.01423590100190834</v>
       </c>
       <c r="EK4">
-        <v>0.0008233370911807187</v>
+        <v>0.0008214435417987354</v>
       </c>
       <c r="EL4">
-        <v>0.0002246783675933288</v>
+        <v>0.0002225225724704053</v>
       </c>
       <c r="EM4">
-        <v>0.002998595967880153</v>
+        <v>0.002997655302592865</v>
       </c>
       <c r="EN4">
-        <v>0.05963957236116305</v>
+        <v>0.05966344358658507</v>
       </c>
       <c r="EO4">
-        <v>0.05055540945846923</v>
+        <v>0.05057530131645305</v>
       </c>
       <c r="EP4">
-        <v>0.008453744909446623</v>
+        <v>0.00845519390210593</v>
       </c>
       <c r="EQ4">
-        <v>0.003786833459436846</v>
+        <v>0.003786238085910732</v>
       </c>
       <c r="ER4">
-        <v>0.002716062570906546</v>
+        <v>0.002714998140313399</v>
       </c>
       <c r="ES4">
-        <v>2.314484275208104E-05</v>
+        <v>2.090076476203501E-05</v>
       </c>
       <c r="ET4">
-        <v>0.001143820687747817</v>
+        <v>0.001142067527964999</v>
       </c>
       <c r="EU4">
-        <v>0.002368406574630509</v>
+        <v>0.002367189851419308</v>
       </c>
       <c r="EV4">
-        <v>0.008215153912002322</v>
+        <v>0.00821649838856516</v>
       </c>
       <c r="EW4">
-        <v>0.0006635326928924842</v>
+        <v>0.000661569140316388</v>
       </c>
       <c r="EX4">
-        <v>0.004794770348640201</v>
+        <v>0.004794616507402711</v>
       </c>
       <c r="EY4">
-        <v>0.0271390197092969</v>
+        <v>0.02714865388917805</v>
       </c>
       <c r="EZ4">
-        <v>0.0139581668504853</v>
+        <v>0.01396202708539917</v>
       </c>
       <c r="FA4">
-        <v>0.004094983456136058</v>
+        <v>0.004094523069407966</v>
       </c>
       <c r="FB4">
-        <v>0.000762999461827033</v>
+        <v>0.0007610794812152136</v>
       </c>
       <c r="FC4">
-        <v>0.01529358033618085</v>
+        <v>0.01529802555630451</v>
       </c>
       <c r="FD4">
-        <v>0.00850092390894126</v>
+        <v>0.008502393568620342</v>
       </c>
       <c r="FE4">
-        <v>7.611059518473157E-06</v>
+        <v>5.360176869389861E-06</v>
       </c>
       <c r="FF4">
-        <v>0.002100128977504198</v>
+        <v>0.002098794733818537</v>
       </c>
       <c r="FG4">
-        <v>0.001751922281234059</v>
+        <v>0.001750435503693188</v>
       </c>
       <c r="FH4">
-        <v>0.0001066787088572973</v>
+        <v>0.0001044712233359604</v>
       </c>
       <c r="FI4">
-        <v>0.0003674923960635579</v>
+        <v>0.0003653991614099589</v>
       </c>
       <c r="FJ4">
-        <v>0.003939979157796406</v>
+        <v>0.00393945087058434</v>
       </c>
       <c r="FK4">
-        <v>0.01092182588300946</v>
+        <v>0.0109243560320908</v>
       </c>
       <c r="FL4">
-        <v>0.0002523648672967612</v>
+        <v>0.000250221200397052</v>
       </c>
       <c r="FM4">
-        <v>0.0003984814957316142</v>
+        <v>0.0003964018360232776</v>
       </c>
       <c r="FN4">
-        <v>0.0003313672764505168</v>
+        <v>0.0003292582169899181</v>
       </c>
       <c r="FO4">
-        <v>0.006731443927895272</v>
+        <v>0.006732138457152924</v>
       </c>
       <c r="FP4">
-        <v>0.008771477906043185</v>
+        <v>0.008773066083386237</v>
       </c>
       <c r="FQ4">
-        <v>0.0001614605382704947</v>
+        <v>0.0001592770502303244</v>
       </c>
       <c r="FR4">
-        <v>0.004074455156355949</v>
+        <v>0.004073985777093423</v>
       </c>
       <c r="FS4">
-        <v>0.000123201158680315</v>
+        <v>0.0001210009109088434</v>
       </c>
       <c r="FT4">
-        <v>0.002784205770176621</v>
+        <v>0.00278317119008607</v>
       </c>
       <c r="FU4">
-        <v>0.001844549980241865</v>
+        <v>0.001843103778773138</v>
       </c>
       <c r="FV4">
-        <v>0.003560686661859247</v>
+        <v>0.003559992223486743</v>
       </c>
       <c r="FW4">
-        <v>0.0109047938831919</v>
+        <v>0.0109073165713122</v>
       </c>
       <c r="FX4">
-        <v>0.007712214217389625</v>
+        <v>0.007713338378457732</v>
       </c>
       <c r="FY4">
-        <v>0.0004234038554646552</v>
+        <v>0.0004213351131328415</v>
       </c>
       <c r="FZ4">
-        <v>0.001015896789118091</v>
+        <v>0.001014087591569082</v>
       </c>
       <c r="GA4">
-        <v>1.203537687108151E-05</v>
+        <v>9.786432318507254E-06</v>
       </c>
       <c r="GB4">
-        <v>1.936758979254157E-05</v>
+        <v>1.712185715609675E-05</v>
       </c>
       <c r="GC4">
-        <v>0.003381230163781518</v>
+        <v>0.003380457113504684</v>
       </c>
       <c r="GD4">
-        <v>0.01095400688266475</v>
+        <v>0.01095655112880968</v>
       </c>
       <c r="GE4">
-        <v>0.01575791483120707</v>
+        <v>0.01576256345560582</v>
       </c>
       <c r="GF4">
-        <v>0.007891627915467811</v>
+        <v>0.007892830669691474</v>
       </c>
       <c r="GG4">
-        <v>0.003291096764746993</v>
+        <v>0.003290284231039815</v>
       </c>
       <c r="GH4">
-        <v>0.0007503203919628466</v>
+        <v>0.0007483948572148559</v>
       </c>
       <c r="GI4">
-        <v>0.0002468452673558851</v>
+        <v>0.0002446991825651151</v>
       </c>
       <c r="GJ4">
-        <v>0.0006327010932227408</v>
+        <v>0.0006307240346951214</v>
       </c>
       <c r="GK4">
-        <v>0.001111588788093074</v>
+        <v>0.001109821508949635</v>
       </c>
       <c r="GL4">
-        <v>0.002170938976745708</v>
+        <v>0.002169635751769013</v>
       </c>
       <c r="GM4">
-        <v>0.001946966379144819</v>
+        <v>0.001945565041741972</v>
       </c>
       <c r="GN4">
-        <v>0.001038289988878223</v>
+        <v>0.001036490600793324</v>
       </c>
       <c r="GO4">
-        <v>0.001564018283246817</v>
+        <v>0.001562449193327898</v>
       </c>
       <c r="GP4">
-        <v>0.001096883288250593</v>
+        <v>0.001095109567282204</v>
       </c>
       <c r="GQ4">
-        <v>0.001076154488472633</v>
+        <v>0.001074371687139685</v>
       </c>
       <c r="GR4">
-        <v>0.001744900481309274</v>
+        <v>0.001743410627830391</v>
       </c>
       <c r="GS4">
-        <v>0.002174195776710822</v>
+        <v>0.002172893978393234</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.470341185627459E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.574907091717007E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.627445669486034E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>8.981113523028217E-05</v>
+        <v>7.428477751141392E-05</v>
       </c>
       <c r="F5">
-        <v>0.0002756127160507077</v>
+        <v>0.0002606450851874548</v>
       </c>
       <c r="G5">
-        <v>0.0004956585288653959</v>
+        <v>0.0004813526012263158</v>
       </c>
       <c r="H5">
-        <v>0.0003623712211032155</v>
+        <v>0.0003476644831048771</v>
       </c>
       <c r="I5">
-        <v>8.728915908341122E-05</v>
+        <v>7.175521749041091E-05</v>
       </c>
       <c r="J5">
-        <v>3.87612772573194E-08</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0004001879633055285</v>
+        <v>0.0003855949446273758</v>
       </c>
       <c r="L5">
-        <v>0.00110624366442371</v>
+        <v>0.001093773836947877</v>
       </c>
       <c r="M5">
-        <v>0.0008361451786941314</v>
+        <v>0.0008228631338142711</v>
       </c>
       <c r="N5">
-        <v>0.0006564783382309715</v>
+        <v>0.0006426560143696996</v>
       </c>
       <c r="O5">
-        <v>0.0002692500556801689</v>
+        <v>0.000254263291560856</v>
       </c>
       <c r="P5">
-        <v>9.048818526971116E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.889691468285389E-05</v>
+        <v>1.318738085343563E-05</v>
       </c>
       <c r="R5">
-        <v>0.0001253645873007892</v>
+        <v>0.0001099451429267585</v>
       </c>
       <c r="S5">
-        <v>0.00057626309355952</v>
+        <v>0.0005621995531745254</v>
       </c>
       <c r="T5">
-        <v>0.0004247982247387429</v>
+        <v>0.0004102792119647689</v>
       </c>
       <c r="U5">
-        <v>0.0002577434750100664</v>
+        <v>0.0002427221092710671</v>
       </c>
       <c r="V5">
-        <v>0.000308422857961454</v>
+        <v>0.0002935538909919158</v>
       </c>
       <c r="W5">
-        <v>0.000146979618559572</v>
+        <v>0.0001316251730859593</v>
       </c>
       <c r="X5">
-        <v>7.647156445343286E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.000109809946394942</v>
+        <v>9.434372741562992E-05</v>
       </c>
       <c r="Z5">
-        <v>0.0006304186367133469</v>
+        <v>0.0006165179483138244</v>
       </c>
       <c r="AA5">
-        <v>0.0005252968705914278</v>
+        <v>0.000511080068875847</v>
       </c>
       <c r="AB5">
-        <v>0.0004279065249197593</v>
+        <v>0.0004133968591641409</v>
       </c>
       <c r="AC5">
-        <v>0.0005140955299391014</v>
+        <v>0.0004998450444958918</v>
       </c>
       <c r="AD5">
-        <v>8.933342020246174E-05</v>
+        <v>7.380562593922075E-05</v>
       </c>
       <c r="AE5">
-        <v>3.324280893594336E-07</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001552150290391731</v>
+        <v>0.0001398853483979243</v>
       </c>
       <c r="AG5">
-        <v>0.0003255196689571117</v>
+        <v>0.0003107021140767843</v>
       </c>
       <c r="AH5">
-        <v>0.0006132980657163054</v>
+        <v>0.0005993458937784983</v>
       </c>
       <c r="AI5">
-        <v>0.0003393645897633908</v>
+        <v>0.0003245886681621463</v>
       </c>
       <c r="AJ5">
-        <v>9.45280555049789E-05</v>
+        <v>7.901588211124733E-05</v>
       </c>
       <c r="AK5">
-        <v>1.979095115255485E-05</v>
+        <v>4.054034637003531E-06</v>
       </c>
       <c r="AL5">
-        <v>0.0002515917446518115</v>
+        <v>0.0002365518799477093</v>
       </c>
       <c r="AM5">
-        <v>0.0005110616297624178</v>
+        <v>0.0004968020210302756</v>
       </c>
       <c r="AN5">
-        <v>0.0002670556155523725</v>
+        <v>0.0002520622524976414</v>
       </c>
       <c r="AO5">
-        <v>0.0001758189102390702</v>
+        <v>0.0001605511878529958</v>
       </c>
       <c r="AP5">
-        <v>0.0002031639318315473</v>
+        <v>0.0001879784390899337</v>
       </c>
       <c r="AQ5">
-        <v>8.108903872233818E-05</v>
+        <v>6.553645264989652E-05</v>
       </c>
       <c r="AR5">
-        <v>3.273865190658305E-05</v>
+        <v>1.704067062558573E-05</v>
       </c>
       <c r="AS5">
-        <v>1.417921882574745E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.000202928421817832</v>
+        <v>0.0001877422208703525</v>
       </c>
       <c r="AU5">
-        <v>0.000490698528576543</v>
+        <v>0.000476377685642593</v>
       </c>
       <c r="AV5">
-        <v>0.0005310764809280118</v>
+        <v>0.0005168770591695648</v>
       </c>
       <c r="AW5">
-        <v>0.0005946364046295165</v>
+        <v>0.0005806281149171805</v>
       </c>
       <c r="AX5">
-        <v>0.0002545264848227203</v>
+        <v>0.000239495445221938</v>
       </c>
       <c r="AY5">
-        <v>4.68047527257429E-05</v>
+        <v>3.114906983772348E-05</v>
       </c>
       <c r="AZ5">
-        <v>5.671395030281944E-05</v>
+        <v>4.108806551866687E-05</v>
       </c>
       <c r="BA5">
-        <v>0.0003550700706780223</v>
+        <v>0.0003403413772754219</v>
       </c>
       <c r="BB5">
-        <v>0.0006220350362251156</v>
+        <v>0.0006081091373687238</v>
       </c>
       <c r="BC5">
-        <v>0.0002180717426997253</v>
+        <v>0.0002029310794706148</v>
       </c>
       <c r="BD5">
-        <v>0.0004325390851895432</v>
+        <v>0.0004180433500787641</v>
       </c>
       <c r="BE5">
-        <v>0.0001731636800844389</v>
+        <v>0.0001578879731140103</v>
       </c>
       <c r="BF5">
-        <v>7.253058422392413E-05</v>
+        <v>5.695226188836935E-05</v>
       </c>
       <c r="BG5">
-        <v>0.0004581102266787158</v>
+        <v>0.0004436913869496426</v>
       </c>
       <c r="BH5">
-        <v>0.0008253687880665527</v>
+        <v>0.0008120543373329659</v>
       </c>
       <c r="BI5">
-        <v>0.0004638646470138328</v>
+        <v>0.0004494631114926438</v>
       </c>
       <c r="BJ5">
-        <v>4.365096054207722E-05</v>
+        <v>2.798579383598552E-05</v>
       </c>
       <c r="BK5">
-        <v>1.473168785792128E-07</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>5.414567915325243E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001554210290511698</v>
+        <v>0.0001400919678757967</v>
       </c>
       <c r="BN5">
-        <v>0.0003246096189041136</v>
+        <v>0.0003097893273979604</v>
       </c>
       <c r="BO5">
-        <v>0.0002280785832824882</v>
+        <v>0.0002129680117810625</v>
       </c>
       <c r="BP5">
-        <v>0.0004555992265324841</v>
+        <v>0.000441172835935383</v>
       </c>
       <c r="BQ5">
-        <v>0.0002304458034203468</v>
+        <v>0.0002153423504238247</v>
       </c>
       <c r="BR5">
-        <v>1.075212462616563E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0001345287678344786</v>
+        <v>0.0001191368812118474</v>
       </c>
       <c r="BT5">
-        <v>0.0001950523113591552</v>
+        <v>0.0001798424260360551</v>
       </c>
       <c r="BU5">
-        <v>0.0002394352039438576</v>
+        <v>0.0002243587831150178</v>
       </c>
       <c r="BV5">
-        <v>8.418719490276382E-05</v>
+        <v>6.864392534449414E-05</v>
       </c>
       <c r="BW5">
-        <v>0.0003756710418777499</v>
+        <v>0.0003610042979796166</v>
       </c>
       <c r="BX5">
-        <v>0.000566652772999849</v>
+        <v>0.0005525603332687667</v>
       </c>
       <c r="BY5">
-        <v>0.0003049028177564594</v>
+        <v>0.0002900232656186643</v>
       </c>
       <c r="BZ5">
-        <v>2.905181369187466E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0002280785832824882</v>
+        <v>0.0002129680117810625</v>
       </c>
       <c r="CB5">
-        <v>0.0011017909641644</v>
+        <v>0.001089307746903594</v>
       </c>
       <c r="CC5">
-        <v>0.001133899866034309</v>
+        <v>0.001121513203957263</v>
       </c>
       <c r="CD5">
-        <v>0.000737823992968254</v>
+        <v>0.0007242462849045908</v>
       </c>
       <c r="CE5">
-        <v>0.0006304186367133469</v>
+        <v>0.0006165179483138244</v>
       </c>
       <c r="CF5">
-        <v>2.396487039562911E-05</v>
+        <v>8.240505338273023E-06</v>
       </c>
       <c r="CG5">
-        <v>9.258380539175266E-05</v>
+        <v>7.706578541293019E-05</v>
       </c>
       <c r="CH5">
-        <v>0.0003049028177564594</v>
+        <v>0.0002900232656186643</v>
       </c>
       <c r="CI5">
-        <v>0.0006406999373120933</v>
+        <v>0.0006268301659732859</v>
       </c>
       <c r="CJ5">
-        <v>0.0007544543439367468</v>
+        <v>0.0007409266452630111</v>
       </c>
       <c r="CK5">
-        <v>0.0002577434750100664</v>
+        <v>0.0002427221092710671</v>
       </c>
       <c r="CL5">
-        <v>0.0002849603665950817</v>
+        <v>0.0002700208451987827</v>
       </c>
       <c r="CM5">
-        <v>4.205142644892602E-06</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0003372038696375581</v>
+        <v>0.0003224214505008436</v>
       </c>
       <c r="CO5">
-        <v>0.01145151266689551</v>
+        <v>0.01147015226052752</v>
       </c>
       <c r="CP5">
-        <v>0.04607590968329766</v>
+        <v>0.04619866884570369</v>
       </c>
       <c r="CQ5">
-        <v>0.09024895525577925</v>
+        <v>0.09050454787819508</v>
       </c>
       <c r="CR5">
-        <v>0.02833064964987662</v>
+        <v>0.02840004676177279</v>
       </c>
       <c r="CS5">
-        <v>0.02988519674040793</v>
+        <v>0.02995926855530697</v>
       </c>
       <c r="CT5">
-        <v>0.01037333410410621</v>
+        <v>0.01038873149002654</v>
       </c>
       <c r="CU5">
-        <v>0.0009928725578213786</v>
+        <v>0.0009800618103079988</v>
       </c>
       <c r="CV5">
-        <v>0.02525467047074249</v>
+        <v>0.025314817757276</v>
       </c>
       <c r="CW5">
-        <v>0.004550095864981455</v>
+        <v>0.004547982099616209</v>
       </c>
       <c r="CX5">
-        <v>0.004580669866761976</v>
+        <v>0.004578648040958294</v>
       </c>
       <c r="CY5">
-        <v>0.01924821512094782</v>
+        <v>0.01929030030114097</v>
       </c>
       <c r="CZ5">
-        <v>0.03262990890025023</v>
+        <v>0.03271223438224869</v>
       </c>
       <c r="DA5">
-        <v>0.05847833640557103</v>
+        <v>0.05863839110041515</v>
       </c>
       <c r="DB5">
-        <v>0.002552758148663586</v>
+        <v>0.002544638157641312</v>
       </c>
       <c r="DC5">
-        <v>0.0534276061114344</v>
+        <v>0.05357247267578283</v>
       </c>
       <c r="DD5">
-        <v>0.0009865488574531086</v>
+        <v>0.0009737190938409045</v>
       </c>
       <c r="DE5">
-        <v>0.003950925230087881</v>
+        <v>0.003947009689283843</v>
       </c>
       <c r="DF5">
-        <v>0.01247169772630747</v>
+        <v>0.01249340513447515</v>
       </c>
       <c r="DG5">
-        <v>0.001306200476068486</v>
+        <v>0.001294331941865486</v>
       </c>
       <c r="DH5">
-        <v>0.0002000750816516636</v>
+        <v>0.0001848803003800985</v>
       </c>
       <c r="DI5">
-        <v>0.002703886157464746</v>
+        <v>0.002696220625854388</v>
       </c>
       <c r="DJ5">
-        <v>0.0005061555694767062</v>
+        <v>0.0004918812076535258</v>
       </c>
       <c r="DK5">
-        <v>0.00662499008581594</v>
+        <v>0.006629115767492116</v>
       </c>
       <c r="DL5">
-        <v>0.001731912500860445</v>
+        <v>0.001721324131981979</v>
       </c>
       <c r="DM5">
-        <v>0.0002993668774340658</v>
+        <v>0.0002844706780830686</v>
       </c>
       <c r="DN5">
-        <v>0.00164812709598108</v>
+        <v>0.001637286774693985</v>
       </c>
       <c r="DO5">
-        <v>0.005083110296022327</v>
+        <v>0.005082599366734891</v>
       </c>
       <c r="DP5">
-        <v>0.0058198133389253</v>
+        <v>0.005821517760943628</v>
       </c>
       <c r="DQ5">
-        <v>0.008124337973132646</v>
+        <v>0.008132972367419635</v>
       </c>
       <c r="DR5">
-        <v>0.003110676681154784</v>
+        <v>0.003104234415725434</v>
       </c>
       <c r="DS5">
-        <v>0.001369094279731198</v>
+        <v>0.001357414874474266</v>
       </c>
       <c r="DT5">
-        <v>0.0004251389747585869</v>
+        <v>0.0004106209866593562</v>
       </c>
       <c r="DU5">
-        <v>0.00324063438872306</v>
+        <v>0.003234582921159865</v>
       </c>
       <c r="DV5">
-        <v>0.02116529123259154</v>
+        <v>0.0212131412825081</v>
       </c>
       <c r="DW5">
-        <v>0.0154446058994391</v>
+        <v>0.0154752531865264</v>
       </c>
       <c r="DX5">
-        <v>0.0002050784919430445</v>
+        <v>0.0001898987565052507</v>
       </c>
       <c r="DY5">
-        <v>0.006095622054987422</v>
+        <v>0.00609815586573321</v>
       </c>
       <c r="DZ5">
-        <v>0.0001322074176992914</v>
+        <v>0.000116808550508163</v>
       </c>
       <c r="EA5">
-        <v>0.0009997392582212707</v>
+        <v>0.0009869491596706497</v>
       </c>
       <c r="EB5">
-        <v>0.004069360236985117</v>
+        <v>0.004065800843952837</v>
       </c>
       <c r="EC5">
-        <v>0.0002872269667270805</v>
+        <v>0.0002722942612596831</v>
       </c>
       <c r="ED5">
-        <v>0.0005946364046295165</v>
+        <v>0.0005806281149171805</v>
       </c>
       <c r="EE5">
-        <v>0.004121185240003221</v>
+        <v>0.004117781690752521</v>
       </c>
       <c r="EF5">
-        <v>0.0002747753360019417</v>
+        <v>0.0002598051870399754</v>
       </c>
       <c r="EG5">
-        <v>0.005582049825078796</v>
+        <v>0.005583039264695548</v>
       </c>
       <c r="EH5">
-        <v>6.96339340552335E-08</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.0126852637387448</v>
+        <v>0.01270761336462703</v>
       </c>
       <c r="EJ5">
-        <v>0.02724084458641023</v>
+        <v>0.02730696452836169</v>
       </c>
       <c r="EK5">
-        <v>0.01857863708195397</v>
+        <v>0.01861870876349623</v>
       </c>
       <c r="EL5">
-        <v>0.009632428560958497</v>
+        <v>0.009645597958168488</v>
       </c>
       <c r="EM5">
-        <v>0.0002872269667270805</v>
+        <v>0.0002722942612596831</v>
       </c>
       <c r="EN5">
-        <v>0.000124052657224387</v>
+        <v>0.0001086292677247921</v>
       </c>
       <c r="EO5">
-        <v>0.01686575698220191</v>
+        <v>0.01690067783505931</v>
       </c>
       <c r="EP5">
-        <v>0.0731206042582848</v>
+        <v>0.07332468994705427</v>
       </c>
       <c r="EQ5">
-        <v>0.03706692715864645</v>
+        <v>0.03716259526802663</v>
       </c>
       <c r="ER5">
-        <v>0.009781487569639166</v>
+        <v>0.009795105204538274</v>
       </c>
       <c r="ES5">
-        <v>0.004951803288375472</v>
+        <v>0.004950897503720397</v>
       </c>
       <c r="ET5">
-        <v>0.000358867890899194</v>
+        <v>0.0003441506179815054</v>
       </c>
       <c r="EU5">
-        <v>0.0004311467051084559</v>
+        <v>0.0004166467829496383</v>
       </c>
       <c r="EV5">
-        <v>0.0003838272423527381</v>
+        <v>0.0003691850250933182</v>
       </c>
       <c r="EW5">
-        <v>0.005278033307373951</v>
+        <v>0.005278108534139326</v>
       </c>
       <c r="EX5">
-        <v>0.003418466199079355</v>
+        <v>0.003412949492349679</v>
       </c>
       <c r="EY5">
-        <v>0.002402974939940743</v>
+        <v>0.002394404533476015</v>
       </c>
       <c r="EZ5">
-        <v>0.01402440581673168</v>
+        <v>0.01405078239781609</v>
       </c>
       <c r="FA5">
-        <v>0.02752542660298328</v>
+        <v>0.02759240231599214</v>
       </c>
       <c r="FB5">
-        <v>0.007522438438080151</v>
+        <v>0.007529262850809764</v>
       </c>
       <c r="FC5">
-        <v>0.009173325534221963</v>
+        <v>0.009185114355500365</v>
       </c>
       <c r="FD5">
-        <v>0.0007269442823346583</v>
+        <v>0.0007133338577220537</v>
       </c>
       <c r="FE5">
-        <v>0.01877012609310561</v>
+        <v>0.01881077360426467</v>
       </c>
       <c r="FF5">
-        <v>0.00475113497668926</v>
+        <v>0.004749625759198389</v>
       </c>
       <c r="FG5">
-        <v>0.002461064143323652</v>
+        <v>0.002452668417815933</v>
       </c>
       <c r="FH5">
-        <v>0.002955701872129601</v>
+        <v>0.002948793579514886</v>
       </c>
       <c r="FI5">
-        <v>0.0007928054961701819</v>
+        <v>0.0007793931238494407</v>
       </c>
       <c r="FJ5">
-        <v>0.000346810960197041</v>
+        <v>0.0003320574306934298</v>
       </c>
       <c r="FK5">
-        <v>2.747413759999639E-05</v>
+        <v>1.176032531523757E-05</v>
       </c>
       <c r="FL5">
-        <v>0.0136461172947015</v>
+        <v>0.01367135631842232</v>
       </c>
       <c r="FM5">
-        <v>0.005590830325590141</v>
+        <v>0.005591846169188063</v>
       </c>
       <c r="FN5">
-        <v>1.979095115255485E-05</v>
+        <v>4.054034637003531E-06</v>
       </c>
       <c r="FO5">
-        <v>7.46299043461811E-06</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001928422612304497</v>
+        <v>0.001918425172072488</v>
       </c>
       <c r="FQ5">
-        <v>0.008468117493153147</v>
+        <v>0.008477785672241092</v>
       </c>
       <c r="FR5">
-        <v>0.00216060212582581</v>
+        <v>0.002151302876260183</v>
       </c>
       <c r="FS5">
-        <v>0.00209160532180768</v>
+        <v>0.002082098590867642</v>
       </c>
       <c r="FT5">
-        <v>0.005310112909242153</v>
+        <v>0.005310284603082792</v>
       </c>
       <c r="FU5">
-        <v>0.0001248000372679118</v>
+        <v>0.0001093788952265991</v>
       </c>
       <c r="FV5">
-        <v>0.001067412262162307</v>
+        <v>0.001054825664166068</v>
       </c>
       <c r="FW5">
-        <v>0.002940252371229876</v>
+        <v>0.002933297620178045</v>
       </c>
       <c r="FX5">
-        <v>0.006414003073528804</v>
+        <v>0.006417494292842333</v>
       </c>
       <c r="FY5">
-        <v>0.01203966070114717</v>
+        <v>0.01206006892398224</v>
       </c>
       <c r="FZ5">
-        <v>0.003310940192817421</v>
+        <v>0.003305100142943352</v>
       </c>
       <c r="GA5">
-        <v>0.0005279927007484233</v>
+        <v>0.0005137840057061024</v>
       </c>
       <c r="GB5">
-        <v>0.000566652772999849</v>
+        <v>0.0005525603332687667</v>
       </c>
       <c r="GC5">
-        <v>9.98114558126654E-05</v>
+        <v>8.431517021508626E-05</v>
       </c>
       <c r="GD5">
-        <v>6.41770637374447E-05</v>
+        <v>4.857362139906691E-05</v>
       </c>
       <c r="GE5">
-        <v>0.006220057362234094</v>
+        <v>0.006222965364349182</v>
       </c>
       <c r="GF5">
-        <v>0.0124193737232603</v>
+        <v>0.01244092378709557</v>
       </c>
       <c r="GG5">
-        <v>0.0127803777442839</v>
+        <v>0.01280301338898796</v>
       </c>
       <c r="GH5">
-        <v>0.007388872430301741</v>
+        <v>0.007395295194588893</v>
       </c>
       <c r="GI5">
-        <v>0.002392847739350971</v>
+        <v>0.002384246879222088</v>
       </c>
       <c r="GJ5">
-        <v>0.0003851410824292515</v>
+        <v>0.0003705028160389872</v>
       </c>
       <c r="GK5">
-        <v>6.85911439945051E-05</v>
+        <v>5.300097530628449E-05</v>
       </c>
       <c r="GL5">
-        <v>0.003193762185993389</v>
+        <v>0.003187569768292249</v>
       </c>
       <c r="GM5">
-        <v>0.002351792936960085</v>
+        <v>0.002343068620289302</v>
       </c>
       <c r="GN5">
-        <v>0.003350899495144509</v>
+        <v>0.003345179607516871</v>
       </c>
       <c r="GO5">
-        <v>0.00227019603220817</v>
+        <v>0.002261226344201909</v>
       </c>
       <c r="GP5">
-        <v>0.002500286945607849</v>
+        <v>0.002492009167605699</v>
       </c>
       <c r="GQ5">
-        <v>0.00127830857444416</v>
+        <v>0.001266356166065156</v>
       </c>
       <c r="GR5">
-        <v>0.000241513274064877</v>
+        <v>0.000226443102233378</v>
       </c>
       <c r="GS5">
-        <v>0.000881473411333887</v>
+        <v>0.0008683276736952331</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>7.598840934666443E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>9.878991915062087E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002128792281697002</v>
+        <v>0.000116118498405467</v>
       </c>
       <c r="E6">
-        <v>5.432387453293245E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.000135517418834844</v>
+        <v>3.73807340073035E-05</v>
       </c>
       <c r="G6">
-        <v>0.00048680527581453</v>
+        <v>0.0003949165873775265</v>
       </c>
       <c r="H6">
-        <v>0.001118770890380996</v>
+        <v>0.001038122325393472</v>
       </c>
       <c r="I6">
-        <v>0.0006713936442274701</v>
+        <v>0.0005827880395540077</v>
       </c>
       <c r="J6">
-        <v>0.0003965488565905396</v>
+        <v>0.0003030548699050205</v>
       </c>
       <c r="K6">
-        <v>0.0003638981968712644</v>
+        <v>0.0002698234864287996</v>
       </c>
       <c r="L6">
-        <v>8.230765929233257E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.049735140974554E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.000299117617428237</v>
+        <v>0.0002038907213394566</v>
       </c>
       <c r="O6">
-        <v>0.0004668448459861465</v>
+        <v>0.0003746011418802452</v>
       </c>
       <c r="P6">
-        <v>0.0004801417458718219</v>
+        <v>0.000388134540070204</v>
       </c>
       <c r="Q6">
-        <v>0.000290953927498427</v>
+        <v>0.0001955818322397878</v>
       </c>
       <c r="R6">
-        <v>0.0001502877087078515</v>
+        <v>5.241372785934173E-05</v>
       </c>
       <c r="S6">
-        <v>0.0001385936488083951</v>
+        <v>4.051167772455316E-05</v>
       </c>
       <c r="T6">
-        <v>1.009000291324785E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2.910067774979726E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0002769919476184697</v>
+        <v>0.0001813715249606294</v>
       </c>
       <c r="W6">
-        <v>0.0001827830684284619</v>
+        <v>8.548704917529215E-05</v>
       </c>
       <c r="X6">
-        <v>8.047002930813221E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.108695973271954E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.291183971702953E-07</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1.305669788774071E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002188647281182378</v>
+        <v>0.000122210456295351</v>
       </c>
       <c r="AC6">
-        <v>0.0005268517954702168</v>
+        <v>0.0004356753733563751</v>
       </c>
       <c r="AD6">
-        <v>0.0005367684953849547</v>
+        <v>0.0004457684514294872</v>
       </c>
       <c r="AE6">
-        <v>0.0002496792978532993</v>
+        <v>0.0001535730931402066</v>
       </c>
       <c r="AF6">
-        <v>4.705909259539383E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0003544616969523979</v>
+        <v>0.0002602191491757897</v>
       </c>
       <c r="AH6">
-        <v>0.0007566287934946328</v>
+        <v>0.0006695391788970782</v>
       </c>
       <c r="AI6">
-        <v>0.0003920546366291801</v>
+        <v>0.0002984807158681189</v>
       </c>
       <c r="AJ6">
-        <v>0.000679039094161736</v>
+        <v>0.0005905694712554887</v>
       </c>
       <c r="AK6">
-        <v>0.0002957568174571326</v>
+        <v>0.0002004701462703191</v>
       </c>
       <c r="AL6">
-        <v>4.838840258396464E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>6.697847942413029E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0002355790479745309</v>
+        <v>0.0001392220565957513</v>
       </c>
       <c r="AO6">
-        <v>0.0005510196952624252</v>
+        <v>0.0004602731227652679</v>
       </c>
       <c r="AP6">
-        <v>0.0004712563959482167</v>
+        <v>0.0003790911555514703</v>
       </c>
       <c r="AQ6">
-        <v>0.0005093368956208069</v>
+        <v>0.0004178489539685996</v>
       </c>
       <c r="AR6">
-        <v>0.0004986666957125475</v>
+        <v>0.0004069889741713162</v>
       </c>
       <c r="AS6">
-        <v>0.0002712251676680516</v>
+        <v>0.0001755021772168778</v>
       </c>
       <c r="AT6">
-        <v>5.03370495672105E-07</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0002090625582025153</v>
+        <v>0.000112233945248741</v>
       </c>
       <c r="AV6">
-        <v>0.0006766820341820016</v>
+        <v>0.0005881704886702528</v>
       </c>
       <c r="AW6">
-        <v>0.0005085147556278755</v>
+        <v>0.0004170121914158323</v>
       </c>
       <c r="AX6">
-        <v>0.000855540442644207</v>
+        <v>0.0007702100679821914</v>
       </c>
       <c r="AY6">
-        <v>0.0005995342948453048</v>
+        <v>0.0005096506017134871</v>
       </c>
       <c r="AZ6">
-        <v>0.0001628565385997868</v>
+        <v>6.520610662220378E-05</v>
       </c>
       <c r="BA6">
-        <v>2.289034480319266E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>9.677568916793888E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.000472731495935534</v>
+        <v>0.0003805924916275487</v>
       </c>
       <c r="BD6">
-        <v>0.0008108648430283202</v>
+        <v>0.000724739869351283</v>
       </c>
       <c r="BE6">
-        <v>0.0003986293365726519</v>
+        <v>0.0003051723532482242</v>
       </c>
       <c r="BF6">
-        <v>0.000319818647250253</v>
+        <v>0.0002249599391219686</v>
       </c>
       <c r="BG6">
-        <v>6.833801941244119E-09</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0001147736250131957</v>
+        <v>1.626799162581011E-05</v>
       </c>
       <c r="BI6">
-        <v>0.0003638981968712644</v>
+        <v>0.0002698234864287996</v>
       </c>
       <c r="BJ6">
-        <v>0.0002501765978490237</v>
+        <v>0.0001540792381003001</v>
       </c>
       <c r="BK6">
-        <v>0.0002621295577462541</v>
+        <v>0.0001662447930212704</v>
       </c>
       <c r="BL6">
-        <v>0.0003277149771823617</v>
+        <v>0.0002329967129661968</v>
       </c>
       <c r="BM6">
-        <v>0.0003091387273420772</v>
+        <v>0.0002140900664451112</v>
       </c>
       <c r="BN6">
-        <v>0.0002803924375892329</v>
+        <v>0.0001848324959546937</v>
       </c>
       <c r="BO6">
-        <v>5.526962952480101E-07</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0001086997990654174</v>
+        <v>1.008613677283498E-05</v>
       </c>
       <c r="BQ6">
-        <v>0.0003932251966191158</v>
+        <v>0.0002996720954066006</v>
       </c>
       <c r="BR6">
-        <v>0.0005526147352487113</v>
+        <v>0.0004618965320899158</v>
       </c>
       <c r="BS6">
-        <v>0.000720713893803423</v>
+        <v>0.0006329854977644416</v>
       </c>
       <c r="BT6">
-        <v>0.0002355790479745309</v>
+        <v>0.0001392220565957513</v>
       </c>
       <c r="BU6">
-        <v>0.0001086997990654174</v>
+        <v>1.008613677283498E-05</v>
       </c>
       <c r="BV6">
-        <v>1.807560084458902E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0002213461080969033</v>
+        <v>0.0001247359700316805</v>
       </c>
       <c r="BX6">
-        <v>0.000198084118296906</v>
+        <v>0.0001010602431057925</v>
       </c>
       <c r="BY6">
-        <v>0.0003880317666637681</v>
+        <v>0.0002943862952455347</v>
       </c>
       <c r="BZ6">
-        <v>0.0005432850953289261</v>
+        <v>0.0004524009554450613</v>
       </c>
       <c r="CA6">
-        <v>9.686253916719217E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>4.985377957136558E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0004031609965336895</v>
+        <v>0.0003097846131916327</v>
       </c>
       <c r="CD6">
-        <v>0.0006444637944590086</v>
+        <v>0.0005553792162007554</v>
       </c>
       <c r="CE6">
-        <v>0.000145334898750435</v>
+        <v>4.737282735702842E-05</v>
       </c>
       <c r="CF6">
-        <v>3.205468972439916E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>8.339023228302479E-07</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>6.2338039464028E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0001764137384832243</v>
+        <v>7.900443449869454E-05</v>
       </c>
       <c r="CJ6">
-        <v>0.0001015967891264879</v>
+        <v>2.856792889880338E-06</v>
       </c>
       <c r="CK6">
-        <v>0.0002826709775696424</v>
+        <v>0.0001871515619860054</v>
       </c>
       <c r="CL6">
-        <v>0.0006292653945896818</v>
+        <v>0.0005399104979995</v>
       </c>
       <c r="CM6">
-        <v>0.0004259183163380258</v>
+        <v>0.0003329466940748697</v>
       </c>
       <c r="CN6">
-        <v>0.01281727588979922</v>
+        <v>0.01294469662057238</v>
       </c>
       <c r="CO6">
-        <v>0.08522569926724376</v>
+        <v>0.08664097427170708</v>
       </c>
       <c r="CP6">
-        <v>0.08716857325053926</v>
+        <v>0.08861840415949433</v>
       </c>
       <c r="CQ6">
-        <v>0.02087271382053991</v>
+        <v>0.02114340835402347</v>
       </c>
       <c r="CR6">
-        <v>0.01644996585856596</v>
+        <v>0.01664199751556908</v>
       </c>
       <c r="CS6">
-        <v>0.002648527977228401</v>
+        <v>0.002595087630706493</v>
       </c>
       <c r="CT6">
-        <v>0.004503767961277359</v>
+        <v>0.00448332486328997</v>
       </c>
       <c r="CU6">
-        <v>0.01068963940809228</v>
+        <v>0.01077921805353868</v>
       </c>
       <c r="CV6">
-        <v>0.00348908997000139</v>
+        <v>0.003450599836509965</v>
       </c>
       <c r="CW6">
-        <v>0.004603037560423857</v>
+        <v>0.004584360068861039</v>
       </c>
       <c r="CX6">
-        <v>0.00315220047289791</v>
+        <v>0.003107718431858043</v>
       </c>
       <c r="CY6">
-        <v>0.02161694481414114</v>
+        <v>0.02190087622009083</v>
       </c>
       <c r="CZ6">
-        <v>0.05106787756092696</v>
+        <v>0.05187562246581724</v>
       </c>
       <c r="DA6">
-        <v>0.0007209510638013838</v>
+        <v>0.0006332268860616171</v>
       </c>
       <c r="DB6">
-        <v>0.04163387964203889</v>
+        <v>0.0422738317132903</v>
       </c>
       <c r="DC6">
-        <v>0.000625297394623798</v>
+        <v>0.0005358719232927821</v>
       </c>
       <c r="DD6">
-        <v>0.005587373351960702</v>
+        <v>0.005586203230352191</v>
       </c>
       <c r="DE6">
-        <v>0.004038581965276951</v>
+        <v>0.004009865081657094</v>
       </c>
       <c r="DF6">
-        <v>5.138134355823184E-06</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.002908059974996989</v>
+        <v>0.002859235657617758</v>
       </c>
       <c r="DH6">
-        <v>0.005688299351092958</v>
+        <v>0.005688924296594683</v>
       </c>
       <c r="DI6">
-        <v>0.003435818970459406</v>
+        <v>0.003396381360400699</v>
       </c>
       <c r="DJ6">
-        <v>0.005645041951464878</v>
+        <v>0.005644897522018479</v>
       </c>
       <c r="DK6">
-        <v>0.006102897647528312</v>
+        <v>0.006110896627196554</v>
       </c>
       <c r="DL6">
-        <v>0.002224404380874945</v>
+        <v>0.002163420583457973</v>
       </c>
       <c r="DM6">
-        <v>0.01235363589378551</v>
+        <v>0.01247281033604045</v>
       </c>
       <c r="DN6">
-        <v>0.01516683086959814</v>
+        <v>0.01533604072214559</v>
       </c>
       <c r="DO6">
-        <v>0.003094508973393932</v>
+        <v>0.00304900083289317</v>
       </c>
       <c r="DP6">
-        <v>0.0003544616969523979</v>
+        <v>0.0002602191491757897</v>
       </c>
       <c r="DQ6">
-        <v>1.544699386718934E-05</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001050208290970486</v>
+        <v>0.0009683402734310691</v>
       </c>
       <c r="DS6">
-        <v>0.0003965488565905396</v>
+        <v>0.0003030548699050205</v>
       </c>
       <c r="DT6">
-        <v>0.006387264445083373</v>
+        <v>0.006400321164976366</v>
       </c>
       <c r="DU6">
-        <v>0.03587937369151517</v>
+        <v>0.03641697627446566</v>
       </c>
       <c r="DV6">
-        <v>0.02057819382307215</v>
+        <v>0.02084365003178996</v>
       </c>
       <c r="DW6">
-        <v>0.002289995280311005</v>
+        <v>0.002230178080869985</v>
       </c>
       <c r="DX6">
-        <v>0.01756253784900025</v>
+        <v>0.01777435768154753</v>
       </c>
       <c r="DY6">
-        <v>0.0005270543554684752</v>
+        <v>0.0004358815360813228</v>
       </c>
       <c r="DZ6">
-        <v>0.0008130511930095225</v>
+        <v>0.0007269651056945373</v>
       </c>
       <c r="EA6">
-        <v>0.008472227927157207</v>
+        <v>0.008522367751551454</v>
       </c>
       <c r="EB6">
-        <v>3.799519967332366E-05</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001764855684826067</v>
+        <v>0.001695698366642179</v>
       </c>
       <c r="ED6">
-        <v>0.009049658922192554</v>
+        <v>0.009110068918757805</v>
       </c>
       <c r="EE6">
-        <v>0.0009878000915070609</v>
+        <v>0.0009048220834079367</v>
       </c>
       <c r="EF6">
-        <v>0.003558954469400708</v>
+        <v>0.003521706944019413</v>
       </c>
       <c r="EG6">
-        <v>0.0001266079989114457</v>
+        <v>2.831285138040677E-05</v>
       </c>
       <c r="EH6">
-        <v>0.02285201980352217</v>
+        <v>0.02315791822006552</v>
       </c>
       <c r="EI6">
-        <v>0.03173243272716987</v>
+        <v>0.03219627792949307</v>
       </c>
       <c r="EJ6">
-        <v>0.01519920786931976</v>
+        <v>0.01536899357831479</v>
       </c>
       <c r="EK6">
-        <v>0.005761267950465586</v>
+        <v>0.005763190713516208</v>
       </c>
       <c r="EL6">
-        <v>0.0006017530648262282</v>
+        <v>0.0005119088346777069</v>
       </c>
       <c r="EM6">
-        <v>0.003192213772553882</v>
+        <v>0.003148443406987154</v>
       </c>
       <c r="EN6">
-        <v>0.02420369679190068</v>
+        <v>0.02453363609906056</v>
       </c>
       <c r="EO6">
-        <v>0.08315964928500731</v>
+        <v>0.08453817757996958</v>
       </c>
       <c r="EP6">
-        <v>0.03001615174192617</v>
+        <v>0.0304494712167359</v>
       </c>
       <c r="EQ6">
-        <v>0.005915853949136482</v>
+        <v>0.005920526174608115</v>
       </c>
       <c r="ER6">
-        <v>0.004546991960905727</v>
+        <v>0.004527317643814963</v>
       </c>
       <c r="ES6">
-        <v>8.752104924750872E-05</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>1.165623089978169E-05</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0007566287934946328</v>
+        <v>0.0006695391788970782</v>
       </c>
       <c r="EV6">
-        <v>0.006584111943390912</v>
+        <v>0.006600669787602536</v>
       </c>
       <c r="EW6">
-        <v>0.006499903944114918</v>
+        <v>0.006514964067112794</v>
       </c>
       <c r="EX6">
-        <v>0.001088403390642091</v>
+        <v>0.001007214710119718</v>
       </c>
       <c r="EY6">
-        <v>0.009962976914339998</v>
+        <v>0.01003963116018677</v>
       </c>
       <c r="EZ6">
-        <v>0.02433277479079089</v>
+        <v>0.02466500987577269</v>
       </c>
       <c r="FA6">
-        <v>0.004573907960674308</v>
+        <v>0.004554712370832609</v>
       </c>
       <c r="FB6">
-        <v>0.005967512648692328</v>
+        <v>0.005973103674406987</v>
       </c>
       <c r="FC6">
-        <v>0.000386695396675258</v>
+        <v>0.0002930261566162966</v>
       </c>
       <c r="FD6">
-        <v>0.01627336786008432</v>
+        <v>0.01646225854982892</v>
       </c>
       <c r="FE6">
-        <v>0.000743611533606553</v>
+        <v>0.0006562903943742026</v>
       </c>
       <c r="FF6">
-        <v>5.61023525176414E-06</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001010255191313996</v>
+        <v>0.0009276765690170142</v>
       </c>
       <c r="FH6">
-        <v>0.000306755697362566</v>
+        <v>0.0002116646519583799</v>
       </c>
       <c r="FI6">
-        <v>0.0001872809783897896</v>
+        <v>9.006495884240238E-05</v>
       </c>
       <c r="FJ6">
-        <v>5.289708954519971E-05</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0120824758961169</v>
+        <v>0.01219682749393521</v>
       </c>
       <c r="FL6">
-        <v>0.00250335777847655</v>
+        <v>0.002447335438698132</v>
       </c>
       <c r="FM6">
-        <v>0.002716515676643854</v>
+        <v>0.002664284557517964</v>
       </c>
       <c r="FN6">
-        <v>0.00186648448395228</v>
+        <v>0.001799134732860447</v>
       </c>
       <c r="FO6">
-        <v>0.003423889370561974</v>
+        <v>0.003384239580959856</v>
       </c>
       <c r="FP6">
-        <v>0.009184487921033315</v>
+        <v>0.009247295982551168</v>
       </c>
       <c r="FQ6">
-        <v>0.002874458675285887</v>
+        <v>0.002825036726092345</v>
       </c>
       <c r="FR6">
-        <v>0.0009944908914495344</v>
+        <v>0.0009116318857385081</v>
       </c>
       <c r="FS6">
-        <v>0.002237232180764654</v>
+        <v>0.002176476538252035</v>
       </c>
       <c r="FT6">
-        <v>0.001004945991359643</v>
+        <v>0.0009222729397748503</v>
       </c>
       <c r="FU6">
-        <v>0.004333767562738995</v>
+        <v>0.004310300842228499</v>
       </c>
       <c r="FV6">
-        <v>0.003277959971816651</v>
+        <v>0.003235714685847328</v>
       </c>
       <c r="FW6">
-        <v>0.004986933357123185</v>
+        <v>0.004975083825891085</v>
       </c>
       <c r="FX6">
-        <v>0.01176367889885787</v>
+        <v>0.0118723603818441</v>
       </c>
       <c r="FY6">
-        <v>0.002531747978232456</v>
+        <v>0.002476230585784488</v>
       </c>
       <c r="FZ6">
-        <v>7.653094934199975E-07</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0001590120786328409</v>
+        <v>6.129326919352725E-05</v>
       </c>
       <c r="GB6">
-        <v>7.082908939102339E-05</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0008390703927858137</v>
+        <v>0.0007534470822593137</v>
       </c>
       <c r="GD6">
-        <v>0.008327029928405595</v>
+        <v>0.008374587265093283</v>
       </c>
       <c r="GE6">
-        <v>0.01195442289721788</v>
+        <v>0.01206649694783659</v>
       </c>
       <c r="GF6">
-        <v>0.01364344288269597</v>
+        <v>0.01378555779741839</v>
       </c>
       <c r="GG6">
-        <v>0.005470228352967895</v>
+        <v>0.005466974693553182</v>
       </c>
       <c r="GH6">
-        <v>0.0007666225934087077</v>
+        <v>0.0006797107282680451</v>
       </c>
       <c r="GI6">
-        <v>9.202400920879303E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>3.261969671954133E-05</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001254859789210926</v>
+        <v>0.001176631697723375</v>
       </c>
       <c r="GL6">
-        <v>0.0007967480231496943</v>
+        <v>0.0007103719680933977</v>
       </c>
       <c r="GM6">
-        <v>0.002406917679305726</v>
+        <v>0.002349180058513318</v>
       </c>
       <c r="GN6">
-        <v>0.001049922190972945</v>
+        <v>0.0009680490848666557</v>
       </c>
       <c r="GO6">
-        <v>0.0009616558917318442</v>
+        <v>0.0008782128835976107</v>
       </c>
       <c r="GP6">
-        <v>0.001427164187729482</v>
+        <v>0.001352000697646812</v>
       </c>
       <c r="GQ6">
-        <v>0.001038221191073549</v>
+        <v>0.0009561399712972743</v>
       </c>
       <c r="GR6">
-        <v>0.002691342476860289</v>
+        <v>0.002638663627879066</v>
       </c>
       <c r="GS6">
-        <v>0.005551902552265675</v>
+        <v>0.005550101547966342</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.275125737924788E-06</v>
+        <v>7.127588171141205E-06</v>
       </c>
       <c r="C2">
-        <v>2.91916310446586E-05</v>
+        <v>2.889698138980437E-05</v>
       </c>
       <c r="D2">
-        <v>4.931660648980577E-05</v>
+        <v>4.887479268499586E-05</v>
       </c>
       <c r="E2">
-        <v>7.916300618387705E-05</v>
+        <v>7.857431073384796E-05</v>
       </c>
       <c r="F2">
-        <v>8.3942241314634E-05</v>
+        <v>8.320593576720233E-05</v>
       </c>
       <c r="G2">
-        <v>8.408998600321926E-05</v>
+        <v>8.320593576720233E-05</v>
       </c>
       <c r="H2">
-        <v>8.423773069180452E-05</v>
+        <v>8.320593576720233E-05</v>
       </c>
       <c r="I2">
-        <v>8.460966002306931E-05</v>
+        <v>8.343012692469098E-05</v>
       </c>
       <c r="J2">
-        <v>8.487971310220505E-05</v>
+        <v>8.355243886952514E-05</v>
       </c>
       <c r="K2">
-        <v>8.488637580009029E-05</v>
+        <v>8.355243886952514E-05</v>
       </c>
       <c r="L2">
-        <v>8.577104873174058E-05</v>
+        <v>8.428938852773611E-05</v>
       </c>
       <c r="M2">
-        <v>9.431339107176039E-05</v>
+        <v>9.268423012630607E-05</v>
       </c>
       <c r="N2">
-        <v>9.970246005540165E-05</v>
+        <v>9.79257067343258E-05</v>
       </c>
       <c r="O2">
-        <v>0.0001156227288254039</v>
+        <v>0.0001136986891655324</v>
       </c>
       <c r="P2">
-        <v>0.0001212232103927114</v>
+        <v>0.0001191515845008714</v>
       </c>
       <c r="Q2">
-        <v>0.0001219427762371179</v>
+        <v>0.000119723422273824</v>
       </c>
       <c r="R2">
-        <v>0.0001794407117948353</v>
+        <v>0.000177075279740375</v>
       </c>
       <c r="S2">
-        <v>0.000196833019451108</v>
+        <v>0.0001943203438353245</v>
       </c>
       <c r="T2">
-        <v>0.0001993447835570495</v>
+        <v>0.0001966844319511209</v>
       </c>
       <c r="U2">
-        <v>0.0002056039083734704</v>
+        <v>0.000202795989675756</v>
       </c>
       <c r="V2">
-        <v>0.0002359450860293151</v>
+        <v>0.0002329903000646367</v>
       </c>
       <c r="W2">
-        <v>0.0003014552809680065</v>
+        <v>0.000298354649748541</v>
       </c>
       <c r="X2">
-        <v>0.0003264271370386843</v>
+        <v>0.0003231794825196879</v>
       </c>
       <c r="Y2">
-        <v>0.0003363383812729429</v>
+        <v>0.0003329432657928065</v>
       </c>
       <c r="Z2">
-        <v>0.0003374008561908563</v>
+        <v>0.000333858022604209</v>
       </c>
       <c r="AA2">
-        <v>0.0003385583334014298</v>
+        <v>0.0003348677844690396</v>
       </c>
       <c r="AB2">
-        <v>0.0003385712825774293</v>
+        <v>0.0003348677844690396</v>
       </c>
       <c r="AC2">
-        <v>0.0003398231157807128</v>
+        <v>0.0003359719050685669</v>
       </c>
       <c r="AD2">
-        <v>0.0003418870392212544</v>
+        <v>0.0003378881395047069</v>
       </c>
       <c r="AE2">
-        <v>0.0003490925946645542</v>
+        <v>0.0003449461553595093</v>
       </c>
       <c r="AF2">
-        <v>0.0003642005844973129</v>
+        <v>0.0003599068352486342</v>
       </c>
       <c r="AG2">
-        <v>0.000369391894396233</v>
+        <v>0.0003649505470250508</v>
       </c>
       <c r="AH2">
-        <v>0.0003717692333125601</v>
+        <v>0.0003671802060448348</v>
       </c>
       <c r="AI2">
-        <v>0.000377595351362435</v>
+        <v>0.0003728587444197406</v>
       </c>
       <c r="AJ2">
-        <v>0.0003832057989289726</v>
+        <v>0.0003783216060439217</v>
       </c>
       <c r="AK2">
-        <v>0.0004095697128921003</v>
+        <v>0.0004045385371607419</v>
       </c>
       <c r="AL2">
-        <v>0.0004414433924295442</v>
+        <v>0.0004362653939657496</v>
       </c>
       <c r="AM2">
-        <v>0.0004687416533204843</v>
+        <v>0.0004634166991625182</v>
       </c>
       <c r="AN2">
-        <v>0.000513604032854423</v>
+        <v>0.0005081326334158403</v>
       </c>
       <c r="AO2">
-        <v>0.0005321612084206982</v>
+        <v>0.0005265425992718715</v>
       </c>
       <c r="AP2">
-        <v>0.0005351273525915344</v>
+        <v>0.0005293610806568541</v>
       </c>
       <c r="AQ2">
-        <v>0.0005401151949061743</v>
+        <v>0.0005342013189362194</v>
       </c>
       <c r="AR2">
-        <v>0.0005401281440821739</v>
+        <v>0.0005342013189362194</v>
       </c>
       <c r="AS2">
-        <v>0.0005405742141077106</v>
+        <v>0.0005344996529425097</v>
       </c>
       <c r="AT2">
-        <v>0.0005406428648424066</v>
+        <v>0.0005344996529425097</v>
       </c>
       <c r="AU2">
-        <v>0.0005409129179215423</v>
+        <v>0.0005346219648873438</v>
       </c>
       <c r="AV2">
-        <v>0.0005429768413620839</v>
+        <v>0.0005365381993234839</v>
       </c>
       <c r="AW2">
-        <v>0.0005452108523894845</v>
+        <v>0.0005386245262892308</v>
       </c>
       <c r="AX2">
-        <v>0.0005481697517608804</v>
+        <v>0.0005414357626642392</v>
       </c>
       <c r="AY2">
-        <v>0.0005618923877006714</v>
+        <v>0.0005550110484019912</v>
       </c>
       <c r="AZ2">
-        <v>0.0005733758748134588</v>
+        <v>0.0005663471202430405</v>
       </c>
       <c r="BA2">
-        <v>0.0005791918369641183</v>
+        <v>0.0005720155024236005</v>
       </c>
       <c r="BB2">
-        <v>0.0005828038614850538</v>
+        <v>0.0005754798829279754</v>
       </c>
       <c r="BC2">
-        <v>0.0005860811885318479</v>
+        <v>0.0005786095562318952</v>
       </c>
       <c r="BD2">
-        <v>0.0005890473327026841</v>
+        <v>0.0005814280376168779</v>
       </c>
       <c r="BE2">
-        <v>0.0005934403491632802</v>
+        <v>0.000585673432756551</v>
       </c>
       <c r="BF2">
-        <v>0.0005968829911973022</v>
+        <v>0.0005889684258517546</v>
       </c>
       <c r="BG2">
-        <v>0.0005988193728476976</v>
+        <v>0.000590757114791382</v>
       </c>
       <c r="BH2">
-        <v>0.0005997909130726365</v>
+        <v>0.0005915809342672465</v>
       </c>
       <c r="BI2">
-        <v>0.0006000609661517722</v>
+        <v>0.0005917032462120807</v>
       </c>
       <c r="BJ2">
-        <v>0.0006334562335716584</v>
+        <v>0.0006249517351168979</v>
       </c>
       <c r="BK2">
-        <v>0.0006747401043820723</v>
+        <v>0.0006660890566551771</v>
       </c>
       <c r="BL2">
-        <v>0.0007724074568363061</v>
+        <v>0.0007636114983421103</v>
       </c>
       <c r="BM2">
-        <v>0.0008393858216615669</v>
+        <v>0.0008304440605776233</v>
       </c>
       <c r="BN2">
-        <v>0.0008527763766270145</v>
+        <v>0.0008436872556907536</v>
       </c>
       <c r="BO2">
-        <v>0.0008800526495196534</v>
+        <v>0.0008708165722502494</v>
       </c>
       <c r="BP2">
-        <v>0.0009078020093757417</v>
+        <v>0.0008984189895211089</v>
       </c>
       <c r="BQ2">
-        <v>0.0009185834045427726</v>
+        <v>0.0009090529490135992</v>
       </c>
       <c r="BR2">
-        <v>0.0009200451998298345</v>
+        <v>0.0009103670377984061</v>
       </c>
       <c r="BS2">
-        <v>0.0009206936755297334</v>
+        <v>0.0009108677833609706</v>
       </c>
       <c r="BT2">
-        <v>0.0009233572823239435</v>
+        <v>0.0009133837185775865</v>
       </c>
       <c r="BU2">
-        <v>0.0009271509508308452</v>
+        <v>0.0009170297483465045</v>
       </c>
       <c r="BV2">
-        <v>0.0009319393927608909</v>
+        <v>0.0009216705804466973</v>
       </c>
       <c r="BW2">
-        <v>0.0009320972428286954</v>
+        <v>0.000921680686119579</v>
       </c>
       <c r="BX2">
-        <v>0.0009352207568873732</v>
+        <v>0.0009246565419655747</v>
       </c>
       <c r="BY2">
-        <v>0.0009388407852076902</v>
+        <v>0.0009281289265019217</v>
       </c>
       <c r="BZ2">
-        <v>0.0009442396303905763</v>
+        <v>0.0009333801795932827</v>
       </c>
       <c r="CA2">
-        <v>0.0009530601147091068</v>
+        <v>0.0009420531712531735</v>
       </c>
       <c r="CB2">
-        <v>0.0009732039781527947</v>
+        <v>0.0009620498710957913</v>
       </c>
       <c r="CC2">
-        <v>0.001002909295857766</v>
+        <v>0.0009916083030556985</v>
       </c>
       <c r="CD2">
-        <v>0.001018726569635725</v>
+        <v>0.001007278287501827</v>
       </c>
       <c r="CE2">
-        <v>0.001029820166778636</v>
+        <v>0.00101822445804279</v>
       </c>
       <c r="CF2">
-        <v>0.00103010382325672</v>
+        <v>0.001018360373781888</v>
       </c>
       <c r="CG2">
-        <v>0.001033715847777656</v>
+        <v>0.001021824754286263</v>
       </c>
       <c r="CH2">
-        <v>0.001040749732834219</v>
+        <v>0.001028711094765585</v>
       </c>
       <c r="CI2">
-        <v>0.001043406474628959</v>
+        <v>0.001031220164783234</v>
       </c>
       <c r="CJ2">
-        <v>0.001044464615547208</v>
+        <v>0.001032130587469025</v>
       </c>
       <c r="CK2">
-        <v>0.001048487683236386</v>
+        <v>0.001036006023086564</v>
       </c>
       <c r="CL2">
-        <v>0.001049207249080792</v>
+        <v>0.001036577860859516</v>
       </c>
       <c r="CM2">
-        <v>0.001085985138239338</v>
+        <v>0.001073209069802032</v>
       </c>
       <c r="CN2">
-        <v>0.01486421507373519</v>
+        <v>0.01485169165188729</v>
       </c>
       <c r="CO2">
-        <v>0.09696886873034094</v>
+        <v>0.09695858352199486</v>
       </c>
       <c r="CP2">
-        <v>0.1903773415136152</v>
+        <v>0.1903696230079266</v>
       </c>
       <c r="CQ2">
-        <v>0.2210593231431295</v>
+        <v>0.2210523485073117</v>
       </c>
       <c r="CR2">
-        <v>0.2443091693468496</v>
+        <v>0.244302722602934</v>
       </c>
       <c r="CS2">
-        <v>0.2571097153578812</v>
+        <v>0.2571034928490452</v>
       </c>
       <c r="CT2">
-        <v>0.2586722149371627</v>
+        <v>0.2586658900856062</v>
       </c>
       <c r="CU2">
-        <v>0.2695073921000384</v>
+        <v>0.269501234369913</v>
       </c>
       <c r="CV2">
-        <v>0.2749671510782182</v>
+        <v>0.2749610042597896</v>
       </c>
       <c r="CW2">
-        <v>0.2822076871188153</v>
+        <v>0.2822016029614922</v>
       </c>
       <c r="CX2">
-        <v>0.2872346181304353</v>
+        <v>0.2872285323068218</v>
       </c>
       <c r="CY2">
-        <v>0.3067769396205983</v>
+        <v>0.3067712739481624</v>
       </c>
       <c r="CZ2">
-        <v>0.3842369736360467</v>
+        <v>0.3842334112043952</v>
       </c>
       <c r="DA2">
-        <v>0.3842371580827524</v>
+        <v>0.384233447907479</v>
       </c>
       <c r="DB2">
-        <v>0.4263554048287025</v>
+        <v>0.4263527708613379</v>
       </c>
       <c r="DC2">
-        <v>0.42646817355599</v>
+        <v>0.4264653951167043</v>
       </c>
       <c r="DD2">
-        <v>0.4291711583471577</v>
+        <v>0.4291683107076692</v>
       </c>
       <c r="DE2">
-        <v>0.4347695176146293</v>
+        <v>0.4347666849145642</v>
       </c>
       <c r="DF2">
-        <v>0.4350085187361641</v>
+        <v>0.4350055452324931</v>
       </c>
       <c r="DG2">
-        <v>0.4352067311708502</v>
+        <v>0.4352036156782536</v>
       </c>
       <c r="DH2">
-        <v>0.4437852735080732</v>
+        <v>0.4437822595590654</v>
       </c>
       <c r="DI2">
-        <v>0.44437423772257</v>
+        <v>0.444371093139889</v>
       </c>
       <c r="DJ2">
-        <v>0.4503363042619415</v>
+        <v>0.4503331851880228</v>
       </c>
       <c r="DK2">
-        <v>0.4567548217660477</v>
+        <v>0.4567517414653633</v>
       </c>
       <c r="DL2">
-        <v>0.4567757641094297</v>
+        <v>0.4567725366683481</v>
       </c>
       <c r="DM2">
-        <v>0.4603380231342101</v>
+        <v>0.4603347514634478</v>
       </c>
       <c r="DN2">
-        <v>0.4699984743878449</v>
+        <v>0.4699953357009609</v>
       </c>
       <c r="DO2">
-        <v>0.472971841158123</v>
+        <v>0.4729686411283405</v>
       </c>
       <c r="DP2">
-        <v>0.4735319818748466</v>
+        <v>0.4735286503737798</v>
       </c>
       <c r="DQ2">
-        <v>0.47357154549479</v>
+        <v>0.4735680673944605</v>
       </c>
       <c r="DR2">
-        <v>0.4762555875874213</v>
+        <v>0.4762520397364138</v>
       </c>
       <c r="DS2">
-        <v>0.4771064246716857</v>
+        <v>0.4771027537970348</v>
       </c>
       <c r="DT2">
-        <v>0.4796250954770935</v>
+        <v>0.4796213500460725</v>
       </c>
       <c r="DU2">
-        <v>0.5109377030578858</v>
+        <v>0.5109347198227352</v>
       </c>
       <c r="DV2">
-        <v>0.5318567714416814</v>
+        <v>0.5318542483659942</v>
       </c>
       <c r="DW2">
-        <v>0.5360513521176087</v>
+        <v>0.5360488031875176</v>
       </c>
       <c r="DX2">
-        <v>0.5561645785636635</v>
+        <v>0.5561624663752568</v>
       </c>
       <c r="DY2">
-        <v>0.5561673843504468</v>
+        <v>0.5561651244945942</v>
       </c>
       <c r="DZ2">
-        <v>0.5562130273869204</v>
+        <v>0.5562106211084731</v>
       </c>
       <c r="EA2">
-        <v>0.5616594656661292</v>
+        <v>0.5616570699122791</v>
       </c>
       <c r="EB2">
-        <v>0.5618564103109133</v>
+        <v>0.5618538725312956</v>
       </c>
       <c r="EC2">
-        <v>0.5638343548580975</v>
+        <v>0.5638317268085964</v>
       </c>
       <c r="ED2">
-        <v>0.5723687891987282</v>
+        <v>0.5723662614110369</v>
       </c>
       <c r="EE2">
-        <v>0.5733878113199987</v>
+        <v>0.5733851653961236</v>
       </c>
       <c r="EF2">
-        <v>0.5843386494739384</v>
+        <v>0.5843361740326046</v>
       </c>
       <c r="EG2">
-        <v>0.5847272833739127</v>
+        <v>0.5847246714773038</v>
       </c>
       <c r="EH2">
-        <v>0.6021889040248303</v>
+        <v>0.6021866518142009</v>
       </c>
       <c r="EI2">
-        <v>0.6234003273860387</v>
+        <v>0.6233985438307127</v>
       </c>
       <c r="EJ2">
-        <v>0.6401853090892333</v>
+        <v>0.6401838655567488</v>
       </c>
       <c r="EK2">
-        <v>0.6480928894782948</v>
+        <v>0.6480915279912345</v>
       </c>
       <c r="EL2">
-        <v>0.6483493971184771</v>
+        <v>0.6483478953365506</v>
       </c>
       <c r="EM2">
-        <v>0.6485556728725402</v>
+        <v>0.6485540293360083</v>
       </c>
       <c r="EN2">
-        <v>0.664214504662741</v>
+        <v>0.664213168423117</v>
       </c>
       <c r="EO2">
-        <v>0.7434574085404452</v>
+        <v>0.7434582273518309</v>
       </c>
       <c r="EP2">
-        <v>0.7727648632761552</v>
+        <v>0.7727663860136392</v>
       </c>
       <c r="EQ2">
-        <v>0.7779029478791876</v>
+        <v>0.7779044721805062</v>
       </c>
       <c r="ER2">
-        <v>0.7821934812477016</v>
+        <v>0.782194982483003</v>
       </c>
       <c r="ES2">
-        <v>0.7824187420502979</v>
+        <v>0.7824201020826997</v>
       </c>
       <c r="ET2">
-        <v>0.7829493964092996</v>
+        <v>0.7829506241135431</v>
       </c>
       <c r="EU2">
-        <v>0.7848819557599903</v>
+        <v>0.7848830918754559</v>
       </c>
       <c r="EV2">
-        <v>0.7899923633651609</v>
+        <v>0.7899935002401672</v>
       </c>
       <c r="EW2">
-        <v>0.7938235416691646</v>
+        <v>0.7938246421292886</v>
       </c>
       <c r="EX2">
-        <v>0.7939114076723761</v>
+        <v>0.7939123629369055</v>
       </c>
       <c r="EY2">
-        <v>0.8086589415329837</v>
+        <v>0.8086601776120893</v>
       </c>
       <c r="EZ2">
-        <v>0.8449025417328081</v>
+        <v>0.8449046833025047</v>
       </c>
       <c r="FA2">
-        <v>0.8529335806123312</v>
+        <v>0.8529358078151577</v>
       </c>
       <c r="FB2">
-        <v>0.862269218891061</v>
+        <v>0.8622715696386958</v>
       </c>
       <c r="FC2">
-        <v>0.8626236708336761</v>
+        <v>0.8626258841327077</v>
       </c>
       <c r="FD2">
-        <v>0.8822158693199855</v>
+        <v>0.882218504219621</v>
       </c>
       <c r="FE2">
-        <v>0.8831631279168004</v>
+        <v>0.8831656425948031</v>
       </c>
       <c r="FF2">
-        <v>0.8834790655423911</v>
+        <v>0.883481441652564</v>
       </c>
       <c r="FG2">
-        <v>0.8885120961535399</v>
+        <v>0.8885144707746768</v>
       </c>
       <c r="FH2">
-        <v>0.8893947965153426</v>
+        <v>0.8893970490387834</v>
       </c>
       <c r="FI2">
-        <v>0.8894030772787028</v>
+        <v>0.8894051822938006</v>
       </c>
       <c r="FJ2">
-        <v>0.8898078784674279</v>
+        <v>0.8898098474970724</v>
       </c>
       <c r="FK2">
-        <v>0.9041781493571828</v>
+        <v>0.9041803882381357</v>
       </c>
       <c r="FL2">
-        <v>0.9076426480895161</v>
+        <v>0.9076448398998729</v>
       </c>
       <c r="FM2">
-        <v>0.909444024450342</v>
+        <v>0.9094461208597412</v>
       </c>
       <c r="FN2">
-        <v>0.9095511196420678</v>
+        <v>0.9095530714146729</v>
       </c>
       <c r="FO2">
-        <v>0.9105999739610334</v>
+        <v>0.910601808464379</v>
       </c>
       <c r="FP2">
-        <v>0.9179686259917323</v>
+        <v>0.917970526879236</v>
       </c>
       <c r="FQ2">
-        <v>0.9192935599893681</v>
+        <v>0.9192953516304918</v>
       </c>
       <c r="FR2">
-        <v>0.9202325090168251</v>
+        <v>0.9202341801948397</v>
       </c>
       <c r="FS2">
-        <v>0.9226820432275744</v>
+        <v>0.9226836378401084</v>
       </c>
       <c r="FT2">
-        <v>0.9231956200278956</v>
+        <v>0.9231970818159971</v>
       </c>
       <c r="FU2">
-        <v>0.9249114464953311</v>
+        <v>0.9249128103963938</v>
       </c>
       <c r="FV2">
-        <v>0.9267644064521716</v>
+        <v>0.9267656764512969</v>
       </c>
       <c r="FW2">
-        <v>0.9322801556260256</v>
+        <v>0.9322814381639237</v>
       </c>
       <c r="FX2">
-        <v>0.942307906851283</v>
+        <v>0.9423093330468021</v>
       </c>
       <c r="FY2">
-        <v>0.9448964620512915</v>
+        <v>0.9448978157212821</v>
       </c>
       <c r="FZ2">
-        <v>0.9450054761028691</v>
+        <v>0.9450066851918276</v>
       </c>
       <c r="GA2">
-        <v>0.9455170109233481</v>
+        <v>0.9455180871285341</v>
       </c>
       <c r="GB2">
-        <v>0.945780860352963</v>
+        <v>0.9457817964766355</v>
       </c>
       <c r="GC2">
-        <v>0.9458054043770667</v>
+        <v>0.9458061934650069</v>
       </c>
       <c r="GD2">
-        <v>0.951183277961573</v>
+        <v>0.9511840755816192</v>
       </c>
       <c r="GE2">
-        <v>0.9636224520005241</v>
+        <v>0.963623463354175</v>
       </c>
       <c r="GF2">
-        <v>0.9773684469385104</v>
+        <v>0.9773697100020012</v>
       </c>
       <c r="GG2">
-        <v>0.9833510996762915</v>
+        <v>0.9833523888467798</v>
       </c>
       <c r="GH2">
-        <v>0.9846261721777796</v>
+        <v>0.9846273506529121</v>
       </c>
       <c r="GI2">
-        <v>0.985189162734283</v>
+        <v>0.9851902098209476</v>
       </c>
       <c r="GJ2">
-        <v>0.9854779232619735</v>
+        <v>0.9854788309910413</v>
       </c>
       <c r="GK2">
-        <v>0.9862368005033427</v>
+        <v>0.9862375825364127</v>
       </c>
       <c r="GL2">
-        <v>0.9867627144227107</v>
+        <v>0.9867633639898651</v>
       </c>
       <c r="GM2">
-        <v>0.9879093015341255</v>
+        <v>0.9879098366721367</v>
       </c>
       <c r="GN2">
-        <v>0.9891642074371716</v>
+        <v>0.9891646312937854</v>
       </c>
       <c r="GO2">
-        <v>0.9907939664112566</v>
+        <v>0.990794289879709</v>
       </c>
       <c r="GP2">
-        <v>0.9926702945662917</v>
+        <v>0.9926705248118868</v>
       </c>
       <c r="GQ2">
-        <v>0.9942114760472203</v>
+        <v>0.9942116033305906</v>
       </c>
       <c r="GR2">
-        <v>0.9965089063697211</v>
+        <v>0.9965089526674694</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.00117880976951909</v>
+        <v>0.001131545164578622</v>
       </c>
       <c r="C3">
-        <v>0.002351778338693702</v>
+        <v>0.002257188887256372</v>
       </c>
       <c r="D3">
-        <v>0.002930500272823231</v>
+        <v>0.002782457381438183</v>
       </c>
       <c r="E3">
-        <v>0.003436534002666049</v>
+        <v>0.003234288022237311</v>
       </c>
       <c r="F3">
-        <v>0.003518997607529255</v>
+        <v>0.003258180168190111</v>
       </c>
       <c r="G3">
-        <v>0.003521934576202459</v>
+        <v>0.003258180168190111</v>
       </c>
       <c r="H3">
-        <v>0.003530297899695678</v>
+        <v>0.003258180168190111</v>
       </c>
       <c r="I3">
-        <v>0.003752139752778572</v>
+        <v>0.003422888000235792</v>
       </c>
       <c r="J3">
-        <v>0.004121149514540542</v>
+        <v>0.003736281515278679</v>
       </c>
       <c r="K3">
-        <v>0.004245719201886911</v>
+        <v>0.003802713992806062</v>
       </c>
       <c r="L3">
-        <v>0.004304534550355486</v>
+        <v>0.003802713992806062</v>
       </c>
       <c r="M3">
-        <v>0.004340293930464359</v>
+        <v>0.003802713992806062</v>
       </c>
       <c r="N3">
-        <v>0.004358948582564497</v>
+        <v>0.003802713992806062</v>
       </c>
       <c r="O3">
-        <v>0.004446915007752226</v>
+        <v>0.003832165710853801</v>
       </c>
       <c r="P3">
-        <v>0.00497228923873563</v>
+        <v>0.004303536315544561</v>
       </c>
       <c r="Q3">
-        <v>0.005747727784466319</v>
+        <v>0.005027550202083593</v>
       </c>
       <c r="R3">
-        <v>0.005987447318603531</v>
+        <v>0.005210320091556237</v>
       </c>
       <c r="S3">
-        <v>0.006250568734120845</v>
+        <v>0.005416733211048597</v>
       </c>
       <c r="T3">
-        <v>0.006415137083826093</v>
+        <v>0.005523576865748944</v>
       </c>
       <c r="U3">
-        <v>0.00642254419826292</v>
+        <v>0.005523576865748944</v>
       </c>
       <c r="V3">
-        <v>0.006452764350045123</v>
+        <v>0.005523576865748944</v>
       </c>
       <c r="W3">
-        <v>0.006833869572520411</v>
+        <v>0.005849190584594871</v>
       </c>
       <c r="X3">
-        <v>0.007448326908757398</v>
+        <v>0.006410563027777641</v>
       </c>
       <c r="Y3">
-        <v>0.008473190369197664</v>
+        <v>0.007386574201857025</v>
       </c>
       <c r="Z3">
-        <v>0.009096121575934389</v>
+        <v>0.007956507908389886</v>
       </c>
       <c r="AA3">
-        <v>0.009234688904106255</v>
+        <v>0.008037082387425403</v>
       </c>
       <c r="AB3">
-        <v>0.009235559458957595</v>
+        <v>0.008037082387425403</v>
       </c>
       <c r="AC3">
-        <v>0.009269386537952512</v>
+        <v>0.008037082387425403</v>
       </c>
       <c r="AD3">
-        <v>0.009358957843234888</v>
+        <v>0.008068155537041634</v>
       </c>
       <c r="AE3">
-        <v>0.009358964458969877</v>
+        <v>0.008068155537041634</v>
       </c>
       <c r="AF3">
-        <v>0.009361216961902716</v>
+        <v>0.008068155537041634</v>
       </c>
       <c r="AG3">
-        <v>0.009388761681527137</v>
+        <v>0.008068155537041634</v>
       </c>
       <c r="AH3">
-        <v>0.009449212469092161</v>
+        <v>0.00806980784277349</v>
       </c>
       <c r="AI3">
-        <v>0.009507043489502686</v>
+        <v>0.00806980784277349</v>
       </c>
       <c r="AJ3">
-        <v>0.009507071214080322</v>
+        <v>0.00806980784277349</v>
       </c>
       <c r="AK3">
-        <v>0.009614528510417506</v>
+        <v>0.008118951445519995</v>
       </c>
       <c r="AL3">
-        <v>0.00976538785931428</v>
+        <v>0.00821194471553585</v>
       </c>
       <c r="AM3">
-        <v>0.009916247208211054</v>
+        <v>0.008304937985551705</v>
       </c>
       <c r="AN3">
-        <v>0.01009629206882901</v>
+        <v>0.008427417763752916</v>
       </c>
       <c r="AO3">
-        <v>0.01010946954660614</v>
+        <v>0.008427417763752916</v>
       </c>
       <c r="AP3">
-        <v>0.0101233783044264</v>
+        <v>0.008427417763752916</v>
       </c>
       <c r="AQ3">
-        <v>0.01034078568724777</v>
+        <v>0.008587645391890811</v>
       </c>
       <c r="AR3">
-        <v>0.01107797033072248</v>
+        <v>0.009273010855446252</v>
       </c>
       <c r="AS3">
-        <v>0.01165669226485201</v>
+        <v>0.009798279349628063</v>
       </c>
       <c r="AT3">
-        <v>0.01198103736397992</v>
+        <v>0.01006654756575768</v>
       </c>
       <c r="AU3">
-        <v>0.01258530489961598</v>
+        <v>0.0106176251187327</v>
       </c>
       <c r="AV3">
-        <v>0.01268339918540099</v>
+        <v>0.01065730914818395</v>
       </c>
       <c r="AW3">
-        <v>0.01274985013931987</v>
+        <v>0.01066502350127672</v>
       </c>
       <c r="AX3">
-        <v>0.01308634270916417</v>
+        <v>0.0109455644676028</v>
       </c>
       <c r="AY3">
-        <v>0.01365387768263396</v>
+        <v>0.01145953062759175</v>
       </c>
       <c r="AZ3">
-        <v>0.01374575828805252</v>
+        <v>0.01149293689365352</v>
       </c>
       <c r="BA3">
-        <v>0.01374577954054478</v>
+        <v>0.01149293689365352</v>
       </c>
       <c r="BB3">
-        <v>0.01375005878249714</v>
+        <v>0.01149293689365352</v>
       </c>
       <c r="BC3">
-        <v>0.01375448849475838</v>
+        <v>0.01149293689365352</v>
       </c>
       <c r="BD3">
-        <v>0.01375507019953268</v>
+        <v>0.01149293689365352</v>
       </c>
       <c r="BE3">
-        <v>0.01375602203433882</v>
+        <v>0.01149293689365352</v>
       </c>
       <c r="BF3">
-        <v>0.01377156430825541</v>
+        <v>0.01149293689365352</v>
       </c>
       <c r="BG3">
-        <v>0.01386384265369743</v>
+        <v>0.01152674500171721</v>
       </c>
       <c r="BH3">
-        <v>0.01386385057513689</v>
+        <v>0.01152674500171721</v>
       </c>
       <c r="BI3">
-        <v>0.01405354482632392</v>
+        <v>0.01165897368672933</v>
       </c>
       <c r="BJ3">
-        <v>0.01428478688996118</v>
+        <v>0.01183317867572409</v>
       </c>
       <c r="BK3">
-        <v>0.01450959857321922</v>
+        <v>0.01200088696644273</v>
       </c>
       <c r="BL3">
-        <v>0.01469695399426831</v>
+        <v>0.0121307527004583</v>
       </c>
       <c r="BM3">
-        <v>0.01486427987413618</v>
+        <v>0.01224038232432336</v>
       </c>
       <c r="BN3">
-        <v>0.01537514040426365</v>
+        <v>0.01269708954523738</v>
       </c>
       <c r="BO3">
-        <v>0.0157713566276301</v>
+        <v>0.01303797010797909</v>
       </c>
       <c r="BP3">
-        <v>0.01593648633736845</v>
+        <v>0.01314538091213939</v>
       </c>
       <c r="BQ3">
-        <v>0.01594343710977837</v>
+        <v>0.01314538091213939</v>
       </c>
       <c r="BR3">
-        <v>0.01638881960604434</v>
+        <v>0.01353593481013543</v>
       </c>
       <c r="BS3">
-        <v>0.01755887307504704</v>
+        <v>0.01465863336858576</v>
       </c>
       <c r="BT3">
-        <v>0.01840626812502128</v>
+        <v>0.01545534586228429</v>
       </c>
       <c r="BU3">
-        <v>0.01917933680061221</v>
+        <v>0.01617696543770273</v>
       </c>
       <c r="BV3">
-        <v>0.01954914322242117</v>
+        <v>0.01649116382891913</v>
       </c>
       <c r="BW3">
-        <v>0.01955080193321899</v>
+        <v>0.01649116382891913</v>
       </c>
       <c r="BX3">
-        <v>0.01960639673149763</v>
+        <v>0.01649116382891913</v>
       </c>
       <c r="BY3">
-        <v>0.0198376387951349</v>
+        <v>0.0166653688179139</v>
       </c>
       <c r="BZ3">
-        <v>0.02027856290113794</v>
+        <v>0.01705141834530862</v>
       </c>
       <c r="CA3">
-        <v>0.02050337458439598</v>
+        <v>0.01721912663602725</v>
       </c>
       <c r="CB3">
-        <v>0.02053312834515068</v>
+        <v>0.01721912663602725</v>
       </c>
       <c r="CC3">
-        <v>0.02055290289131686</v>
+        <v>0.01721912663602725</v>
       </c>
       <c r="CD3">
-        <v>0.02065440036730257</v>
+        <v>0.01726224895351223</v>
       </c>
       <c r="CE3">
-        <v>0.02094490940443504</v>
+        <v>0.01749633214905628</v>
       </c>
       <c r="CF3">
-        <v>0.02149463637685462</v>
+        <v>0.01799230665024725</v>
       </c>
       <c r="CG3">
-        <v>0.02212286471390374</v>
+        <v>0.01856759211753755</v>
       </c>
       <c r="CH3">
-        <v>0.02282953895557913</v>
+        <v>0.01922213251895296</v>
       </c>
       <c r="CI3">
-        <v>0.02298512829475485</v>
+        <v>0.01931990456065558</v>
       </c>
       <c r="CJ3">
-        <v>0.02302977739738798</v>
+        <v>0.01931990456065558</v>
       </c>
       <c r="CK3">
-        <v>0.02303314456298656</v>
+        <v>0.01931990456065558</v>
       </c>
       <c r="CL3">
-        <v>0.0233278007203636</v>
+        <v>0.0195581776465879</v>
       </c>
       <c r="CM3">
-        <v>0.02343643840677039</v>
+        <v>0.01960851381302087</v>
       </c>
       <c r="CN3">
-        <v>0.0568132003751305</v>
+        <v>0.0532700755876455</v>
       </c>
       <c r="CO3">
-        <v>0.1147261737904884</v>
+        <v>0.111720896039012</v>
       </c>
       <c r="CP3">
-        <v>0.1861384080019512</v>
+        <v>0.1838101980686089</v>
       </c>
       <c r="CQ3">
-        <v>0.2016210539150243</v>
+        <v>0.1993930979175993</v>
       </c>
       <c r="CR3">
-        <v>0.2343036558424471</v>
+        <v>0.2323533406293757</v>
       </c>
       <c r="CS3">
-        <v>0.250845936818011</v>
+        <v>0.2490068037853287</v>
       </c>
       <c r="CT3">
-        <v>0.2511672214169585</v>
+        <v>0.2492719799376807</v>
       </c>
       <c r="CU3">
-        <v>0.2735190407351339</v>
+        <v>0.271794896455598</v>
       </c>
       <c r="CV3">
-        <v>0.2851873374232597</v>
+        <v>0.2835241088750966</v>
       </c>
       <c r="CW3">
-        <v>0.2906426752449826</v>
+        <v>0.2889762868461468</v>
       </c>
       <c r="CX3">
-        <v>0.305439092117586</v>
+        <v>0.3038658804268716</v>
       </c>
       <c r="CY3">
-        <v>0.3372425439931618</v>
+        <v>0.3359379062230911</v>
       </c>
       <c r="CZ3">
-        <v>0.4201570488829592</v>
+        <v>0.4196481043242381</v>
       </c>
       <c r="DA3">
-        <v>0.4224791410199022</v>
+        <v>0.4219347227733721</v>
       </c>
       <c r="DB3">
-        <v>0.4787536543386336</v>
+        <v>0.4787301853364789</v>
       </c>
       <c r="DC3">
-        <v>0.4915538030935092</v>
+        <v>0.4916029228567077</v>
       </c>
       <c r="DD3">
-        <v>0.4986855561140969</v>
+        <v>0.4987488052573947</v>
       </c>
       <c r="DE3">
-        <v>0.515620844112838</v>
+        <v>0.5157993286025444</v>
       </c>
       <c r="DF3">
-        <v>0.5175719135279003</v>
+        <v>0.5177110978926093</v>
       </c>
       <c r="DG3">
-        <v>0.5177571222988229</v>
+        <v>0.5178387948376335</v>
       </c>
       <c r="DH3">
-        <v>0.5290060529622169</v>
+        <v>0.5291443162203244</v>
       </c>
       <c r="DI3">
-        <v>0.5291279313294046</v>
+        <v>0.529208029621529</v>
       </c>
       <c r="DJ3">
-        <v>0.5339842009157981</v>
+        <v>0.5340549610375975</v>
       </c>
       <c r="DK3">
-        <v>0.5359234255301619</v>
+        <v>0.5359547633689848</v>
       </c>
       <c r="DL3">
-        <v>0.5364553271615303</v>
+        <v>0.5364327286925457</v>
       </c>
       <c r="DM3">
-        <v>0.5374697291213536</v>
+        <v>0.5373981704743005</v>
       </c>
       <c r="DN3">
-        <v>0.5392744249277837</v>
+        <v>0.5391620565732024</v>
       </c>
       <c r="DO3">
-        <v>0.5415299658608018</v>
+        <v>0.5413814374615212</v>
       </c>
       <c r="DP3">
-        <v>0.5462672008401753</v>
+        <v>0.5461081066410469</v>
       </c>
       <c r="DQ3">
-        <v>0.549429760126684</v>
+        <v>0.5492438601583594</v>
       </c>
       <c r="DR3">
-        <v>0.550879943312207</v>
+        <v>0.5506495774713906</v>
       </c>
       <c r="DS3">
-        <v>0.5510196693504472</v>
+        <v>0.5507313226105208</v>
       </c>
       <c r="DT3">
-        <v>0.5534030944910072</v>
+        <v>0.5530799066037393</v>
       </c>
       <c r="DU3">
-        <v>0.5677165923351309</v>
+        <v>0.5674816007081018</v>
       </c>
       <c r="DV3">
-        <v>0.5774725849104806</v>
+        <v>0.5772787870109113</v>
       </c>
       <c r="DW3">
-        <v>0.5785015058711601</v>
+        <v>0.5782588975311033</v>
       </c>
       <c r="DX3">
-        <v>0.5882868524482409</v>
+        <v>0.5880857405697818</v>
       </c>
       <c r="DY3">
-        <v>0.5882996757594972</v>
+        <v>0.5880857405697818</v>
       </c>
       <c r="DZ3">
-        <v>0.5906217678964402</v>
+        <v>0.5903723590189158</v>
       </c>
       <c r="EA3">
-        <v>0.5936251306735604</v>
+        <v>0.5933472741989736</v>
       </c>
       <c r="EB3">
-        <v>0.5969502444696555</v>
+        <v>0.5966472586855176</v>
       </c>
       <c r="EC3">
-        <v>0.6011277377160189</v>
+        <v>0.6008084133950636</v>
       </c>
       <c r="ED3">
-        <v>0.6107969952862534</v>
+        <v>0.6105179701759818</v>
       </c>
       <c r="EE3">
-        <v>0.6109031206225121</v>
+        <v>0.6105657680818587</v>
       </c>
       <c r="EF3">
-        <v>0.6152127678766691</v>
+        <v>0.6148604397319252</v>
       </c>
       <c r="EG3">
-        <v>0.6153826742766891</v>
+        <v>0.6149726764894021</v>
       </c>
       <c r="EH3">
-        <v>0.6259367078991024</v>
+        <v>0.6255761342083613</v>
       </c>
       <c r="EI3">
-        <v>0.6481190712072844</v>
+        <v>0.647927847079981</v>
       </c>
       <c r="EJ3">
-        <v>0.6584151258144836</v>
+        <v>0.6582706651906156</v>
       </c>
       <c r="EK3">
-        <v>0.6663625352831739</v>
+        <v>0.6662406160799135</v>
       </c>
       <c r="EL3">
-        <v>0.6664065304257685</v>
+        <v>0.6662406160799135</v>
       </c>
       <c r="EM3">
-        <v>0.6680624625234254</v>
+        <v>0.6678542042378942</v>
       </c>
       <c r="EN3">
-        <v>0.6924690289627775</v>
+        <v>0.6924530589263056</v>
       </c>
       <c r="EO3">
-        <v>0.7556155526867786</v>
+        <v>0.7561914044171</v>
       </c>
       <c r="EP3">
-        <v>0.7792914200830384</v>
+        <v>0.7800520242059146</v>
       </c>
       <c r="EQ3">
-        <v>0.7852166454324725</v>
+        <v>0.7859789357558863</v>
       </c>
       <c r="ER3">
-        <v>0.7887739840422628</v>
+        <v>0.7895135400406125</v>
       </c>
       <c r="ES3">
-        <v>0.7892622939710604</v>
+        <v>0.7899474640909914</v>
       </c>
       <c r="ET3">
-        <v>0.790182252425314</v>
+        <v>0.7908174883509759</v>
       </c>
       <c r="EU3">
-        <v>0.7903917791076707</v>
+        <v>0.7909697540032889</v>
       </c>
       <c r="EV3">
-        <v>0.7940300715222353</v>
+        <v>0.7945861469868021</v>
       </c>
       <c r="EW3">
-        <v>0.7943941893637088</v>
+        <v>0.7948945981301296</v>
       </c>
       <c r="EX3">
-        <v>0.7948916635930467</v>
+        <v>0.795337780994453</v>
       </c>
       <c r="EY3">
-        <v>0.8106102535200344</v>
+        <v>0.8111590581987572</v>
       </c>
       <c r="EZ3">
-        <v>0.8471769716765188</v>
+        <v>0.8480434748662697</v>
       </c>
       <c r="FA3">
-        <v>0.861199857503504</v>
+        <v>0.8621515598092107</v>
       </c>
       <c r="FB3">
-        <v>0.8783372425141637</v>
+        <v>0.8794062644362615</v>
       </c>
       <c r="FC3">
-        <v>0.8783541568861611</v>
+        <v>0.8794062644362615</v>
       </c>
       <c r="FD3">
-        <v>0.8924830097193956</v>
+        <v>0.8936214092459951</v>
       </c>
       <c r="FE3">
-        <v>0.8938448475997086</v>
+        <v>0.8949378701296685</v>
       </c>
       <c r="FF3">
-        <v>0.8953287392872196</v>
+        <v>0.8963776435877241</v>
       </c>
       <c r="FG3">
-        <v>0.8979980999446423</v>
+        <v>0.8990151120123345</v>
       </c>
       <c r="FH3">
-        <v>0.900622183899395</v>
+        <v>0.9016068367858949</v>
       </c>
       <c r="FI3">
-        <v>0.9008219639411768</v>
+        <v>0.9017492552784311</v>
       </c>
       <c r="FJ3">
-        <v>0.9025573864435215</v>
+        <v>0.9034431536427524</v>
       </c>
       <c r="FK3">
-        <v>0.9108967429353264</v>
+        <v>0.9118090937891756</v>
       </c>
       <c r="FL3">
-        <v>0.9123259637196133</v>
+        <v>0.9131936325112149</v>
       </c>
       <c r="FM3">
-        <v>0.9139542852156418</v>
+        <v>0.9147793253134898</v>
       </c>
       <c r="FN3">
-        <v>0.9139726297197237</v>
+        <v>0.9147793253134898</v>
       </c>
       <c r="FO3">
-        <v>0.9156997833215809</v>
+        <v>0.916464869498373</v>
       </c>
       <c r="FP3">
-        <v>0.9217105432760593</v>
+        <v>0.922478197790181</v>
       </c>
       <c r="FQ3">
-        <v>0.9218069577317453</v>
+        <v>0.9225161846650838</v>
       </c>
       <c r="FR3">
-        <v>0.9223009300908768</v>
+        <v>0.9229558295436594</v>
       </c>
       <c r="FS3">
-        <v>0.9268946713617879</v>
+        <v>0.9275375251332223</v>
       </c>
       <c r="FT3">
-        <v>0.9271791824485667</v>
+        <v>0.9277655485202596</v>
       </c>
       <c r="FU3">
-        <v>0.9300586658183813</v>
+        <v>0.9306153066980208</v>
       </c>
       <c r="FV3">
-        <v>0.9328310016818769</v>
+        <v>0.9333568123341683</v>
       </c>
       <c r="FW3">
-        <v>0.9360570038721271</v>
+        <v>0.9365566630555437</v>
       </c>
       <c r="FX3">
-        <v>0.9431815665922908</v>
+        <v>0.9436952810006908</v>
       </c>
       <c r="FY3">
-        <v>0.9438992568346158</v>
+        <v>0.9443609510131415</v>
       </c>
       <c r="FZ3">
-        <v>0.944725741523357</v>
+        <v>0.9451365374925509</v>
       </c>
       <c r="GA3">
-        <v>0.9471958733690304</v>
+        <v>0.947572722415795</v>
       </c>
       <c r="GB3">
-        <v>0.9475418052094314</v>
+        <v>0.9478628000019067</v>
       </c>
       <c r="GC3">
-        <v>0.9475565237452994</v>
+        <v>0.9478628000019067</v>
       </c>
       <c r="GD3">
-        <v>0.9501907975006531</v>
+        <v>0.9504648196656749</v>
       </c>
       <c r="GE3">
-        <v>0.9597444380640692</v>
+        <v>0.9600575670566982</v>
       </c>
       <c r="GF3">
-        <v>0.9683436435711984</v>
+        <v>0.9686860360972699</v>
       </c>
       <c r="GG3">
-        <v>0.9750933586692558</v>
+        <v>0.9754459405361029</v>
       </c>
       <c r="GH3">
-        <v>0.9790329699015904</v>
+        <v>0.9793667599032085</v>
       </c>
       <c r="GI3">
-        <v>0.9810472435203801</v>
+        <v>0.9813423852355577</v>
       </c>
       <c r="GJ3">
-        <v>0.9810586312430517</v>
+        <v>0.9813423852355577</v>
       </c>
       <c r="GK3">
-        <v>0.9818802261415044</v>
+        <v>0.9821130314952189</v>
       </c>
       <c r="GL3">
-        <v>0.9818839131316218</v>
+        <v>0.9821130314952189</v>
       </c>
       <c r="GM3">
-        <v>0.9829884290967595</v>
+        <v>0.9831695166474208</v>
       </c>
       <c r="GN3">
-        <v>0.9843687053781599</v>
+        <v>0.9845046060913807</v>
       </c>
       <c r="GO3">
-        <v>0.9873279520526784</v>
+        <v>0.9874349501899752</v>
       </c>
       <c r="GP3">
-        <v>0.990998853069166</v>
+        <v>0.9910842880749416</v>
       </c>
       <c r="GQ3">
-        <v>0.992988407986498</v>
+        <v>0.9930349397765446</v>
       </c>
       <c r="GR3">
-        <v>0.996000396364127</v>
+        <v>0.9960185695147856</v>
       </c>
       <c r="GS3">
         <v>0.9999999999999994</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.787147259433485E-06</v>
+        <v>1.534589524589052E-06</v>
       </c>
       <c r="C4">
-        <v>4.027583886858017E-06</v>
+        <v>1.534589524589052E-06</v>
       </c>
       <c r="D4">
-        <v>4.199552348015955E-05</v>
+        <v>3.726494446680546E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001644223221687691</v>
+        <v>0.0001574911561712973</v>
       </c>
       <c r="F4">
-        <v>0.0001717287027905059</v>
+        <v>0.0001625465206776871</v>
       </c>
       <c r="G4">
-        <v>0.0001717771230549872</v>
+        <v>0.0001625465206776871</v>
       </c>
       <c r="H4">
-        <v>0.0002716423219852683</v>
+        <v>0.0002602012493911967</v>
       </c>
       <c r="I4">
-        <v>0.0003932972106821463</v>
+        <v>0.0003796552129645467</v>
       </c>
       <c r="J4">
-        <v>0.0005397346591135628</v>
+        <v>0.0005239025924088012</v>
       </c>
       <c r="K4">
-        <v>0.000596877678501468</v>
+        <v>0.0005788164268946105</v>
       </c>
       <c r="L4">
-        <v>0.0006190250292642338</v>
+        <v>0.0005987192627104874</v>
       </c>
       <c r="M4">
-        <v>0.0006313040361327056</v>
+        <v>0.000608749431749843</v>
       </c>
       <c r="N4">
-        <v>0.0006804372096064093</v>
+        <v>0.0006556499115644681</v>
       </c>
       <c r="O4">
-        <v>0.0007939581083904156</v>
+        <v>0.0007669663220860036</v>
       </c>
       <c r="P4">
-        <v>0.0009119898631261032</v>
+        <v>0.000882795564564438</v>
       </c>
       <c r="Q4">
-        <v>0.0009338956298914568</v>
+        <v>0.0009024567105557061</v>
       </c>
       <c r="R4">
-        <v>0.0009361488595673211</v>
+        <v>0.0009024567105557061</v>
       </c>
       <c r="S4">
-        <v>0.0009362717761660044</v>
+        <v>0.0009024567105557061</v>
       </c>
       <c r="T4">
-        <v>0.0009430704170931799</v>
+        <v>0.0009070041129493736</v>
       </c>
       <c r="U4">
-        <v>0.000944429496378622</v>
+        <v>0.0009070041129493736</v>
       </c>
       <c r="V4">
-        <v>0.0009994792417889495</v>
+        <v>0.0009598237564874458</v>
       </c>
       <c r="W4">
-        <v>0.001209396129540398</v>
+        <v>0.001167578382768675</v>
       </c>
       <c r="X4">
-        <v>0.001676131054540906</v>
+        <v>0.001632263546850299</v>
       </c>
       <c r="Y4">
-        <v>0.001821724152981367</v>
+        <v>0.001775666206431448</v>
       </c>
       <c r="Z4">
-        <v>0.001876256682397235</v>
+        <v>0.001827968407405754</v>
       </c>
       <c r="AA4">
-        <v>0.001910858322026595</v>
+        <v>0.001860330987757847</v>
       </c>
       <c r="AB4">
-        <v>0.001948224461626343</v>
+        <v>0.001895459279084718</v>
       </c>
       <c r="AC4">
-        <v>0.002013525620926861</v>
+        <v>0.001958534827201123</v>
       </c>
       <c r="AD4">
-        <v>0.002249439648399838</v>
+        <v>0.002192297981393679</v>
       </c>
       <c r="AE4">
-        <v>0.002455925226188041</v>
+        <v>0.002396619794607493</v>
       </c>
       <c r="AF4">
-        <v>0.002650212994106903</v>
+        <v>0.002588738454634377</v>
       </c>
       <c r="AG4">
-        <v>0.002696293153613309</v>
+        <v>0.002632584583092173</v>
       </c>
       <c r="AH4">
-        <v>0.002705524494514426</v>
+        <v>0.002639565751117363</v>
       </c>
       <c r="AI4">
-        <v>0.002717559871385508</v>
+        <v>0.00264935218343587</v>
       </c>
       <c r="AJ4">
-        <v>0.002723044901326754</v>
+        <v>0.002652585399409104</v>
       </c>
       <c r="AK4">
-        <v>0.002723105310660107</v>
+        <v>0.002652585399409104</v>
       </c>
       <c r="AL4">
-        <v>0.002756484864302557</v>
+        <v>0.00268372535843281</v>
       </c>
       <c r="AM4">
-        <v>0.002760272011561991</v>
+        <v>0.002685259947957399</v>
       </c>
       <c r="AN4">
-        <v>0.002775482761399059</v>
+        <v>0.002698223144231456</v>
       </c>
       <c r="AO4">
-        <v>0.002785361988293237</v>
+        <v>0.002705852482059723</v>
       </c>
       <c r="AP4">
-        <v>0.002785538782491343</v>
+        <v>0.002705852482059723</v>
       </c>
       <c r="AQ4">
-        <v>0.002791188679930823</v>
+        <v>0.002709250637752303</v>
       </c>
       <c r="AR4">
-        <v>0.002828554819530571</v>
+        <v>0.002744378929079174</v>
       </c>
       <c r="AS4">
-        <v>0.002863815834152868</v>
+        <v>0.00277740117326704</v>
       </c>
       <c r="AT4">
-        <v>0.002890659902865324</v>
+        <v>0.002802002784455693</v>
       </c>
       <c r="AU4">
-        <v>0.002893797666831714</v>
+        <v>0.002802887706221321</v>
       </c>
       <c r="AV4">
-        <v>0.003088478444746366</v>
+        <v>0.002995399548404182</v>
       </c>
       <c r="AW4">
-        <v>0.00347404782061629</v>
+        <v>0.003378883608340767</v>
       </c>
       <c r="AX4">
-        <v>0.003669704748520485</v>
+        <v>0.003572372028121035</v>
       </c>
       <c r="AY4">
-        <v>0.003775953267382391</v>
+        <v>0.003676412873014514</v>
       </c>
       <c r="AZ4">
-        <v>0.003981840165177007</v>
+        <v>0.003880135743979682</v>
       </c>
       <c r="BA4">
-        <v>0.003989146545798744</v>
+        <v>0.003885191108486072</v>
       </c>
       <c r="BB4">
-        <v>0.004052023805125226</v>
+        <v>0.003945841694825748</v>
       </c>
       <c r="BC4">
-        <v>0.004105663910550653</v>
+        <v>0.003997251080878385</v>
       </c>
       <c r="BD4">
-        <v>0.004347336587961945</v>
+        <v>0.00423677540761748</v>
       </c>
       <c r="BE4">
-        <v>0.004701902464163967</v>
+        <v>0.004589242386632902</v>
       </c>
       <c r="BF4">
-        <v>0.00477614853936867</v>
+        <v>0.004661266769023019</v>
       </c>
       <c r="BG4">
-        <v>0.00481182570198651</v>
+        <v>0.004694705343502341</v>
       </c>
       <c r="BH4">
-        <v>0.004884078411212566</v>
+        <v>0.004764735486708897</v>
       </c>
       <c r="BI4">
-        <v>0.004888226882568129</v>
+        <v>0.00476663155860962</v>
       </c>
       <c r="BJ4">
-        <v>0.005025238111100516</v>
+        <v>0.004901448588947461</v>
       </c>
       <c r="BK4">
-        <v>0.005283183608337499</v>
+        <v>0.005157252863910323</v>
       </c>
       <c r="BL4">
-        <v>0.005678417144103904</v>
+        <v>0.005550405317181695</v>
       </c>
       <c r="BM4">
-        <v>0.005926361461448017</v>
+        <v>0.005796204031179919</v>
       </c>
       <c r="BN4">
-        <v>0.006246379988020097</v>
+        <v>0.006114108526909204</v>
       </c>
       <c r="BO4">
-        <v>0.006422668086131764</v>
+        <v>0.006288219632274703</v>
       </c>
       <c r="BP4">
-        <v>0.00643639188448476</v>
+        <v>0.006299695225697425</v>
       </c>
       <c r="BQ4">
-        <v>0.006467495714151588</v>
+        <v>0.006328558463852125</v>
       </c>
       <c r="BR4">
-        <v>0.006517119893620032</v>
+        <v>0.006375950164749363</v>
       </c>
       <c r="BS4">
-        <v>0.006674402261935282</v>
+        <v>0.006531047214754152</v>
       </c>
       <c r="BT4">
-        <v>0.007096369557415325</v>
+        <v>0.006950945138609392</v>
       </c>
       <c r="BU4">
-        <v>0.007215924461134697</v>
+        <v>0.007068298197295287</v>
       </c>
       <c r="BV4">
-        <v>0.007279357015455231</v>
+        <v>0.007129504321879036</v>
       </c>
       <c r="BW4">
-        <v>0.007289178494350027</v>
+        <v>0.007137075886411094</v>
       </c>
       <c r="BX4">
-        <v>0.007365487783532631</v>
+        <v>0.007211164386581321</v>
       </c>
       <c r="BY4">
-        <v>0.007446338902666583</v>
+        <v>0.007289796706276446</v>
       </c>
       <c r="BZ4">
-        <v>0.007452956572595698</v>
+        <v>0.007294163058396713</v>
       </c>
       <c r="CA4">
-        <v>0.007472324162388239</v>
+        <v>0.00731128491555281</v>
       </c>
       <c r="CB4">
-        <v>0.007473306460777717</v>
+        <v>0.00731128491555281</v>
       </c>
       <c r="CC4">
-        <v>0.007513163046350788</v>
+        <v>0.007348904743806538</v>
       </c>
       <c r="CD4">
-        <v>0.007663858804736592</v>
+        <v>0.007497412298581235</v>
       </c>
       <c r="CE4">
-        <v>0.007670017951870617</v>
+        <v>0.007501319927047985</v>
       </c>
       <c r="CF4">
-        <v>0.007681103224751876</v>
+        <v>0.007510155839178401</v>
       </c>
       <c r="CG4">
-        <v>0.007689708651659698</v>
+        <v>0.007516510819025234</v>
       </c>
       <c r="CH4">
-        <v>0.007722791473305327</v>
+        <v>0.007547353916067038</v>
       </c>
       <c r="CI4">
-        <v>0.00773710739515198</v>
+        <v>0.007559421892366365</v>
       </c>
       <c r="CJ4">
-        <v>0.007764583867857662</v>
+        <v>0.007584656184576286</v>
       </c>
       <c r="CK4">
-        <v>0.007767599078825364</v>
+        <v>0.007585418499658212</v>
       </c>
       <c r="CL4">
-        <v>0.007859037917845904</v>
+        <v>0.007674643177248757</v>
       </c>
       <c r="CM4">
-        <v>0.008860296307120796</v>
+        <v>0.008674085956543212</v>
       </c>
       <c r="CN4">
-        <v>0.1541547647507804</v>
+        <v>0.1540299472231616</v>
       </c>
       <c r="CO4">
-        <v>0.1948961673143736</v>
+        <v>0.1947869425651323</v>
       </c>
       <c r="CP4">
-        <v>0.2433528507953236</v>
+        <v>0.2432625985456281</v>
       </c>
       <c r="CQ4">
-        <v>0.2590552636271252</v>
+        <v>0.2589696356888728</v>
       </c>
       <c r="CR4">
-        <v>0.2769730214351969</v>
+        <v>0.2768929882524183</v>
       </c>
       <c r="CS4">
-        <v>0.2772503161522266</v>
+        <v>0.2771681502232059</v>
       </c>
       <c r="CT4">
-        <v>0.2951798889601716</v>
+        <v>0.2951033229622504</v>
       </c>
       <c r="CU4">
-        <v>0.2973261659371815</v>
+        <v>0.2972482859109592</v>
       </c>
       <c r="CV4">
-        <v>0.2980231070897161</v>
+        <v>0.2979432781456769</v>
       </c>
       <c r="CW4">
-        <v>0.3071443869920123</v>
+        <v>0.3070662994580013</v>
       </c>
       <c r="CX4">
-        <v>0.3122654749371571</v>
+        <v>0.3121873765071235</v>
       </c>
       <c r="CY4">
-        <v>0.3806983442041296</v>
+        <v>0.3806479689515092</v>
       </c>
       <c r="CZ4">
-        <v>0.3918206810849913</v>
+        <v>0.3917729238163958</v>
       </c>
       <c r="DA4">
-        <v>0.4240858007393793</v>
+        <v>0.4240499231668919</v>
       </c>
       <c r="DB4">
-        <v>0.4338272496350325</v>
+        <v>0.4337933851410061</v>
       </c>
       <c r="DC4">
-        <v>0.4407391159609951</v>
+        <v>0.4407060250312485</v>
       </c>
       <c r="DD4">
-        <v>0.4420450651470063</v>
+        <v>0.4420102920787557</v>
       </c>
       <c r="DE4">
-        <v>0.4432102533345252</v>
+        <v>0.4431737364666424</v>
       </c>
       <c r="DF4">
-        <v>0.4449135685162799</v>
+        <v>0.4448755435782495</v>
       </c>
       <c r="DG4">
-        <v>0.4464429711998976</v>
+        <v>0.4464033620083947</v>
       </c>
       <c r="DH4">
-        <v>0.4518739821417226</v>
+        <v>0.4518344978176675</v>
       </c>
       <c r="DI4">
-        <v>0.456673591590311</v>
+        <v>0.4566339555448127</v>
       </c>
       <c r="DJ4">
-        <v>0.4666388124835672</v>
+        <v>0.466601287541082</v>
       </c>
       <c r="DK4">
-        <v>0.4675761150135271</v>
+        <v>0.4675367464448462</v>
       </c>
       <c r="DL4">
-        <v>0.4705429099817479</v>
+        <v>0.4705025868171772</v>
       </c>
       <c r="DM4">
-        <v>0.4799493598809895</v>
+        <v>0.47991090304673</v>
       </c>
       <c r="DN4">
-        <v>0.4887012167872429</v>
+        <v>0.4886643395352397</v>
       </c>
       <c r="DO4">
-        <v>0.4913019990593843</v>
+        <v>0.4912640068776201</v>
       </c>
       <c r="DP4">
-        <v>0.4931971173390844</v>
+        <v>0.4931577011075728</v>
       </c>
       <c r="DQ4">
-        <v>0.4946795214232055</v>
+        <v>0.4946385003502269</v>
       </c>
       <c r="DR4">
-        <v>0.4962910660059432</v>
+        <v>0.4962484966622022</v>
       </c>
       <c r="DS4">
-        <v>0.4964834107338829</v>
+        <v>0.4964386714310906</v>
       </c>
       <c r="DT4">
-        <v>0.5169781115143512</v>
+        <v>0.5169400958110512</v>
       </c>
       <c r="DU4">
-        <v>0.5519449511397995</v>
+        <v>0.5519199986358753</v>
       </c>
       <c r="DV4">
-        <v>0.5526648287920884</v>
+        <v>0.552637937417807</v>
       </c>
       <c r="DW4">
-        <v>0.5687194306201175</v>
+        <v>0.5686973178356027</v>
       </c>
       <c r="DX4">
-        <v>0.570982718395874</v>
+        <v>0.570959342840281</v>
       </c>
       <c r="DY4">
-        <v>0.5714717480906357</v>
+        <v>0.5714463325404702</v>
       </c>
       <c r="DZ4">
-        <v>0.5779364436213883</v>
+        <v>0.5779116057498804</v>
       </c>
       <c r="EA4">
-        <v>0.5789040867810232</v>
+        <v>0.5788774185741991</v>
       </c>
       <c r="EB4">
-        <v>0.5790932148089973</v>
+        <v>0.5790643752340288</v>
       </c>
       <c r="EC4">
-        <v>0.5815209303829926</v>
+        <v>0.5814909000654456</v>
       </c>
       <c r="ED4">
-        <v>0.5860282266347121</v>
+        <v>0.5859979165463211</v>
       </c>
       <c r="EE4">
-        <v>0.5905139850866623</v>
+        <v>0.5904833857926758</v>
       </c>
       <c r="EF4">
-        <v>0.5938291770511512</v>
+        <v>0.593797775778492</v>
       </c>
       <c r="EG4">
-        <v>0.6006811449777555</v>
+        <v>0.6006504910305533</v>
       </c>
       <c r="EH4">
-        <v>0.6272818406928187</v>
+        <v>0.6272605851097163</v>
       </c>
       <c r="EI4">
-        <v>0.6444646175087632</v>
+        <v>0.6444486347186754</v>
       </c>
       <c r="EJ4">
-        <v>0.6586965383563161</v>
+        <v>0.6586845357205837</v>
       </c>
       <c r="EK4">
-        <v>0.6595198754474969</v>
+        <v>0.6595059792623824</v>
       </c>
       <c r="EL4">
-        <v>0.6597445538150902</v>
+        <v>0.6597285018348528</v>
       </c>
       <c r="EM4">
-        <v>0.6627431497829703</v>
+        <v>0.6627261571374456</v>
       </c>
       <c r="EN4">
-        <v>0.7223827221441333</v>
+        <v>0.7223896007240307</v>
       </c>
       <c r="EO4">
-        <v>0.7729381316026026</v>
+        <v>0.7729649020404837</v>
       </c>
       <c r="EP4">
-        <v>0.7813918765120492</v>
+        <v>0.7814200959425897</v>
       </c>
       <c r="EQ4">
-        <v>0.7851787099714861</v>
+        <v>0.7852063340285004</v>
       </c>
       <c r="ER4">
-        <v>0.7878947725423926</v>
+        <v>0.7879213321688138</v>
       </c>
       <c r="ES4">
-        <v>0.7879179173851447</v>
+        <v>0.7879422329335758</v>
       </c>
       <c r="ET4">
-        <v>0.7890617380728925</v>
+        <v>0.7890843004615408</v>
       </c>
       <c r="EU4">
-        <v>0.791430144647523</v>
+        <v>0.79145149031296</v>
       </c>
       <c r="EV4">
-        <v>0.7996452985595254</v>
+        <v>0.7996679887015252</v>
       </c>
       <c r="EW4">
-        <v>0.8003088312524178</v>
+        <v>0.8003295578418416</v>
       </c>
       <c r="EX4">
-        <v>0.805103601601058</v>
+        <v>0.8051241743492443</v>
       </c>
       <c r="EY4">
-        <v>0.8322426213103549</v>
+        <v>0.8322728282384224</v>
       </c>
       <c r="EZ4">
-        <v>0.8462007881608402</v>
+        <v>0.8462348553238216</v>
       </c>
       <c r="FA4">
-        <v>0.8502957716169762</v>
+        <v>0.8503293783932295</v>
       </c>
       <c r="FB4">
-        <v>0.8510587710788032</v>
+        <v>0.8510904578744447</v>
       </c>
       <c r="FC4">
-        <v>0.8663523514149841</v>
+        <v>0.8663884834307493</v>
       </c>
       <c r="FD4">
-        <v>0.8748532753239254</v>
+        <v>0.8748908769993696</v>
       </c>
       <c r="FE4">
-        <v>0.8748608863834439</v>
+        <v>0.874896237176239</v>
       </c>
       <c r="FF4">
-        <v>0.8769610153609482</v>
+        <v>0.8769950319100576</v>
       </c>
       <c r="FG4">
-        <v>0.8787129376421823</v>
+        <v>0.8787454674137507</v>
       </c>
       <c r="FH4">
-        <v>0.8788196163510396</v>
+        <v>0.8788499386370867</v>
       </c>
       <c r="FI4">
-        <v>0.8791871087471032</v>
+        <v>0.8792153377984967</v>
       </c>
       <c r="FJ4">
-        <v>0.8831270879048996</v>
+        <v>0.883154788669081</v>
       </c>
       <c r="FK4">
-        <v>0.8940489137879091</v>
+        <v>0.8940791447011718</v>
       </c>
       <c r="FL4">
-        <v>0.8943012786552058</v>
+        <v>0.8943293659015689</v>
       </c>
       <c r="FM4">
-        <v>0.8946997601509374</v>
+        <v>0.8947257677375922</v>
       </c>
       <c r="FN4">
-        <v>0.895031127427388</v>
+        <v>0.8950550259545821</v>
       </c>
       <c r="FO4">
-        <v>0.9017625713552833</v>
+        <v>0.901787164411735</v>
       </c>
       <c r="FP4">
-        <v>0.9105340492613264</v>
+        <v>0.9105602304951212</v>
       </c>
       <c r="FQ4">
-        <v>0.9106955097995969</v>
+        <v>0.9107195075453516</v>
       </c>
       <c r="FR4">
-        <v>0.9147699649559529</v>
+        <v>0.914793493322445</v>
       </c>
       <c r="FS4">
-        <v>0.9148931661146332</v>
+        <v>0.9149144942333538</v>
       </c>
       <c r="FT4">
-        <v>0.9176773718848098</v>
+        <v>0.9176976654234399</v>
       </c>
       <c r="FU4">
-        <v>0.9195219218650517</v>
+        <v>0.9195407692022131</v>
       </c>
       <c r="FV4">
-        <v>0.9230826085269109</v>
+        <v>0.9231007614256999</v>
       </c>
       <c r="FW4">
-        <v>0.9339874024101028</v>
+        <v>0.934008077997012</v>
       </c>
       <c r="FX4">
-        <v>0.9416996166274925</v>
+        <v>0.9417214163754698</v>
       </c>
       <c r="FY4">
-        <v>0.9421230204829572</v>
+        <v>0.9421427514886026</v>
       </c>
       <c r="FZ4">
-        <v>0.9431389172720752</v>
+        <v>0.9431568390801717</v>
       </c>
       <c r="GA4">
-        <v>0.9431509526489463</v>
+        <v>0.9431666255124902</v>
       </c>
       <c r="GB4">
-        <v>0.9431703202387389</v>
+        <v>0.9431837473696463</v>
       </c>
       <c r="GC4">
-        <v>0.9465515504025205</v>
+        <v>0.9465642044831509</v>
       </c>
       <c r="GD4">
-        <v>0.9575055572851853</v>
+        <v>0.9575207556119606</v>
       </c>
       <c r="GE4">
-        <v>0.9732634721163923</v>
+        <v>0.9732833190675664</v>
       </c>
       <c r="GF4">
-        <v>0.9811551000318601</v>
+        <v>0.9811761497372579</v>
       </c>
       <c r="GG4">
-        <v>0.9844461967966072</v>
+        <v>0.9844664339682977</v>
       </c>
       <c r="GH4">
-        <v>0.98519651718857</v>
+        <v>0.9852148288255126</v>
       </c>
       <c r="GI4">
-        <v>0.9854433624559259</v>
+        <v>0.9854595280080777</v>
       </c>
       <c r="GJ4">
-        <v>0.9860760635491487</v>
+        <v>0.9860902520427728</v>
       </c>
       <c r="GK4">
-        <v>0.9871876523372417</v>
+        <v>0.9872000735517225</v>
       </c>
       <c r="GL4">
-        <v>0.9893585913139874</v>
+        <v>0.9893697093034914</v>
       </c>
       <c r="GM4">
-        <v>0.9913055576931322</v>
+        <v>0.9913152743452334</v>
       </c>
       <c r="GN4">
-        <v>0.9923438476820104</v>
+        <v>0.9923517649460267</v>
       </c>
       <c r="GO4">
-        <v>0.9939078659652573</v>
+        <v>0.9939142141393547</v>
       </c>
       <c r="GP4">
-        <v>0.9950047492535079</v>
+        <v>0.9950093237066369</v>
       </c>
       <c r="GQ4">
-        <v>0.9960809037419806</v>
+        <v>0.9960836953937765</v>
       </c>
       <c r="GR4">
-        <v>0.9978258042232898</v>
+        <v>0.9978271060216068</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.470341185627459E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.045248277344466E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.507992844293069E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001248910636732129</v>
+        <v>7.428477751141392E-05</v>
       </c>
       <c r="F5">
-        <v>0.0004005037797239205</v>
+        <v>0.0003349298626988687</v>
       </c>
       <c r="G5">
-        <v>0.0008961623085893164</v>
+        <v>0.0008162824639251845</v>
       </c>
       <c r="H5">
-        <v>0.001258533529692532</v>
+        <v>0.001163946947030061</v>
       </c>
       <c r="I5">
-        <v>0.001345822688775943</v>
+        <v>0.001235702164520472</v>
       </c>
       <c r="J5">
-        <v>0.0013458614500532</v>
+        <v>0.001235702164520472</v>
       </c>
       <c r="K5">
-        <v>0.001746049413358729</v>
+        <v>0.001621297109147848</v>
       </c>
       <c r="L5">
-        <v>0.002852293077782439</v>
+        <v>0.002715070946095725</v>
       </c>
       <c r="M5">
-        <v>0.00368843825647657</v>
+        <v>0.003537934079909997</v>
       </c>
       <c r="N5">
-        <v>0.004344916594707542</v>
+        <v>0.004180590094279697</v>
       </c>
       <c r="O5">
-        <v>0.004614166650387711</v>
+        <v>0.004434853385840553</v>
       </c>
       <c r="P5">
-        <v>0.004623215468914682</v>
+        <v>0.004434853385840553</v>
       </c>
       <c r="Q5">
-        <v>0.004652112383597536</v>
+        <v>0.004448040766693989</v>
       </c>
       <c r="R5">
-        <v>0.004777476970898325</v>
+        <v>0.004557985909620747</v>
       </c>
       <c r="S5">
-        <v>0.005353740064457845</v>
+        <v>0.005120185462795273</v>
       </c>
       <c r="T5">
-        <v>0.005778538289196588</v>
+        <v>0.005530464674760042</v>
       </c>
       <c r="U5">
-        <v>0.006036281764206655</v>
+        <v>0.005773186784031109</v>
       </c>
       <c r="V5">
-        <v>0.006344704622168108</v>
+        <v>0.006066740675023025</v>
       </c>
       <c r="W5">
-        <v>0.00649168424072768</v>
+        <v>0.006198365848108984</v>
       </c>
       <c r="X5">
-        <v>0.006499331397173023</v>
+        <v>0.006198365848108984</v>
       </c>
       <c r="Y5">
-        <v>0.006609141343567966</v>
+        <v>0.006292709575524614</v>
       </c>
       <c r="Z5">
-        <v>0.007239559980281312</v>
+        <v>0.006909227523838438</v>
       </c>
       <c r="AA5">
-        <v>0.00776485685087274</v>
+        <v>0.007420307592714285</v>
       </c>
       <c r="AB5">
-        <v>0.0081927633757925</v>
+        <v>0.007833704451878426</v>
       </c>
       <c r="AC5">
-        <v>0.008706858905731602</v>
+        <v>0.008333549496374318</v>
       </c>
       <c r="AD5">
-        <v>0.008796192325934064</v>
+        <v>0.008407355122313538</v>
       </c>
       <c r="AE5">
-        <v>0.008796524754023424</v>
+        <v>0.008407355122313538</v>
       </c>
       <c r="AF5">
-        <v>0.008951739783062596</v>
+        <v>0.008547240470711462</v>
       </c>
       <c r="AG5">
-        <v>0.009277259452019708</v>
+        <v>0.008857942584788246</v>
       </c>
       <c r="AH5">
-        <v>0.009890557517736013</v>
+        <v>0.009457288478566745</v>
       </c>
       <c r="AI5">
-        <v>0.0102299221074994</v>
+        <v>0.009781877146728891</v>
       </c>
       <c r="AJ5">
-        <v>0.01032445016300438</v>
+        <v>0.009860893028840138</v>
       </c>
       <c r="AK5">
-        <v>0.01034424111415694</v>
+        <v>0.009864947063477141</v>
       </c>
       <c r="AL5">
-        <v>0.01059583285880875</v>
+        <v>0.01010149894342485</v>
       </c>
       <c r="AM5">
-        <v>0.01110689448857117</v>
+        <v>0.01059830096445513</v>
       </c>
       <c r="AN5">
-        <v>0.01137395010412354</v>
+        <v>0.01085036321695277</v>
       </c>
       <c r="AO5">
-        <v>0.01154976901436261</v>
+        <v>0.01101091440480576</v>
       </c>
       <c r="AP5">
-        <v>0.01175293294619415</v>
+        <v>0.0111988928438957</v>
       </c>
       <c r="AQ5">
-        <v>0.01183402198491649</v>
+        <v>0.01126442929654559</v>
       </c>
       <c r="AR5">
-        <v>0.01186676063682308</v>
+        <v>0.01128146996717118</v>
       </c>
       <c r="AS5">
-        <v>0.01186817855870565</v>
+        <v>0.01128146996717118</v>
       </c>
       <c r="AT5">
-        <v>0.01207110698052349</v>
+        <v>0.01146921218804153</v>
       </c>
       <c r="AU5">
-        <v>0.01256180550910003</v>
+        <v>0.01194558987368412</v>
       </c>
       <c r="AV5">
-        <v>0.01309288199002804</v>
+        <v>0.01246246693285369</v>
       </c>
       <c r="AW5">
-        <v>0.01368751839465756</v>
+        <v>0.01304309504777087</v>
       </c>
       <c r="AX5">
-        <v>0.01394204487948028</v>
+        <v>0.01328259049299281</v>
       </c>
       <c r="AY5">
-        <v>0.01398884963220602</v>
+        <v>0.01331373956283053</v>
       </c>
       <c r="AZ5">
-        <v>0.01404556358250884</v>
+        <v>0.0133548276283492</v>
       </c>
       <c r="BA5">
-        <v>0.01440063365318686</v>
+        <v>0.01369516900562462</v>
       </c>
       <c r="BB5">
-        <v>0.01502266868941197</v>
+        <v>0.01430327814299334</v>
       </c>
       <c r="BC5">
-        <v>0.0152407404321117</v>
+        <v>0.01450620922246396</v>
       </c>
       <c r="BD5">
-        <v>0.01567327951730124</v>
+        <v>0.01492425257254272</v>
       </c>
       <c r="BE5">
-        <v>0.01584644319738568</v>
+        <v>0.01508214054565673</v>
       </c>
       <c r="BF5">
-        <v>0.01591897378160961</v>
+        <v>0.0151390928075451</v>
       </c>
       <c r="BG5">
-        <v>0.01637708400828832</v>
+        <v>0.01558278419449474</v>
       </c>
       <c r="BH5">
-        <v>0.01720245279635487</v>
+        <v>0.01639483853182771</v>
       </c>
       <c r="BI5">
-        <v>0.01766631744336871</v>
+        <v>0.01684430164332035</v>
       </c>
       <c r="BJ5">
-        <v>0.01770996840391078</v>
+        <v>0.01687228743715634</v>
       </c>
       <c r="BK5">
-        <v>0.01771011572078936</v>
+        <v>0.01687228743715634</v>
       </c>
       <c r="BL5">
-        <v>0.01771553028870469</v>
+        <v>0.01687228743715634</v>
       </c>
       <c r="BM5">
-        <v>0.01787095131775586</v>
+        <v>0.01701237940503213</v>
       </c>
       <c r="BN5">
-        <v>0.01819556093665997</v>
+        <v>0.01732216873243009</v>
       </c>
       <c r="BO5">
-        <v>0.01842363951994246</v>
+        <v>0.01753513674421115</v>
       </c>
       <c r="BP5">
-        <v>0.01887923874647494</v>
+        <v>0.01797630958014654</v>
       </c>
       <c r="BQ5">
-        <v>0.01910968454989529</v>
+        <v>0.01819165193057036</v>
       </c>
       <c r="BR5">
-        <v>0.01912043667452145</v>
+        <v>0.01819165193057036</v>
       </c>
       <c r="BS5">
-        <v>0.01925496544235593</v>
+        <v>0.01831078881178221</v>
       </c>
       <c r="BT5">
-        <v>0.01945001775371509</v>
+        <v>0.01849063123781827</v>
       </c>
       <c r="BU5">
-        <v>0.01968945295765894</v>
+        <v>0.01871499002093329</v>
       </c>
       <c r="BV5">
-        <v>0.01977364015256171</v>
+        <v>0.01878363394627778</v>
       </c>
       <c r="BW5">
-        <v>0.02014931119443946</v>
+        <v>0.0191446382442574</v>
       </c>
       <c r="BX5">
-        <v>0.02071596396743931</v>
+        <v>0.01969719857752617</v>
       </c>
       <c r="BY5">
-        <v>0.02102086678519577</v>
+        <v>0.01998722184314483</v>
       </c>
       <c r="BZ5">
-        <v>0.02102377196656495</v>
+        <v>0.01998722184314483</v>
       </c>
       <c r="CA5">
-        <v>0.02125185054984744</v>
+        <v>0.02020018985492589</v>
       </c>
       <c r="CB5">
-        <v>0.02235364151401184</v>
+        <v>0.02128949760182949</v>
       </c>
       <c r="CC5">
-        <v>0.02348754138004615</v>
+        <v>0.02241101080578675</v>
       </c>
       <c r="CD5">
-        <v>0.0242253653730144</v>
+        <v>0.02313525709069134</v>
       </c>
       <c r="CE5">
-        <v>0.02485578400972775</v>
+        <v>0.02375177503900517</v>
       </c>
       <c r="CF5">
-        <v>0.02487974888012338</v>
+        <v>0.02376001554434344</v>
       </c>
       <c r="CG5">
-        <v>0.02497233268551513</v>
+        <v>0.02383708132975637</v>
       </c>
       <c r="CH5">
-        <v>0.02527723550327159</v>
+        <v>0.02412710459537503</v>
       </c>
       <c r="CI5">
-        <v>0.02591793544058368</v>
+        <v>0.02475393476134832</v>
       </c>
       <c r="CJ5">
-        <v>0.02667238978452043</v>
+        <v>0.02549486140661133</v>
       </c>
       <c r="CK5">
-        <v>0.0269301332595305</v>
+        <v>0.0257375835158824</v>
       </c>
       <c r="CL5">
-        <v>0.02721509362612558</v>
+        <v>0.02600760436108118</v>
       </c>
       <c r="CM5">
-        <v>0.02721929876877047</v>
+        <v>0.02600760436108118</v>
       </c>
       <c r="CN5">
-        <v>0.02755650263840803</v>
+        <v>0.02633002581158203</v>
       </c>
       <c r="CO5">
-        <v>0.03900801530530354</v>
+        <v>0.03780017807210955</v>
       </c>
       <c r="CP5">
-        <v>0.08508392498860121</v>
+        <v>0.08399884691781323</v>
       </c>
       <c r="CQ5">
-        <v>0.1753328802443805</v>
+        <v>0.1745033947960083</v>
       </c>
       <c r="CR5">
-        <v>0.2036635298942571</v>
+        <v>0.2029034415577811</v>
       </c>
       <c r="CS5">
-        <v>0.233548726634665</v>
+        <v>0.2328627101130881</v>
       </c>
       <c r="CT5">
-        <v>0.2439220607387712</v>
+        <v>0.2432514416031146</v>
       </c>
       <c r="CU5">
-        <v>0.2449149332965926</v>
+        <v>0.2442315034134226</v>
       </c>
       <c r="CV5">
-        <v>0.2701696037673351</v>
+        <v>0.2695463211706986</v>
       </c>
       <c r="CW5">
-        <v>0.2747196996323165</v>
+        <v>0.2740943032703148</v>
       </c>
       <c r="CX5">
-        <v>0.2793003694990785</v>
+        <v>0.2786729513112731</v>
       </c>
       <c r="CY5">
-        <v>0.2985485846200263</v>
+        <v>0.2979632516124141</v>
       </c>
       <c r="CZ5">
-        <v>0.3311784935202766</v>
+        <v>0.3306754859946628</v>
       </c>
       <c r="DA5">
-        <v>0.3896568299258476</v>
+        <v>0.3893138770950779</v>
       </c>
       <c r="DB5">
-        <v>0.3922095880745112</v>
+        <v>0.3918585152527193</v>
       </c>
       <c r="DC5">
-        <v>0.4456371941859456</v>
+        <v>0.4454309879285021</v>
       </c>
       <c r="DD5">
-        <v>0.4466237430433986</v>
+        <v>0.446404707022343</v>
       </c>
       <c r="DE5">
-        <v>0.4505746682734865</v>
+        <v>0.4503517167116269</v>
       </c>
       <c r="DF5">
-        <v>0.463046365999794</v>
+        <v>0.462845121846102</v>
       </c>
       <c r="DG5">
-        <v>0.4643525664758625</v>
+        <v>0.4641394537879676</v>
       </c>
       <c r="DH5">
-        <v>0.4645526415575141</v>
+        <v>0.4643243340883477</v>
       </c>
       <c r="DI5">
-        <v>0.4672565277149789</v>
+        <v>0.4670205547142021</v>
       </c>
       <c r="DJ5">
-        <v>0.4677626832844556</v>
+        <v>0.4675124359218556</v>
       </c>
       <c r="DK5">
-        <v>0.4743876733702715</v>
+        <v>0.4741415516893477</v>
       </c>
       <c r="DL5">
-        <v>0.476119585871132</v>
+        <v>0.4758628758213297</v>
       </c>
       <c r="DM5">
-        <v>0.4764189527485661</v>
+        <v>0.4761473464994128</v>
       </c>
       <c r="DN5">
-        <v>0.4780670798445472</v>
+        <v>0.4777846332741068</v>
       </c>
       <c r="DO5">
-        <v>0.4831501901405695</v>
+        <v>0.4828672326408416</v>
       </c>
       <c r="DP5">
-        <v>0.4889700034794948</v>
+        <v>0.4886887504017853</v>
       </c>
       <c r="DQ5">
-        <v>0.4970943414526274</v>
+        <v>0.4968217227692049</v>
       </c>
       <c r="DR5">
-        <v>0.5002050181337823</v>
+        <v>0.4999259571849303</v>
       </c>
       <c r="DS5">
-        <v>0.5015741124135135</v>
+        <v>0.5012833720594045</v>
       </c>
       <c r="DT5">
-        <v>0.5019992513882721</v>
+        <v>0.5016939930460639</v>
       </c>
       <c r="DU5">
-        <v>0.5052398857769951</v>
+        <v>0.5049285759672237</v>
       </c>
       <c r="DV5">
-        <v>0.5264051770095867</v>
+        <v>0.5261417172497318</v>
       </c>
       <c r="DW5">
-        <v>0.5418497829090257</v>
+        <v>0.5416169704362582</v>
       </c>
       <c r="DX5">
-        <v>0.5420548614009688</v>
+        <v>0.5418068691927634</v>
       </c>
       <c r="DY5">
-        <v>0.5481504834559562</v>
+        <v>0.5479050250584967</v>
       </c>
       <c r="DZ5">
-        <v>0.5482826908736554</v>
+        <v>0.5480218336090049</v>
       </c>
       <c r="EA5">
-        <v>0.5492824301318767</v>
+        <v>0.5490087827686756</v>
       </c>
       <c r="EB5">
-        <v>0.5533517903688618</v>
+        <v>0.5530745836126284</v>
       </c>
       <c r="EC5">
-        <v>0.553639017335589</v>
+        <v>0.553346877873888</v>
       </c>
       <c r="ED5">
-        <v>0.5542336537402185</v>
+        <v>0.5539275059888052</v>
       </c>
       <c r="EE5">
-        <v>0.5583548389802218</v>
+        <v>0.5580452876795577</v>
       </c>
       <c r="EF5">
-        <v>0.5586296143162237</v>
+        <v>0.5583050928665977</v>
       </c>
       <c r="EG5">
-        <v>0.5642116641413025</v>
+        <v>0.5638881321312932</v>
       </c>
       <c r="EH5">
-        <v>0.5642117337752366</v>
+        <v>0.5638881321312932</v>
       </c>
       <c r="EI5">
-        <v>0.5768969975139814</v>
+        <v>0.5765957454959202</v>
       </c>
       <c r="EJ5">
-        <v>0.6041378421003916</v>
+        <v>0.6039027100242819</v>
       </c>
       <c r="EK5">
-        <v>0.6227164791823455</v>
+        <v>0.6225214187877781</v>
       </c>
       <c r="EL5">
-        <v>0.632348907743304</v>
+        <v>0.6321670167459466</v>
       </c>
       <c r="EM5">
-        <v>0.6326361347100311</v>
+        <v>0.6324393110072062</v>
       </c>
       <c r="EN5">
-        <v>0.6327601873672555</v>
+        <v>0.632547940274931</v>
       </c>
       <c r="EO5">
-        <v>0.6496259443494574</v>
+        <v>0.6494486181099903</v>
       </c>
       <c r="EP5">
-        <v>0.7227465486077422</v>
+        <v>0.7227733080570446</v>
       </c>
       <c r="EQ5">
-        <v>0.7598134757663887</v>
+        <v>0.7599359033250713</v>
       </c>
       <c r="ER5">
-        <v>0.7695949633360278</v>
+        <v>0.7697310085296096</v>
       </c>
       <c r="ES5">
-        <v>0.7745467666244034</v>
+        <v>0.77468190603333</v>
       </c>
       <c r="ET5">
-        <v>0.7749056345153026</v>
+        <v>0.7750260566513115</v>
       </c>
       <c r="EU5">
-        <v>0.7753367812204111</v>
+        <v>0.7754427034342611</v>
       </c>
       <c r="EV5">
-        <v>0.7757206084627638</v>
+        <v>0.7758118884593544</v>
       </c>
       <c r="EW5">
-        <v>0.7809986417701378</v>
+        <v>0.7810899969934938</v>
       </c>
       <c r="EX5">
-        <v>0.7844171079692172</v>
+        <v>0.7845029464858435</v>
       </c>
       <c r="EY5">
-        <v>0.7868200829091579</v>
+        <v>0.7868973510193196</v>
       </c>
       <c r="EZ5">
-        <v>0.8008444887258896</v>
+        <v>0.8009481334171357</v>
       </c>
       <c r="FA5">
-        <v>0.8283699153288729</v>
+        <v>0.8285405357331278</v>
       </c>
       <c r="FB5">
-        <v>0.8358923537669531</v>
+        <v>0.8360697985839376</v>
       </c>
       <c r="FC5">
-        <v>0.8450656793011752</v>
+        <v>0.845254912939438</v>
       </c>
       <c r="FD5">
-        <v>0.8457926235835098</v>
+        <v>0.8459682467971601</v>
       </c>
       <c r="FE5">
-        <v>0.8645627496766154</v>
+        <v>0.8647790204014247</v>
       </c>
       <c r="FF5">
-        <v>0.8693138846533046</v>
+        <v>0.8695286461606231</v>
       </c>
       <c r="FG5">
-        <v>0.8717749487966283</v>
+        <v>0.871981314578439</v>
       </c>
       <c r="FH5">
-        <v>0.8747306506687579</v>
+        <v>0.8749301081579539</v>
       </c>
       <c r="FI5">
-        <v>0.8755234561649281</v>
+        <v>0.8757095012818034</v>
       </c>
       <c r="FJ5">
-        <v>0.8758702671251252</v>
+        <v>0.8760415587124968</v>
       </c>
       <c r="FK5">
-        <v>0.8758977412627251</v>
+        <v>0.876053319037812</v>
       </c>
       <c r="FL5">
-        <v>0.8895438585574267</v>
+        <v>0.8897246753562343</v>
       </c>
       <c r="FM5">
-        <v>0.8951346888830168</v>
+        <v>0.8953165215254224</v>
       </c>
       <c r="FN5">
-        <v>0.8951544798341694</v>
+        <v>0.8953205755600594</v>
       </c>
       <c r="FO5">
-        <v>0.895161942824604</v>
+        <v>0.8953205755600594</v>
       </c>
       <c r="FP5">
-        <v>0.8970903654369086</v>
+        <v>0.8972390007321319</v>
       </c>
       <c r="FQ5">
-        <v>0.9055584829300617</v>
+        <v>0.905716786404373</v>
       </c>
       <c r="FR5">
-        <v>0.9077190850558875</v>
+        <v>0.9078680892806332</v>
       </c>
       <c r="FS5">
-        <v>0.9098106903776951</v>
+        <v>0.9099501878715008</v>
       </c>
       <c r="FT5">
-        <v>0.9151208032869372</v>
+        <v>0.9152604724745836</v>
       </c>
       <c r="FU5">
-        <v>0.9152456033242051</v>
+        <v>0.9153698513698102</v>
       </c>
       <c r="FV5">
-        <v>0.9163130155863675</v>
+        <v>0.9164246770339762</v>
       </c>
       <c r="FW5">
-        <v>0.9192532679575973</v>
+        <v>0.9193579746541543</v>
       </c>
       <c r="FX5">
-        <v>0.9256672710311261</v>
+        <v>0.9257754689469966</v>
       </c>
       <c r="FY5">
-        <v>0.9377069317322733</v>
+        <v>0.9378355378709788</v>
       </c>
       <c r="FZ5">
-        <v>0.9410178719250907</v>
+        <v>0.9411406380139222</v>
       </c>
       <c r="GA5">
-        <v>0.9415458646258391</v>
+        <v>0.9416544220196283</v>
       </c>
       <c r="GB5">
-        <v>0.9421125173988389</v>
+        <v>0.9422069823528971</v>
       </c>
       <c r="GC5">
-        <v>0.9422123288546516</v>
+        <v>0.9422912975231122</v>
       </c>
       <c r="GD5">
-        <v>0.942276505918389</v>
+        <v>0.9423398711445113</v>
       </c>
       <c r="GE5">
-        <v>0.948496563280623</v>
+        <v>0.9485628365088605</v>
       </c>
       <c r="GF5">
-        <v>0.9609159370038833</v>
+        <v>0.9610037602959561</v>
       </c>
       <c r="GG5">
-        <v>0.9736963147481672</v>
+        <v>0.9738067736849441</v>
       </c>
       <c r="GH5">
-        <v>0.9810851871784689</v>
+        <v>0.981202068879533</v>
       </c>
       <c r="GI5">
-        <v>0.9834780349178199</v>
+        <v>0.9835863157587551</v>
       </c>
       <c r="GJ5">
-        <v>0.9838631760002492</v>
+        <v>0.9839568185747941</v>
       </c>
       <c r="GK5">
-        <v>0.9839317671442437</v>
+        <v>0.9840098195501004</v>
       </c>
       <c r="GL5">
-        <v>0.9871255293302371</v>
+        <v>0.9871973893183926</v>
       </c>
       <c r="GM5">
-        <v>0.9894773222671972</v>
+        <v>0.9895404579386819</v>
       </c>
       <c r="GN5">
-        <v>0.9928282217623418</v>
+        <v>0.9928856375461989</v>
       </c>
       <c r="GO5">
-        <v>0.9950984177945499</v>
+        <v>0.9951468638904007</v>
       </c>
       <c r="GP5">
-        <v>0.9975987047401578</v>
+        <v>0.9976388730580065</v>
       </c>
       <c r="GQ5">
-        <v>0.9988770133146019</v>
+        <v>0.9989052292240717</v>
       </c>
       <c r="GR5">
-        <v>0.9991185265886667</v>
+        <v>0.9991316723263051</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>7.598840934666443E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001747783284972853</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0003876575566669855</v>
+        <v>0.000116118498405467</v>
       </c>
       <c r="E6">
-        <v>0.0004419814311999179</v>
+        <v>0.000116118498405467</v>
       </c>
       <c r="F6">
-        <v>0.0005774988500347619</v>
+        <v>0.0001534992324127705</v>
       </c>
       <c r="G6">
-        <v>0.001064304125849292</v>
+        <v>0.0005484158197902971</v>
       </c>
       <c r="H6">
-        <v>0.002183075016230288</v>
+        <v>0.001586538145183769</v>
       </c>
       <c r="I6">
-        <v>0.002854468660457758</v>
+        <v>0.002169326184737776</v>
       </c>
       <c r="J6">
-        <v>0.003251017517048297</v>
+        <v>0.002472381054642797</v>
       </c>
       <c r="K6">
-        <v>0.003614915713919562</v>
+        <v>0.002742204541071596</v>
       </c>
       <c r="L6">
-        <v>0.003697223373211894</v>
+        <v>0.002742204541071596</v>
       </c>
       <c r="M6">
-        <v>0.00370772072462164</v>
+        <v>0.002742204541071596</v>
       </c>
       <c r="N6">
-        <v>0.004006838342049877</v>
+        <v>0.002946095262411053</v>
       </c>
       <c r="O6">
-        <v>0.004473683188036023</v>
+        <v>0.003320696404291298</v>
       </c>
       <c r="P6">
-        <v>0.004953824933907845</v>
+        <v>0.003708830944361502</v>
       </c>
       <c r="Q6">
-        <v>0.005244778861406272</v>
+        <v>0.00390441277660129</v>
       </c>
       <c r="R6">
-        <v>0.005395066570114124</v>
+        <v>0.003956826504460631</v>
       </c>
       <c r="S6">
-        <v>0.005533660218922519</v>
+        <v>0.003997338182185185</v>
       </c>
       <c r="T6">
-        <v>0.005543750221835767</v>
+        <v>0.003997338182185185</v>
       </c>
       <c r="U6">
-        <v>0.005572850899585564</v>
+        <v>0.003997338182185185</v>
       </c>
       <c r="V6">
-        <v>0.005849842847204034</v>
+        <v>0.004178709707145814</v>
       </c>
       <c r="W6">
-        <v>0.006032625915632496</v>
+        <v>0.004264196756321106</v>
       </c>
       <c r="X6">
-        <v>0.006113095944940628</v>
+        <v>0.004264196756321106</v>
       </c>
       <c r="Y6">
-        <v>0.006144182904673347</v>
+        <v>0.004264196756321106</v>
       </c>
       <c r="Z6">
-        <v>0.006144512023070517</v>
+        <v>0.004264196756321106</v>
       </c>
       <c r="AA6">
-        <v>0.006157568720958258</v>
+        <v>0.004264196756321106</v>
       </c>
       <c r="AB6">
-        <v>0.006376433449076496</v>
+        <v>0.004386407212616457</v>
       </c>
       <c r="AC6">
-        <v>0.006903285244546712</v>
+        <v>0.004822082585972832</v>
       </c>
       <c r="AD6">
-        <v>0.007440053739931667</v>
+        <v>0.00526785103740232</v>
       </c>
       <c r="AE6">
-        <v>0.007689733037784966</v>
+        <v>0.005421424130542526</v>
       </c>
       <c r="AF6">
-        <v>0.007694438947044505</v>
+        <v>0.005421424130542526</v>
       </c>
       <c r="AG6">
-        <v>0.008048900643996902</v>
+        <v>0.005681643279718315</v>
       </c>
       <c r="AH6">
-        <v>0.008805529437491535</v>
+        <v>0.006351182458615393</v>
       </c>
       <c r="AI6">
-        <v>0.009197584074120715</v>
+        <v>0.006649663174483512</v>
       </c>
       <c r="AJ6">
-        <v>0.009876623168282452</v>
+        <v>0.007240232645739001</v>
       </c>
       <c r="AK6">
-        <v>0.01017237998573958</v>
+        <v>0.00744070279200932</v>
       </c>
       <c r="AL6">
-        <v>0.01022076838832355</v>
+        <v>0.00744070279200932</v>
       </c>
       <c r="AM6">
-        <v>0.01022746623626596</v>
+        <v>0.00744070279200932</v>
       </c>
       <c r="AN6">
-        <v>0.01046304528424049</v>
+        <v>0.007579924848605071</v>
       </c>
       <c r="AO6">
-        <v>0.01101406497950292</v>
+        <v>0.008040197971370339</v>
       </c>
       <c r="AP6">
-        <v>0.01148532137545113</v>
+        <v>0.00841928912692181</v>
       </c>
       <c r="AQ6">
-        <v>0.01199465827107194</v>
+        <v>0.00883713808089041</v>
       </c>
       <c r="AR6">
-        <v>0.01249332496678449</v>
+        <v>0.009244127055061727</v>
       </c>
       <c r="AS6">
-        <v>0.01276455013445254</v>
+        <v>0.009419629232278605</v>
       </c>
       <c r="AT6">
-        <v>0.01276505350494821</v>
+        <v>0.009419629232278605</v>
       </c>
       <c r="AU6">
-        <v>0.01297411606315073</v>
+        <v>0.009531863177527345</v>
       </c>
       <c r="AV6">
-        <v>0.01365079809733273</v>
+        <v>0.0101200336661976</v>
       </c>
       <c r="AW6">
-        <v>0.01415931285296061</v>
+        <v>0.01053704585761343</v>
       </c>
       <c r="AX6">
-        <v>0.01501485329560481</v>
+        <v>0.01130725592559562</v>
       </c>
       <c r="AY6">
-        <v>0.01561438759045012</v>
+        <v>0.01181690652730911</v>
       </c>
       <c r="AZ6">
-        <v>0.01577724412904991</v>
+        <v>0.01188211263393131</v>
       </c>
       <c r="BA6">
-        <v>0.01577953316353023</v>
+        <v>0.01188211263393131</v>
       </c>
       <c r="BB6">
-        <v>0.01587630885269816</v>
+        <v>0.01188211263393131</v>
       </c>
       <c r="BC6">
-        <v>0.0163490403486337</v>
+        <v>0.01226270512555886</v>
       </c>
       <c r="BD6">
-        <v>0.01715990519166202</v>
+        <v>0.01298744499491014</v>
       </c>
       <c r="BE6">
-        <v>0.01755853452823467</v>
+        <v>0.01329261734815837</v>
       </c>
       <c r="BF6">
-        <v>0.01787835317548492</v>
+        <v>0.01351757728728033</v>
       </c>
       <c r="BG6">
-        <v>0.01787836000928686</v>
+        <v>0.01351757728728033</v>
       </c>
       <c r="BH6">
-        <v>0.01799313363430006</v>
+        <v>0.01353384527890614</v>
       </c>
       <c r="BI6">
-        <v>0.01835703183117132</v>
+        <v>0.01380366876533494</v>
       </c>
       <c r="BJ6">
-        <v>0.01860720842902035</v>
+        <v>0.01395774800343524</v>
       </c>
       <c r="BK6">
-        <v>0.0188693379867666</v>
+        <v>0.01412399279645651</v>
       </c>
       <c r="BL6">
-        <v>0.01919705296394896</v>
+        <v>0.01435698950942271</v>
       </c>
       <c r="BM6">
-        <v>0.01950619169129104</v>
+        <v>0.01457107957586782</v>
       </c>
       <c r="BN6">
-        <v>0.01978658412888027</v>
+        <v>0.01475591207182251</v>
       </c>
       <c r="BO6">
-        <v>0.01978713682517552</v>
+        <v>0.01475591207182251</v>
       </c>
       <c r="BP6">
-        <v>0.01989583662424094</v>
+        <v>0.01476599820859535</v>
       </c>
       <c r="BQ6">
-        <v>0.02028906182086006</v>
+        <v>0.01506567030400195</v>
       </c>
       <c r="BR6">
-        <v>0.02084167655610877</v>
+        <v>0.01552756683609187</v>
       </c>
       <c r="BS6">
-        <v>0.02156239044991219</v>
+        <v>0.01616055233385631</v>
       </c>
       <c r="BT6">
-        <v>0.02179796949788672</v>
+        <v>0.01629977439045206</v>
       </c>
       <c r="BU6">
-        <v>0.02190666929695214</v>
+        <v>0.01630986052722489</v>
       </c>
       <c r="BV6">
-        <v>0.02192474489779673</v>
+        <v>0.01630986052722489</v>
       </c>
       <c r="BW6">
-        <v>0.02214609100589363</v>
+        <v>0.01643459649725657</v>
       </c>
       <c r="BX6">
-        <v>0.02234417512419054</v>
+        <v>0.01653565674036236</v>
       </c>
       <c r="BY6">
-        <v>0.0227322068908543</v>
+        <v>0.0168300430356079</v>
       </c>
       <c r="BZ6">
-        <v>0.02327549198618323</v>
+        <v>0.01728244399105296</v>
       </c>
       <c r="CA6">
-        <v>0.02337235452535042</v>
+        <v>0.01728244399105296</v>
       </c>
       <c r="CB6">
-        <v>0.02337733990330756</v>
+        <v>0.01728244399105296</v>
       </c>
       <c r="CC6">
-        <v>0.02378050089984125</v>
+        <v>0.01759222860424459</v>
       </c>
       <c r="CD6">
-        <v>0.02442496469430026</v>
+        <v>0.01814760782044535</v>
       </c>
       <c r="CE6">
-        <v>0.02457029959305069</v>
+        <v>0.01819498064780238</v>
       </c>
       <c r="CF6">
-        <v>0.02460235428277509</v>
+        <v>0.01819498064780238</v>
       </c>
       <c r="CG6">
-        <v>0.02460318818509792</v>
+        <v>0.01819498064780238</v>
       </c>
       <c r="CH6">
-        <v>0.02466552622456195</v>
+        <v>0.01819498064780238</v>
       </c>
       <c r="CI6">
-        <v>0.02484193996304517</v>
+        <v>0.01827398508230107</v>
       </c>
       <c r="CJ6">
-        <v>0.02494353675217166</v>
+        <v>0.01827684187519095</v>
       </c>
       <c r="CK6">
-        <v>0.0252262077297413</v>
+        <v>0.01846399343717696</v>
       </c>
       <c r="CL6">
-        <v>0.02585547312433098</v>
+        <v>0.01900390393517646</v>
       </c>
       <c r="CM6">
-        <v>0.02628139144066901</v>
+        <v>0.01933685062925133</v>
       </c>
       <c r="CN6">
-        <v>0.03909866733046823</v>
+        <v>0.03228154724982371</v>
       </c>
       <c r="CO6">
-        <v>0.124324366597712</v>
+        <v>0.1189225215215308</v>
       </c>
       <c r="CP6">
-        <v>0.2114929398482512</v>
+        <v>0.2075409256810251</v>
       </c>
       <c r="CQ6">
-        <v>0.2323656536687911</v>
+        <v>0.2286843340350486</v>
       </c>
       <c r="CR6">
-        <v>0.2488156195273571</v>
+        <v>0.2453263315506176</v>
       </c>
       <c r="CS6">
-        <v>0.2514641475045855</v>
+        <v>0.2479214191813241</v>
       </c>
       <c r="CT6">
-        <v>0.2559679154658629</v>
+        <v>0.2524047440446141</v>
       </c>
       <c r="CU6">
-        <v>0.2666575548739551</v>
+        <v>0.2631839620981528</v>
       </c>
       <c r="CV6">
-        <v>0.2701466448439566</v>
+        <v>0.2666345619346627</v>
       </c>
       <c r="CW6">
-        <v>0.2747496824043804</v>
+        <v>0.2712189220035238</v>
       </c>
       <c r="CX6">
-        <v>0.2779018828772784</v>
+        <v>0.2743266404353818</v>
       </c>
       <c r="CY6">
-        <v>0.2995188276914195</v>
+        <v>0.2962275166554726</v>
       </c>
       <c r="CZ6">
-        <v>0.3505867052523464</v>
+        <v>0.3481031391212899</v>
       </c>
       <c r="DA6">
-        <v>0.3513076563161478</v>
+        <v>0.3487363660073515</v>
       </c>
       <c r="DB6">
-        <v>0.3929415359581867</v>
+        <v>0.3910101977206418</v>
       </c>
       <c r="DC6">
-        <v>0.3935668333528105</v>
+        <v>0.3915460696439346</v>
       </c>
       <c r="DD6">
-        <v>0.3991542067047712</v>
+        <v>0.3971322728742868</v>
       </c>
       <c r="DE6">
-        <v>0.4031927886700482</v>
+        <v>0.4011421379559438</v>
       </c>
       <c r="DF6">
-        <v>0.403197926804404</v>
+        <v>0.4011421379559438</v>
       </c>
       <c r="DG6">
-        <v>0.406105986779401</v>
+        <v>0.4040013736135616</v>
       </c>
       <c r="DH6">
-        <v>0.4117942861304939</v>
+        <v>0.4096902979101563</v>
       </c>
       <c r="DI6">
-        <v>0.4152301051009533</v>
+        <v>0.413086679270557</v>
       </c>
       <c r="DJ6">
-        <v>0.4208751470524182</v>
+        <v>0.4187315767925754</v>
       </c>
       <c r="DK6">
-        <v>0.4269780446999465</v>
+        <v>0.424842473419772</v>
       </c>
       <c r="DL6">
-        <v>0.4292024490808214</v>
+        <v>0.42700589400323</v>
       </c>
       <c r="DM6">
-        <v>0.441556084974607</v>
+        <v>0.4394787043392704</v>
       </c>
       <c r="DN6">
-        <v>0.4567229158442051</v>
+        <v>0.454814745061416</v>
       </c>
       <c r="DO6">
-        <v>0.459817424817599</v>
+        <v>0.4578637458943092</v>
       </c>
       <c r="DP6">
-        <v>0.4601718865145514</v>
+        <v>0.458123965043485</v>
       </c>
       <c r="DQ6">
-        <v>0.4601873335084186</v>
+        <v>0.458123965043485</v>
       </c>
       <c r="DR6">
-        <v>0.4612375417993891</v>
+        <v>0.459092305316916</v>
       </c>
       <c r="DS6">
-        <v>0.4616340906559796</v>
+        <v>0.459395360186821</v>
       </c>
       <c r="DT6">
-        <v>0.468021355101063</v>
+        <v>0.4657956813517974</v>
       </c>
       <c r="DU6">
-        <v>0.5039007287925781</v>
+        <v>0.5022126576262631</v>
       </c>
       <c r="DV6">
-        <v>0.5244789226156502</v>
+        <v>0.5230563076580531</v>
       </c>
       <c r="DW6">
-        <v>0.5267689178959613</v>
+        <v>0.5252864857389231</v>
       </c>
       <c r="DX6">
-        <v>0.5443314557449614</v>
+        <v>0.5430608434204707</v>
       </c>
       <c r="DY6">
-        <v>0.54485851010043</v>
+        <v>0.543496724956552</v>
       </c>
       <c r="DZ6">
-        <v>0.5456715612934395</v>
+        <v>0.5442236900622466</v>
       </c>
       <c r="EA6">
-        <v>0.5541437892205967</v>
+        <v>0.552746057813798</v>
       </c>
       <c r="EB6">
-        <v>0.55418178442027</v>
+        <v>0.552746057813798</v>
       </c>
       <c r="EC6">
-        <v>0.5559466401050961</v>
+        <v>0.5544417561804402</v>
       </c>
       <c r="ED6">
-        <v>0.5649962990272887</v>
+        <v>0.563551825099198</v>
       </c>
       <c r="EE6">
-        <v>0.5659840991187957</v>
+        <v>0.5644566471826059</v>
       </c>
       <c r="EF6">
-        <v>0.5695430535881963</v>
+        <v>0.5679783541266253</v>
       </c>
       <c r="EG6">
-        <v>0.5696696615871077</v>
+        <v>0.5680066669780057</v>
       </c>
       <c r="EH6">
-        <v>0.5925216813906299</v>
+        <v>0.5911645851980712</v>
       </c>
       <c r="EI6">
-        <v>0.6242541141177997</v>
+        <v>0.6233608631275643</v>
       </c>
       <c r="EJ6">
-        <v>0.6394533219871195</v>
+        <v>0.6387298567058791</v>
       </c>
       <c r="EK6">
-        <v>0.6452145899375851</v>
+        <v>0.6444930474193953</v>
       </c>
       <c r="EL6">
-        <v>0.6458163430024113</v>
+        <v>0.6450049562540729</v>
       </c>
       <c r="EM6">
-        <v>0.6490085567749652</v>
+        <v>0.6481533996610601</v>
       </c>
       <c r="EN6">
-        <v>0.6732122535668659</v>
+        <v>0.6726870357601207</v>
       </c>
       <c r="EO6">
-        <v>0.7563719028518732</v>
+        <v>0.7572252133400903</v>
       </c>
       <c r="EP6">
-        <v>0.7863880545937993</v>
+        <v>0.7876746845568262</v>
       </c>
       <c r="EQ6">
-        <v>0.7923039085429359</v>
+        <v>0.7935952107314344</v>
       </c>
       <c r="ER6">
-        <v>0.7968509005038416</v>
+        <v>0.7981225283752493</v>
       </c>
       <c r="ES6">
-        <v>0.796938421553089</v>
+        <v>0.7981225283752493</v>
       </c>
       <c r="ET6">
-        <v>0.7969500777839889</v>
+        <v>0.7981225283752493</v>
       </c>
       <c r="EU6">
-        <v>0.7977067065774834</v>
+        <v>0.7987920675541464</v>
       </c>
       <c r="EV6">
-        <v>0.8042908185208744</v>
+        <v>0.805392737341749</v>
       </c>
       <c r="EW6">
-        <v>0.8107907224649893</v>
+        <v>0.8119077014088618</v>
       </c>
       <c r="EX6">
-        <v>0.8118791258556314</v>
+        <v>0.8129149161189815</v>
       </c>
       <c r="EY6">
-        <v>0.8218421027699714</v>
+        <v>0.8229545472791683</v>
       </c>
       <c r="EZ6">
-        <v>0.8461748775607623</v>
+        <v>0.847619557154941</v>
       </c>
       <c r="FA6">
-        <v>0.8507487855214366</v>
+        <v>0.8521742695257736</v>
       </c>
       <c r="FB6">
-        <v>0.856716298170129</v>
+        <v>0.8581473732001805</v>
       </c>
       <c r="FC6">
-        <v>0.8571029935668042</v>
+        <v>0.8584403993567968</v>
       </c>
       <c r="FD6">
-        <v>0.8733763614268885</v>
+        <v>0.8749026579066258</v>
       </c>
       <c r="FE6">
-        <v>0.874119972960495</v>
+        <v>0.875558948301</v>
       </c>
       <c r="FF6">
-        <v>0.8741255831957468</v>
+        <v>0.875558948301</v>
       </c>
       <c r="FG6">
-        <v>0.8751358383870609</v>
+        <v>0.8764866248700171</v>
       </c>
       <c r="FH6">
-        <v>0.8754425940844235</v>
+        <v>0.8766982895219755</v>
       </c>
       <c r="FI6">
-        <v>0.8756298750628133</v>
+        <v>0.8767883544808179</v>
       </c>
       <c r="FJ6">
-        <v>0.8756827721523585</v>
+        <v>0.8767883544808179</v>
       </c>
       <c r="FK6">
-        <v>0.8877652480484753</v>
+        <v>0.8889851819747532</v>
       </c>
       <c r="FL6">
-        <v>0.8902686058269519</v>
+        <v>0.8914325174134513</v>
       </c>
       <c r="FM6">
-        <v>0.8929851215035958</v>
+        <v>0.8940968019709693</v>
       </c>
       <c r="FN6">
-        <v>0.8948516059875481</v>
+        <v>0.8958959367038297</v>
       </c>
       <c r="FO6">
-        <v>0.89827549535811</v>
+        <v>0.8992801762847896</v>
       </c>
       <c r="FP6">
-        <v>0.9074599832791433</v>
+        <v>0.9085274722673408</v>
       </c>
       <c r="FQ6">
-        <v>0.9103344419544293</v>
+        <v>0.9113525089934331</v>
       </c>
       <c r="FR6">
-        <v>0.9113289328458788</v>
+        <v>0.9122641408791716</v>
       </c>
       <c r="FS6">
-        <v>0.9135661650266435</v>
+        <v>0.9144406174174237</v>
       </c>
       <c r="FT6">
-        <v>0.9145711110180031</v>
+        <v>0.9153628903571985</v>
       </c>
       <c r="FU6">
-        <v>0.9189048785807421</v>
+        <v>0.919673191199427</v>
       </c>
       <c r="FV6">
-        <v>0.9221828385525588</v>
+        <v>0.9229089058852744</v>
       </c>
       <c r="FW6">
-        <v>0.927169771909682</v>
+        <v>0.9278839897111655</v>
       </c>
       <c r="FX6">
-        <v>0.9389334508085398</v>
+        <v>0.9397563500930096</v>
       </c>
       <c r="FY6">
-        <v>0.9414651987867723</v>
+        <v>0.9422325806787941</v>
       </c>
       <c r="FZ6">
-        <v>0.9414659640962657</v>
+        <v>0.9422325806787941</v>
       </c>
       <c r="GA6">
-        <v>0.9416249761748986</v>
+        <v>0.9422938739479877</v>
       </c>
       <c r="GB6">
-        <v>0.9416958052642896</v>
+        <v>0.9422938739479877</v>
       </c>
       <c r="GC6">
-        <v>0.9425348756570755</v>
+        <v>0.943047321030247</v>
       </c>
       <c r="GD6">
-        <v>0.9508619055854811</v>
+        <v>0.9514219082953403</v>
       </c>
       <c r="GE6">
-        <v>0.962816328482699</v>
+        <v>0.9634884052431769</v>
       </c>
       <c r="GF6">
-        <v>0.976459771365395</v>
+        <v>0.9772739630405953</v>
       </c>
       <c r="GG6">
-        <v>0.9819299997183628</v>
+        <v>0.9827409377341485</v>
       </c>
       <c r="GH6">
-        <v>0.9826966223117716</v>
+        <v>0.9834206484624165</v>
       </c>
       <c r="GI6">
-        <v>0.9827886463209804</v>
+        <v>0.9834206484624165</v>
       </c>
       <c r="GJ6">
-        <v>0.9828212660176999</v>
+        <v>0.9834206484624165</v>
       </c>
       <c r="GK6">
-        <v>0.9840761258069108</v>
+        <v>0.9845972801601399</v>
       </c>
       <c r="GL6">
-        <v>0.9848728738300605</v>
+        <v>0.9853076521282333</v>
       </c>
       <c r="GM6">
-        <v>0.9872797915093662</v>
+        <v>0.9876568321867467</v>
       </c>
       <c r="GN6">
-        <v>0.9883297137003392</v>
+        <v>0.9886248812716134</v>
       </c>
       <c r="GO6">
-        <v>0.989291369592071</v>
+        <v>0.989503094155211</v>
       </c>
       <c r="GP6">
-        <v>0.9907185337798005</v>
+        <v>0.9908550948528578</v>
       </c>
       <c r="GQ6">
-        <v>0.991756754970874</v>
+        <v>0.9918112348241551</v>
       </c>
       <c r="GR6">
-        <v>0.9944480974477343</v>
+        <v>0.9944498984520341</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>124</v>
       </c>
       <c r="E2">
-        <v>0.001048487683236386</v>
+        <v>0.001073209069802032</v>
       </c>
       <c r="F2">
-        <v>0.5109377030578858</v>
+        <v>0.5109347198227352</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.02303314456298656</v>
+        <v>0.01960851381302087</v>
       </c>
       <c r="F3">
-        <v>0.515620844112838</v>
+        <v>0.5157993286025444</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>123</v>
       </c>
       <c r="E4">
-        <v>0.007764583867857662</v>
+        <v>0.007674643177248757</v>
       </c>
       <c r="F4">
-        <v>0.5169781115143512</v>
+        <v>0.5169400958110512</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5">
-        <v>0.02721509362612558</v>
+        <v>0.03780017807210955</v>
       </c>
       <c r="F5">
-        <v>0.5002050181337823</v>
+        <v>0.5012833720594045</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>124</v>
       </c>
       <c r="E6">
-        <v>0.0252262077297413</v>
+        <v>0.01933685062925133</v>
       </c>
       <c r="F6">
-        <v>0.5039007287925781</v>
+        <v>0.5022126576262631</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>144</v>
       </c>
       <c r="E2">
-        <v>0.001048487683236386</v>
+        <v>0.001073209069802032</v>
       </c>
       <c r="F2">
-        <v>0.7434574085404452</v>
+        <v>0.7434582273518309</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>144</v>
       </c>
       <c r="E3">
-        <v>0.02303314456298656</v>
+        <v>0.01960851381302087</v>
       </c>
       <c r="F3">
-        <v>0.7556155526867786</v>
+        <v>0.7561914044171</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>143</v>
       </c>
       <c r="E4">
-        <v>0.007764583867857662</v>
+        <v>0.007674643177248757</v>
       </c>
       <c r="F4">
-        <v>0.7223827221441333</v>
+        <v>0.7223896007240307</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.02721509362612558</v>
+        <v>0.03780017807210955</v>
       </c>
       <c r="F5">
-        <v>0.7227465486077422</v>
+        <v>0.7227733080570446</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>144</v>
       </c>
       <c r="E6">
-        <v>0.0252262077297413</v>
+        <v>0.01933685062925133</v>
       </c>
       <c r="F6">
-        <v>0.7563719028518732</v>
+        <v>0.7572252133400903</v>
       </c>
       <c r="G6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.001048487683236386</v>
+        <v>0.001073209069802032</v>
       </c>
       <c r="F2">
-        <v>0.8086589415329837</v>
+        <v>0.8086601776120893</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>154</v>
       </c>
       <c r="E3">
-        <v>0.02303314456298656</v>
+        <v>0.01960851381302087</v>
       </c>
       <c r="F3">
-        <v>0.8106102535200344</v>
+        <v>0.8111590581987572</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.007764583867857662</v>
+        <v>0.007674643177248757</v>
       </c>
       <c r="F4">
-        <v>0.8003088312524178</v>
+        <v>0.8003295578418416</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.02721509362612558</v>
+        <v>0.03780017807210955</v>
       </c>
       <c r="F5">
-        <v>0.8008444887258896</v>
+        <v>0.8009481334171357</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>151</v>
       </c>
       <c r="E6">
-        <v>0.0252262077297413</v>
+        <v>0.01933685062925133</v>
       </c>
       <c r="F6">
-        <v>0.8042908185208744</v>
+        <v>0.805392737341749</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>166</v>
       </c>
       <c r="E2">
-        <v>0.001048487683236386</v>
+        <v>0.001073209069802032</v>
       </c>
       <c r="F2">
-        <v>0.9041781493571828</v>
+        <v>0.9041803882381357</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
-        <v>0.02303314456298656</v>
+        <v>0.01960851381302087</v>
       </c>
       <c r="F3">
-        <v>0.900622183899395</v>
+        <v>0.9016068367858949</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.007764583867857662</v>
+        <v>0.007674643177248757</v>
       </c>
       <c r="F4">
-        <v>0.9017625713552833</v>
+        <v>0.901787164411735</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>172</v>
       </c>
       <c r="E5">
-        <v>0.02721509362612558</v>
+        <v>0.03780017807210955</v>
       </c>
       <c r="F5">
-        <v>0.9055584829300617</v>
+        <v>0.905716786404373</v>
       </c>
       <c r="G5">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>171</v>
       </c>
       <c r="E6">
-        <v>0.0252262077297413</v>
+        <v>0.01933685062925133</v>
       </c>
       <c r="F6">
-        <v>0.9074599832791433</v>
+        <v>0.9085274722673408</v>
       </c>
       <c r="G6">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>50</v>

--- a/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
@@ -1994,19 +1994,19 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.127588171141205E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.176939321866316E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.997781129519149E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.969951804885211E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.631625033354368E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2015,583 +2015,583 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.241911574886509E-07</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.2231194483416E-07</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.369496582109756E-07</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.394841598569952E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>5.241476608019728E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.577298243120663E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.452895335338917E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.718377729526605E-07</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.735185746655096E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.724506409494953E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2.364088115796404E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>6.111557724635066E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>3.019431038888072E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>6.536434968390436E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>2.482483277114685E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>9.763783273118647E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>9.147568114024435E-07</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.009761864830649E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.104120599527301E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.916234436139965E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.058015854802377E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.496067988912492E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.043711776416558E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.229659019784021E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.678538374905888E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.462861624181035E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.621693111682017E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.172685680500781E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.715130519676859E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.471593425332207E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.840996585603117E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.818481384982659E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>4.840238279365343E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.983340062902541E-07</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.2231194483416E-07</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1.916234436139965E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>2.086326965746883E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>2.811236375008409E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.357528573775197E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1.133607184104934E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>5.668382180559946E-06</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>3.464380504374828E-06</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>3.12967330391982E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>2.818481384982659E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>4.245395139673142E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>3.29499309520365E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1.788688939627465E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>8.238194758644846E-07</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.2231194483416E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>3.324848890481715E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>4.113732153827923E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>9.752244168693322E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>6.683256223551297E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.324319511313034E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>2.712931655949581E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>2.760241727085953E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.063395949249024E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1.314088784807007E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>5.007455625643947E-07</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>2.51593521661589E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>3.646029768918033E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>4.640832100192781E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>1.010567288173358E-08</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>2.975855845995617E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>3.472384536346987E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>5.251253091360919E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>8.672991659890867E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1.999669984261773E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>2.955843195990733E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.566998444612797E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.094617054096373E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>1.359157390981436E-07</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>3.464380504374828E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>6.886340479321557E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>2.509070017649289E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>9.104226857911915E-07</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>3.875435617538409E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>5.718377729526605E-07</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>3.663120894251543E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01377848258208526</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.08210689187010757</v>
+        <v>0.2240361760183452</v>
       </c>
       <c r="CP2">
-        <v>0.0934110394859318</v>
+        <v>0.2726395968995582</v>
       </c>
       <c r="CQ2">
-        <v>0.03068272549938502</v>
+        <v>0.002932339928753729</v>
       </c>
       <c r="CR2">
-        <v>0.02325037409562229</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01280077024611127</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.001562397236560985</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.01083534428430678</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.00545976988987666</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.007240598701702584</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.005026929345329599</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.01954274164134058</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.07746213725623284</v>
+        <v>0.2040655447898491</v>
       </c>
       <c r="DA2">
-        <v>3.670308372558414E-08</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.04211932295385895</v>
+        <v>0.05210524339921818</v>
       </c>
       <c r="DC2">
-        <v>0.0001126242553663854</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.002702915590964856</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.005598374206894935</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0002388603179289845</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.0001980704457604527</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.008578643880811728</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0005888335808236877</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.005962092048133813</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.006418556277340452</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>2.079520298476643E-05</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.003562214795099743</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.00966058423751316</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.002973305427379606</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0005600092454393035</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>3.941702068066922E-05</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.002683972341953258</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0008507140606210036</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0025185962490377</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.03131336977666268</v>
+        <v>0.005643864076929804</v>
       </c>
       <c r="DV2">
-        <v>0.02091952854325897</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.004194554821523458</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.02011366318773924</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>2.658119337383726E-06</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>4.549661387891116E-05</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.005446448803806101</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0001968026190164081</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.001977854277300849</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.008534534602440455</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001018903985086784</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.01095100863648099</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0003884974446991936</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.01746198033689721</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.02121189201651175</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.01678532172603613</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.00790766243448574</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0002563673453161314</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0002061339994576655</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.01565913908710872</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.07924505892871389</v>
+        <v>0.2117314118141372</v>
       </c>
       <c r="EP2">
-        <v>0.02930815866180835</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.005138086166866944</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.004290510302496871</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0002251195996966823</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0005305220308434117</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.001932467761912803</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.005110408364711287</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.00383114188912142</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>8.772080761682608E-05</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01474781467518378</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.03624450569041537</v>
+        <v>0.0268458230732085</v>
       </c>
       <c r="FA2">
-        <v>0.008031124512652964</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.009335761823538175</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0003543144940118863</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01959262008691335</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0009471383751821119</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0003157990577608587</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0050330291221128</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.000882578264106581</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>8.133255017290378E-06</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.000404665203271768</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.01437054074106339</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.003464451661737104</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.001801280959868302</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0001069505549316923</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.001048737049706071</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.007368718414856981</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.001324824751255854</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0009388285643478962</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002449457645268691</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0005134439758887065</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001715728580396672</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.001852866054903045</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.005515761712626803</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.01002789488287838</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.002588482674480011</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0001088694705455379</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0005114019367065043</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0002637093481014183</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>2.439698837139762E-05</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.00537788211661233</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.01243938777255582</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.01374624664782621</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.005982678844778566</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.00127496180613231</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0005628591680355126</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0002886211700936792</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0007587515453713754</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0005257814534524094</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.001146472682271684</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.001254794621648721</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.001629658585923569</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.001876234932177816</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001541078518703756</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.002297349336878912</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.003491047332530525</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.001131545164578622</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.00112564372267775</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0005252684941818115</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0004518306407991275</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.38921459528001E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.000164707832045681</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0003133935150428869</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.643247752738256E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2806,22 +2806,22 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.945171804773851E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0004713706046907604</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0007240138865390318</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001827698894726436</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002064131194923602</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0001068436547003464</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2830,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0003256137188459268</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0005613724431827712</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0009760111740793838</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0005699337065328601</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>8.05744790355172E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.107314961622969E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.652305731856382E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.914360274650604E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>9.299327001585541E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.299327001585541E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0001224797782012123</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -2890,34 +2890,34 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001602276281378953</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0006853654635554407</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0005252684941818115</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0002682682161296186</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0005510775529750226</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>3.968402945124485E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>7.714353092772818E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0002805409663260818</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0005139661599889444</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>3.340626606176876E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -2938,52 +2938,52 @@
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>3.380810806369518E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001322286850121161</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0001742049889947655</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0001677082907186362</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001298657340155716</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0001096296238650575</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0004567072209140228</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0003408805627417137</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0001074108041602986</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0003905538979960391</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001122698558450326</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0007967124936985308</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0007216195754184368</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0003141983912164041</v>
+        <v>0</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0001742049889947655</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0003860495273947197</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0001677082907186362</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
@@ -3007,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>4.312231748497544E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0002340831955440531</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0004959745011909713</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.000575285467290301</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0006545404014154092</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>9.77720417026156E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
         <v>0</v>
@@ -3031,340 +3031,340 @@
         <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0002382730859323197</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>5.03361664329694E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.03366156177462463</v>
+        <v>0.01722044513531769</v>
       </c>
       <c r="CO3">
-        <v>0.05845082045136647</v>
+        <v>0.142347560108356</v>
       </c>
       <c r="CP3">
-        <v>0.07208930202959692</v>
+        <v>0.2111896289556203</v>
       </c>
       <c r="CQ3">
-        <v>0.0155828998489904</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.03296024271177642</v>
+        <v>0.01368044290474973</v>
       </c>
       <c r="CS3">
-        <v>0.01665346315595302</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0002651761523520357</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.02252291651791729</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01172921241949858</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.005452177971050267</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01488959358072477</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.03207202579621947</v>
+        <v>0.009197048642614438</v>
       </c>
       <c r="CZ3">
-        <v>0.08371019810114699</v>
+        <v>0.2698476637841831</v>
       </c>
       <c r="DA3">
-        <v>0.002286618449133993</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.05679546256310686</v>
+        <v>0.1339919186788636</v>
       </c>
       <c r="DC3">
-        <v>0.01287273752022879</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.007145882400686957</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.01705052334514974</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.00191176929006488</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0001276969450241818</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.01130552138269092</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>6.371340120459722E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.004846931416068462</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.001899802331387306</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0004779653235608128</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0009654417817548669</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.001763886098901862</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002219380888318873</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.004726669179525717</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.003135753517312455</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001405717313031334</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>8.174513913018248E-05</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.002348583993218455</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.01440169410436255</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.009797186302809485</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.0009801105201919613</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.009826843038678517</v>
+        <v>0</v>
       </c>
       <c r="DY3">
         <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.002286618449133993</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.002974915180057764</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.003299984486543988</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.004161154709546073</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.009709556780918076</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>4.779790587697839E-05</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.004294671650066477</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.0001122367574769929</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.01060345771895916</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0223517128716196</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01034281811063468</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.007969950889297873</v>
+        <v>0</v>
       </c>
       <c r="EL3">
         <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0016135881579807</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0245988546884114</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.06373834549079441</v>
+        <v>0.1690370534150706</v>
       </c>
       <c r="EP3">
-        <v>0.02386061978881458</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.005926911549971687</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.003534604284726129</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.000433924050378894</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0008700242599845175</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.0001522656523130308</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.003616392983513155</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0003084511433275353</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.0004431828643233159</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01582127720430425</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.03688441666751252</v>
+        <v>0.03348823837522449</v>
       </c>
       <c r="FA3">
-        <v>0.01410808494294091</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.01725470462705079</v>
+        <v>0</v>
       </c>
       <c r="FC3">
         <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01421514480973363</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.001316460883673485</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.001439773458055564</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.002637468424610406</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002591724773560418</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0001424184925361508</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001693898364321357</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.008365940146423277</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.001384538722039273</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.001585692802274988</v>
+        <v>0</v>
       </c>
       <c r="FN3">
         <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001685544184883208</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.006013328291808003</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>3.798687490280598E-05</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0004396448785756261</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.004581695589562849</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0002280233870373537</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.002849758177761175</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.002741505636147527</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.003199850721375457</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.007138617945147026</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0006656700124508131</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0007755864794092907</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.002436184923244186</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0002900775861116806</v>
+        <v>0</v>
       </c>
       <c r="GC3">
         <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.002602019663768167</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.009592747391023351</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.008628469040571667</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.006759904438833059</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.003920819367105626</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.001975625332349182</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0007706462596612145</v>
+        <v>0</v>
       </c>
       <c r="GL3">
         <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.001056485152201888</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.001335089443959904</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.00293034409859453</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.003649337884966411</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.001950651701602918</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.002983629738241041</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.003981430485213866</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,52 +3540,52 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.534589524589052E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.57303549422164E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001202262117044918</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.055364506389843E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9.765472871350956E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00011945396357335</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001442473794442545</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.491383448580926E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.99028358158769E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.003016903935564E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4.690047981462515E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001113164105215354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001158292424784343</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.966114599126812E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -3594,550 +3594,550 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4.547402393667499E-06</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>5.281964353807215E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002077546262812288</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0004646851640816244</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0001434026595811492</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>5.230220097430611E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3.236258035209232E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>3.512829132687116E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>6.307554811640514E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0002337631541925554</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0002043218132138139</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0001921186600268842</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>4.384612845779625E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>6.981168025190201E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>9.786432318507254E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>3.233215973233344E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>3.113995902370614E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1.534589524589052E-06</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.29631962740567E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>7.629337828266914E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>3.398155692580188E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>3.512829132687116E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>3.302224418786545E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.460161118865367E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>8.849217656278994E-07</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.000192511842182861</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.000383484059936585</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0001934884197802676</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0001040408448934789</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0002037228709651684</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>5.055364506389843E-06</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>6.065058633967646E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>5.140938605263635E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0002395243267390955</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0003524669790154217</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>7.202438239011645E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>3.343857447932223E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>7.003014320655666E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1.896071900722924E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0001348170303378411</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0002558042749628614</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0003931524532713721</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0002457987139982245</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0003179044957292845</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0001741111053654997</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.147559342272233E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>2.886323815469995E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>4.739170089723765E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0001550970500047894</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0004198979238552403</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001173530586858945</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>6.120612458374947E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>7.571564532057281E-06</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>7.408850017022764E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>7.863231969512538E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>4.366352120266629E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>1.712185715609675E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>3.761982825372742E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001485075547746978</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>3.907628466750143E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>8.835912130414907E-06</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>6.35497984683327E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>3.084309704180414E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>1.20679762993273E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>2.523429220992118E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>7.623150819266614E-07</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>8.922467759054429E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0009994427792944563</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1453558612666184</v>
+        <v>0.4796893449056989</v>
       </c>
       <c r="CO4">
-        <v>0.0407569953419707</v>
+        <v>0.0446902304043866</v>
       </c>
       <c r="CP4">
-        <v>0.04847565598049583</v>
+        <v>0.07679010561061844</v>
       </c>
       <c r="CQ4">
-        <v>0.01570703714324474</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01792335256354551</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.0002751619707875712</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01793517273904452</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.002144962948708786</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.0006949922347177119</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.009123021312324415</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.005121077049122187</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.06846059244438574</v>
+        <v>0.1599021889808128</v>
       </c>
       <c r="CZ4">
-        <v>0.01112495486488656</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.03227699935049615</v>
+        <v>0.009424162128622612</v>
       </c>
       <c r="DB4">
-        <v>0.009743461974114114</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.006912639890242429</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.001304267047507206</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.001163444387886716</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.001701807111607034</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.001527818430145204</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.005431135809272806</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.004799457727145177</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.009967331996269374</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.0009354589037641905</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.002965840372330994</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.009408316229552733</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.008753436488509719</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002599667342380392</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.001893694229952704</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.00148079924265407</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.001609996311975259</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0001901747688883658</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0205014243799606</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.03497990282482406</v>
+        <v>0.02066482528038349</v>
       </c>
       <c r="DV4">
-        <v>0.0007179387819316802</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0160593804177958</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.002262025004678276</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0004869897001891196</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.006465273209410221</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0009658128243186142</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0001869566598297399</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.002426524831416833</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.004507016480875427</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.004485469246354686</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.003314389985816263</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.006852715252061313</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.02661009407916291</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.01718804960895917</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.01423590100190834</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0008214435417987354</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0002225225724704053</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.002997655302592865</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.05966344358658507</v>
+        <v>0.1233171655252402</v>
       </c>
       <c r="EO4">
-        <v>0.05057530131645305</v>
+        <v>0.0855219771642371</v>
       </c>
       <c r="EP4">
-        <v>0.00845519390210593</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.003786238085910732</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.002714998140313399</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>2.090076476203501E-05</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.001142067527964999</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.002367189851419308</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.00821649838856516</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.000661569140316388</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.004794616507402711</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.02714865388917805</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.01396202708539917</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.004094523069407966</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0007610794812152136</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.01529802555630451</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.008502393568620342</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>5.360176869389861E-06</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.002098794733818537</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.001750435503693188</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0001044712233359604</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.0003653991614099589</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.00393945087058434</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0109243560320908</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.000250221200397052</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0003964018360232776</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0003292582169899181</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.006732138457152924</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.008773066083386237</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0001592770502303244</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.004073985777093423</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0001210009109088434</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.00278317119008607</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.001843103778773138</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.003559992223486743</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0109073165713122</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.007713338378457732</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0004213351131328415</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.001014087591569082</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>9.786432318507254E-06</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>1.712185715609675E-05</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.003380457113504684</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.01095655112880968</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.01576256345560582</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.007892830669691474</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.003290284231039815</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0007483948572148559</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0002446991825651151</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0006307240346951214</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.001109821508949635</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.002169635751769013</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001945565041741972</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.001036490600793324</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.001562449193327898</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.001095109567282204</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.001074371687139685</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001743410627830391</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.002172893978393234</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4322,178 +4322,178 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.428477751141392E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002606450851874548</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0004813526012263158</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0003476644831048771</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>7.175521749041091E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0003855949446273758</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001093773836947877</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0008228631338142711</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0006426560143696996</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.000254263291560856</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.318738085343563E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001099451429267585</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0005621995531745254</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0004102792119647689</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002427221092710671</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0002935538909919158</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0001316251730859593</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>9.434372741562992E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0006165179483138244</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.000511080068875847</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0004133968591641409</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0004998450444958918</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>7.380562593922075E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001398853483979243</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0003107021140767843</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0005993458937784983</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0003245886681621463</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>7.901588211124733E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>4.054034637003531E-06</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0002365518799477093</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0004968020210302756</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0002520622524976414</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0001605511878529958</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0001879784390899337</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>6.553645264989652E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.704067062558573E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0001877422208703525</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.000476377685642593</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0005168770591695648</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0005806281149171805</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.000239495445221938</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>3.114906983772348E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>4.108806551866687E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0003403413772754219</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0006081091373687238</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0002029310794706148</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0004180433500787641</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001578879731140103</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>5.695226188836935E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0004436913869496426</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0008120543373329659</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0004494631114926438</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>2.798579383598552E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -4502,415 +4502,415 @@
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001400919678757967</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0003097893273979604</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0002129680117810625</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.000441172835935383</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0002153423504238247</v>
+        <v>0</v>
       </c>
       <c r="BR5">
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0001191368812118474</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001798424260360551</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0002243587831150178</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>6.864392534449414E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0003610042979796166</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0005525603332687667</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0002900232656186643</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
         <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0002129680117810625</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001089307746903594</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001121513203957263</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0007242462849045908</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0006165179483138244</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>8.240505338273023E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>7.706578541293019E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0002900232656186643</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0006268301659732859</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0007409266452630111</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0002427221092710671</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0002700208451987827</v>
+        <v>0</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0003224214505008436</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.01147015226052752</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.04619866884570369</v>
+        <v>0.0887935115695257</v>
       </c>
       <c r="CQ5">
-        <v>0.09050454787819508</v>
+        <v>0.3327784499258571</v>
       </c>
       <c r="CR5">
-        <v>0.02840004676177279</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.02995926855530697</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.01038873149002654</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0009800618103079988</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.025314817757276</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.004547982099616209</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.004578648040958294</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.01929030030114097</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.03271223438224869</v>
+        <v>0.01452601134004792</v>
       </c>
       <c r="DA5">
-        <v>0.05863839110041515</v>
+        <v>0.1572969457359009</v>
       </c>
       <c r="DB5">
-        <v>0.002544638157641312</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.05357247267578283</v>
+        <v>0.1293997948037255</v>
       </c>
       <c r="DD5">
-        <v>0.0009737190938409045</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.003947009689283843</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.01249340513447515</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.001294331941865486</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0001848803003800985</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.002696220625854388</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0004918812076535258</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.006629115767492116</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.001721324131981979</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0002844706780830686</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.001637286774693985</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.005082599366734891</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.005821517760943628</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.008132972367419635</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.003104234415725434</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.001357414874474266</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0004106209866593562</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.003234582921159865</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0212131412825081</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0154752531865264</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.0001898987565052507</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.00609815586573321</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.000116808550508163</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0009869491596706497</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.004065800843952837</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0002722942612596831</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0005806281149171805</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.004117781690752521</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0002598051870399754</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.005583039264695548</v>
+        <v>0</v>
       </c>
       <c r="EH5">
         <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.01270761336462703</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.02730696452836169</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.01861870876349623</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.009645597958168488</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.0002722942612596831</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0001086292677247921</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.01690067783505931</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.07332468994705427</v>
+        <v>0.2381718949983265</v>
       </c>
       <c r="EQ5">
-        <v>0.03716259526802663</v>
+        <v>0.03903339162661619</v>
       </c>
       <c r="ER5">
-        <v>0.009795105204538274</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.004950897503720397</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0003441506179815054</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0004166467829496383</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0003691850250933182</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.005278108534139326</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.003412949492349679</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.002394404533476015</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.01405078239781609</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.02759240231599214</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.007529262850809764</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.009185114355500365</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.0007133338577220537</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.01881077360426467</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.004749625759198389</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.002452668417815933</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.002948793579514886</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0007793931238494407</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0003320574306934298</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>1.176032531523757E-05</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01367135631842232</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.005591846169188063</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>4.054034637003531E-06</v>
+        <v>0</v>
       </c>
       <c r="FO5">
         <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001918425172072488</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.008477785672241092</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.002151302876260183</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.002082098590867642</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.005310284603082792</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0001093788952265991</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.001054825664166068</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.002933297620178045</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.006417494292842333</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.01206006892398224</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.003305100142943352</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0005137840057061024</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0005525603332687667</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>8.431517021508626E-05</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>4.857362139906691E-05</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.006222965364349182</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.01244092378709557</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.01280301338898796</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.007395295194588893</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.002384246879222088</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0003705028160389872</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>5.300097530628449E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.003187569768292249</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.002343068620289302</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.003345179607516871</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.002261226344201909</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.002492009167605699</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001266356166065156</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.000226443102233378</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0008683276736952331</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5092,28 +5092,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000116118498405467</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.73807340073035E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0003949165873775265</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001038122325393472</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0005827880395540077</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0003030548699050205</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002698234864287996</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002038907213394566</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0003746011418802452</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.000388134540070204</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001955818322397878</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>5.241372785934173E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>4.051167772455316E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001813715249606294</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>8.548704917529215E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5164,34 +5164,34 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.000122210456295351</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0004356753733563751</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0004457684514294872</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0001535730931402066</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0002602191491757897</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0006695391788970782</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0002984807158681189</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0005905694712554887</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0002004701462703191</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -5200,43 +5200,43 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0001392220565957513</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0004602731227652679</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0003790911555514703</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0004178489539685996</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0004069889741713162</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0001755021772168778</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.000112233945248741</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0005881704886702528</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0004170121914158323</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0007702100679821914</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0005096506017134871</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>6.520610662220378E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -5245,76 +5245,76 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0003805924916275487</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.000724739869351283</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0003051723532482242</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0002249599391219686</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.626799162581011E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0002698234864287996</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001540792381003001</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0001662447930212704</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0002329967129661968</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0002140900664451112</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0001848324959546937</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.008613677283498E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0002996720954066006</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0004618965320899158</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0006329854977644416</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0001392220565957513</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>1.008613677283498E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0001247359700316805</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0001010602431057925</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0002943862952455347</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0004524009554450613</v>
+        <v>0</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -5323,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0003097846131916327</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0005553792162007554</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>4.737282735702842E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -5341,190 +5341,190 @@
         <v>0</v>
       </c>
       <c r="CI6">
-        <v>7.900443449869454E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>2.856792889880338E-06</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001871515619860054</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0005399104979995</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0003329466940748697</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01294469662057238</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.08664097427170708</v>
+        <v>0.2682374375512795</v>
       </c>
       <c r="CP6">
-        <v>0.08861840415949433</v>
+        <v>0.2776741951782371</v>
       </c>
       <c r="CQ6">
-        <v>0.02114340835402347</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.01664199751556908</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.002595087630706493</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.00448332486328997</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.01077921805353868</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.003450599836509965</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.004584360068861039</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.003107718431858043</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.02190087622009083</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.05187562246581724</v>
+        <v>0.1023290527158443</v>
       </c>
       <c r="DA6">
-        <v>0.0006332268860616171</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0422738317132903</v>
+        <v>0.05650706293204817</v>
       </c>
       <c r="DC6">
-        <v>0.0005358719232927821</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.005586203230352191</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.004009865081657094</v>
+        <v>0</v>
       </c>
       <c r="DF6">
         <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.002859235657617758</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.005688924296594683</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.003396381360400699</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.005644897522018479</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.006110896627196554</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.002163420583457973</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.01247281033604045</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.01533604072214559</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.00304900083289317</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0002602191491757897</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
         <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0009683402734310691</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0003030548699050205</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.006400321164976366</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.03641697627446566</v>
+        <v>0.02855677980258458</v>
       </c>
       <c r="DV6">
-        <v>0.02084365003178996</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.002230178080869985</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01777435768154753</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0004358815360813228</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0007269651056945373</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.008522367751551454</v>
+        <v>0</v>
       </c>
       <c r="EB6">
         <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001695698366642179</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.009110068918757805</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0009048220834079367</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.003521706944019413</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>2.831285138040677E-05</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.02315791822006552</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.03219627792949307</v>
+        <v>0.008414620758666476</v>
       </c>
       <c r="EJ6">
-        <v>0.01536899357831479</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.005763190713516208</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0005119088346777069</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.003148443406987154</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.02453363609906056</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.08453817757996958</v>
+        <v>0.2582024002327628</v>
       </c>
       <c r="EP6">
-        <v>0.0304494712167359</v>
+        <v>7.845082857711799E-05</v>
       </c>
       <c r="EQ6">
-        <v>0.005920526174608115</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.004527317643814963</v>
+        <v>0</v>
       </c>
       <c r="ES6">
         <v>0</v>
@@ -5533,124 +5533,124 @@
         <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0006695391788970782</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.006600669787602536</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.006514964067112794</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.001007214710119718</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01003963116018677</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.02466500987577269</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.004554712370832609</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.005973103674406987</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0002930261566162966</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01646225854982892</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0006562903943742026</v>
+        <v>0</v>
       </c>
       <c r="FF6">
         <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0009276765690170142</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0002116646519583799</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>9.006495884240238E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
         <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.01219682749393521</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.002447335438698132</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.002664284557517964</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.001799134732860447</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.003384239580959856</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.009247295982551168</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.002825036726092345</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0009116318857385081</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.002176476538252035</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0009222729397748503</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.004310300842228499</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.003235714685847328</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.004975083825891085</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0118723603818441</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.002476230585784488</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
         <v>0</v>
       </c>
       <c r="GA6">
-        <v>6.129326919352725E-05</v>
+        <v>0</v>
       </c>
       <c r="GB6">
         <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0007534470822593137</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.008374587265093283</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.01206649694783659</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.01378555779741839</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.005466974693553182</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0006797107282680451</v>
+        <v>0</v>
       </c>
       <c r="GI6">
         <v>0</v>
@@ -5659,31 +5659,31 @@
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001176631697723375</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0007103719680933977</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002349180058513318</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0009680490848666557</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0008782128835976107</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.001352000697646812</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0009561399712972743</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.002638663627879066</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.005550101547966342</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.127588171141205E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.889698138980437E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.887479268499586E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.857431073384796E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.320593576720233E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.320593576720233E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.320593576720233E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.343012692469098E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.355243886952514E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.355243886952514E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.428938852773611E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.268423012630607E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.79257067343258E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001136986891655324</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001191515845008714</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.000119723422273824</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.000177075279740375</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001943203438353245</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001966844319511209</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.000202795989675756</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0002329903000646367</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.000298354649748541</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0003231794825196879</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0003329432657928065</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.000333858022604209</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0003348677844690396</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003348677844690396</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0003359719050685669</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0003378881395047069</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0003449461553595093</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0003599068352486342</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0003649505470250508</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0003671802060448348</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0003728587444197406</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0003783216060439217</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0004045385371607419</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0004362653939657496</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0004634166991625182</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0005081326334158403</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0005265425992718715</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0005293610806568541</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0005342013189362194</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0005342013189362194</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0005344996529425097</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0005344996529425097</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0005346219648873438</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0005365381993234839</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0005386245262892308</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0005414357626642392</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0005550110484019912</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0005663471202430405</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0005720155024236005</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0005754798829279754</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0005786095562318952</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0005814280376168779</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.000585673432756551</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0005889684258517546</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.000590757114791382</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0005915809342672465</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0005917032462120807</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0006249517351168979</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0006660890566551771</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0007636114983421103</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0008304440605776233</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0008436872556907536</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0008708165722502494</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0008984189895211089</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0009090529490135992</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0009103670377984061</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0009108677833609706</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0009133837185775865</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0009170297483465045</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0009216705804466973</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.000921680686119579</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0009246565419655747</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0009281289265019217</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0009333801795932827</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0009420531712531735</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0009620498710957913</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0009916083030556985</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001007278287501827</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.00101822445804279</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001018360373781888</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001021824754286263</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001028711094765585</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001031220164783234</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001032130587469025</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.001036006023086564</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001036577860859516</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001073209069802032</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01485169165188729</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.09695858352199486</v>
+        <v>0.2240361760183452</v>
       </c>
       <c r="CP2">
-        <v>0.1903696230079266</v>
+        <v>0.4966757729179034</v>
       </c>
       <c r="CQ2">
-        <v>0.2210523485073117</v>
+        <v>0.4996081128466572</v>
       </c>
       <c r="CR2">
-        <v>0.244302722602934</v>
+        <v>0.4996081128466572</v>
       </c>
       <c r="CS2">
-        <v>0.2571034928490452</v>
+        <v>0.4996081128466572</v>
       </c>
       <c r="CT2">
-        <v>0.2586658900856062</v>
+        <v>0.4996081128466572</v>
       </c>
       <c r="CU2">
-        <v>0.269501234369913</v>
+        <v>0.4996081128466572</v>
       </c>
       <c r="CV2">
-        <v>0.2749610042597896</v>
+        <v>0.4996081128466572</v>
       </c>
       <c r="CW2">
-        <v>0.2822016029614922</v>
+        <v>0.4996081128466572</v>
       </c>
       <c r="CX2">
-        <v>0.2872285323068218</v>
+        <v>0.4996081128466572</v>
       </c>
       <c r="CY2">
-        <v>0.3067712739481624</v>
+        <v>0.4996081128466572</v>
       </c>
       <c r="CZ2">
-        <v>0.3842334112043952</v>
+        <v>0.7036736576365064</v>
       </c>
       <c r="DA2">
-        <v>0.384233447907479</v>
+        <v>0.7036736576365064</v>
       </c>
       <c r="DB2">
-        <v>0.4263527708613379</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DC2">
-        <v>0.4264653951167043</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DD2">
-        <v>0.4291683107076692</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DE2">
-        <v>0.4347666849145642</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DF2">
-        <v>0.4350055452324931</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DG2">
-        <v>0.4352036156782536</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DH2">
-        <v>0.4437822595590654</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DI2">
-        <v>0.444371093139889</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DJ2">
-        <v>0.4503331851880228</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DK2">
-        <v>0.4567517414653633</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DL2">
-        <v>0.4567725366683481</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DM2">
-        <v>0.4603347514634478</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DN2">
-        <v>0.4699953357009609</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DO2">
-        <v>0.4729686411283405</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DP2">
-        <v>0.4735286503737798</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DQ2">
-        <v>0.4735680673944605</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DR2">
-        <v>0.4762520397364138</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DS2">
-        <v>0.4771027537970348</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DT2">
-        <v>0.4796213500460725</v>
+        <v>0.7557789010357245</v>
       </c>
       <c r="DU2">
-        <v>0.5109347198227352</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="DV2">
-        <v>0.5318542483659942</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="DW2">
-        <v>0.5360488031875176</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="DX2">
-        <v>0.5561624663752568</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="DY2">
-        <v>0.5561651244945942</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="DZ2">
-        <v>0.5562106211084731</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EA2">
-        <v>0.5616570699122791</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EB2">
-        <v>0.5618538725312956</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EC2">
-        <v>0.5638317268085964</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="ED2">
-        <v>0.5723662614110369</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EE2">
-        <v>0.5733851653961236</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EF2">
-        <v>0.5843361740326046</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EG2">
-        <v>0.5847246714773038</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EH2">
-        <v>0.6021866518142009</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EI2">
-        <v>0.6233985438307127</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EJ2">
-        <v>0.6401838655567488</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EK2">
-        <v>0.6480915279912345</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EL2">
-        <v>0.6483478953365506</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EM2">
-        <v>0.6485540293360083</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EN2">
-        <v>0.664213168423117</v>
+        <v>0.7614227651126544</v>
       </c>
       <c r="EO2">
-        <v>0.7434582273518309</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="EP2">
-        <v>0.7727663860136392</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="EQ2">
-        <v>0.7779044721805062</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="ER2">
-        <v>0.782194982483003</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="ES2">
-        <v>0.7824201020826997</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="ET2">
-        <v>0.7829506241135431</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="EU2">
-        <v>0.7848830918754559</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="EV2">
-        <v>0.7899935002401672</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="EW2">
-        <v>0.7938246421292886</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="EX2">
-        <v>0.7939123629369055</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="EY2">
-        <v>0.8086601776120893</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="EZ2">
-        <v>0.8449046833025047</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8529358078151577</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8622715696386958</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8626258841327077</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.882218504219621</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8831656425948031</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.883481441652564</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8885144707746768</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8893970490387834</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8894051822938006</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8898098474970724</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9041803882381357</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9076448398998729</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9094461208597412</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9095530714146729</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.910601808464379</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.917970526879236</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9192953516304918</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9202341801948397</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9226836378401084</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9231970818159971</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9249128103963938</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9267656764512969</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9322814381639237</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9423093330468021</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9448978157212821</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9450066851918276</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9455180871285341</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9457817964766355</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9458061934650069</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9511840755816192</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.963623463354175</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9773697100020012</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9833523888467798</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9846273506529121</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9851902098209476</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9854788309910413</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9862375825364127</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9867633639898651</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9879098366721367</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9891646312937854</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.990794289879709</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9926705248118868</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9942116033305906</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9965089526674694</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.001131545164578622</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.002257188887256372</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.002782457381438183</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.003234288022237311</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.003258180168190111</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.003258180168190111</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.003258180168190111</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.003422888000235792</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.003736281515278679</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.003802713992806062</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.003802713992806062</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.003802713992806062</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.003802713992806062</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.003832165710853801</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.004303536315544561</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.005027550202083593</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.005210320091556237</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.005416733211048597</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.005523576865748944</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.005523576865748944</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.005523576865748944</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.005849190584594871</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.006410563027777641</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.007386574201857025</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.007956507908389886</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.008037082387425403</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.008037082387425403</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.008037082387425403</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.008068155537041634</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.008068155537041634</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.008068155537041634</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.008068155537041634</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00806980784277349</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00806980784277349</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.00806980784277349</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.008118951445519995</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.00821194471553585</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.008304937985551705</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.008427417763752916</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.008427417763752916</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.008427417763752916</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.008587645391890811</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.009273010855446252</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.009798279349628063</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.01006654756575768</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0106176251187327</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.01065730914818395</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.01066502350127672</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0109455644676028</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.01145953062759175</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.01149293689365352</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.01149293689365352</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.01149293689365352</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.01149293689365352</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.01149293689365352</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.01149293689365352</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.01149293689365352</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.01152674500171721</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.01152674500171721</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.01165897368672933</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.01183317867572409</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.01200088696644273</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0121307527004583</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01224038232432336</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01269708954523738</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01303797010797909</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01314538091213939</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01314538091213939</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01353593481013543</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.01465863336858576</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01545534586228429</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01617696543770273</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01649116382891913</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01649116382891913</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01649116382891913</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0166653688179139</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01705141834530862</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01721912663602725</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01721912663602725</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01721912663602725</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01726224895351223</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01749633214905628</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01799230665024725</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01856759211753755</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01922213251895296</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01931990456065558</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01931990456065558</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01931990456065558</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0195581776465879</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01960851381302087</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.0532700755876455</v>
+        <v>0.01722044513531769</v>
       </c>
       <c r="CO3">
-        <v>0.111720896039012</v>
+        <v>0.1595680052436737</v>
       </c>
       <c r="CP3">
-        <v>0.1838101980686089</v>
+        <v>0.370757634199294</v>
       </c>
       <c r="CQ3">
-        <v>0.1993930979175993</v>
+        <v>0.370757634199294</v>
       </c>
       <c r="CR3">
-        <v>0.2323533406293757</v>
+        <v>0.3844380771040437</v>
       </c>
       <c r="CS3">
-        <v>0.2490068037853287</v>
+        <v>0.3844380771040437</v>
       </c>
       <c r="CT3">
-        <v>0.2492719799376807</v>
+        <v>0.3844380771040437</v>
       </c>
       <c r="CU3">
-        <v>0.271794896455598</v>
+        <v>0.3844380771040437</v>
       </c>
       <c r="CV3">
-        <v>0.2835241088750966</v>
+        <v>0.3844380771040437</v>
       </c>
       <c r="CW3">
-        <v>0.2889762868461468</v>
+        <v>0.3844380771040437</v>
       </c>
       <c r="CX3">
-        <v>0.3038658804268716</v>
+        <v>0.3844380771040437</v>
       </c>
       <c r="CY3">
-        <v>0.3359379062230911</v>
+        <v>0.3936351257466582</v>
       </c>
       <c r="CZ3">
-        <v>0.4196481043242381</v>
+        <v>0.6634827895308413</v>
       </c>
       <c r="DA3">
-        <v>0.4219347227733721</v>
+        <v>0.6634827895308413</v>
       </c>
       <c r="DB3">
-        <v>0.4787301853364789</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DC3">
-        <v>0.4916029228567077</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DD3">
-        <v>0.4987488052573947</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DE3">
-        <v>0.5157993286025444</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DF3">
-        <v>0.5177110978926093</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DG3">
-        <v>0.5178387948376335</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DH3">
-        <v>0.5291443162203244</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DI3">
-        <v>0.529208029621529</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DJ3">
-        <v>0.5340549610375975</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DK3">
-        <v>0.5359547633689848</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DL3">
-        <v>0.5364327286925457</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DM3">
-        <v>0.5373981704743005</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DN3">
-        <v>0.5391620565732024</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DO3">
-        <v>0.5413814374615212</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DP3">
-        <v>0.5461081066410469</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DQ3">
-        <v>0.5492438601583594</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DR3">
-        <v>0.5506495774713906</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DS3">
-        <v>0.5507313226105208</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DT3">
-        <v>0.5530799066037393</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DU3">
-        <v>0.5674816007081018</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DV3">
-        <v>0.5772787870109113</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DW3">
-        <v>0.5782588975311033</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DX3">
-        <v>0.5880857405697818</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DY3">
-        <v>0.5880857405697818</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="DZ3">
-        <v>0.5903723590189158</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EA3">
-        <v>0.5933472741989736</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EB3">
-        <v>0.5966472586855176</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EC3">
-        <v>0.6008084133950636</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="ED3">
-        <v>0.6105179701759818</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EE3">
-        <v>0.6105657680818587</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EF3">
-        <v>0.6148604397319252</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EG3">
-        <v>0.6149726764894021</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EH3">
-        <v>0.6255761342083613</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EI3">
-        <v>0.647927847079981</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EJ3">
-        <v>0.6582706651906156</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EK3">
-        <v>0.6662406160799135</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EL3">
-        <v>0.6662406160799135</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EM3">
-        <v>0.6678542042378942</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EN3">
-        <v>0.6924530589263056</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="EO3">
-        <v>0.7561914044171</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="EP3">
-        <v>0.7800520242059146</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="EQ3">
-        <v>0.7859789357558863</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="ER3">
-        <v>0.7895135400406125</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="ES3">
-        <v>0.7899474640909914</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="ET3">
-        <v>0.7908174883509759</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="EU3">
-        <v>0.7909697540032889</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="EV3">
-        <v>0.7945861469868021</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="EW3">
-        <v>0.7948945981301296</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="EX3">
-        <v>0.795337780994453</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="EY3">
-        <v>0.8111590581987572</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="EZ3">
-        <v>0.8480434748662697</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8621515598092107</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8794062644362615</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8794062644362615</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8936214092459951</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8949378701296685</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8963776435877241</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8990151120123345</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9016068367858949</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9017492552784311</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9034431536427524</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9118090937891756</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9131936325112149</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9147793253134898</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9147793253134898</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.916464869498373</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.922478197790181</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9225161846650838</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9229558295436594</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9275375251332223</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9277655485202596</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9306153066980208</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9333568123341683</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9365566630555437</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9436952810006908</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9443609510131415</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9451365374925509</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.947572722415795</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9478628000019067</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9478628000019067</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9504648196656749</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9600575670566982</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9686860360972699</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9754459405361029</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9793667599032085</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9813423852355577</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9813423852355577</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9821130314952189</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9821130314952189</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9831695166474208</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9845046060913807</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9874349501899752</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9910842880749416</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9930349397765446</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9960185695147856</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.534589524589052E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.534589524589052E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.726494446680546E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001574911561712973</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001625465206776871</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001625465206776871</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0002602012493911967</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0003796552129645467</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0005239025924088012</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0005788164268946105</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0005987192627104874</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.000608749431749843</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0006556499115644681</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0007669663220860036</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.000882795564564438</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0009024567105557061</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0009024567105557061</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0009024567105557061</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0009070041129493736</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0009070041129493736</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0009598237564874458</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001167578382768675</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001632263546850299</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001775666206431448</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001827968407405754</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001860330987757847</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001895459279084718</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001958534827201123</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002192297981393679</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002396619794607493</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002588738454634377</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002632584583092173</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002639565751117363</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00264935218343587</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002652585399409104</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002652585399409104</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.00268372535843281</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002685259947957399</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002698223144231456</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.002705852482059723</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.002705852482059723</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.002709250637752303</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.002744378929079174</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.00277740117326704</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.002802002784455693</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.002802887706221321</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.002995399548404182</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003378883608340767</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.003572372028121035</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.003676412873014514</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.003880135743979682</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.003885191108486072</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.003945841694825748</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.003997251080878385</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.00423677540761748</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.004589242386632902</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.004661266769023019</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.004694705343502341</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.004764735486708897</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.00476663155860962</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.004901448588947461</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.005157252863910323</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.005550405317181695</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.005796204031179919</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.006114108526909204</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.006288219632274703</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.006299695225697425</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.006328558463852125</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.006375950164749363</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.006531047214754152</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.006950945138609392</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.007068298197295287</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.007129504321879036</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.007137075886411094</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.007211164386581321</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.007289796706276446</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.007294163058396713</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.00731128491555281</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.00731128491555281</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.007348904743806538</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.007497412298581235</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.007501319927047985</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.007510155839178401</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.007516510819025234</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.007547353916067038</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.007559421892366365</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.007584656184576286</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.007585418499658212</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.007674643177248757</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.008674085956543212</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1540299472231616</v>
+        <v>0.4796893449056989</v>
       </c>
       <c r="CO4">
-        <v>0.1947869425651323</v>
+        <v>0.5243795753100855</v>
       </c>
       <c r="CP4">
-        <v>0.2432625985456281</v>
+        <v>0.6011696809207039</v>
       </c>
       <c r="CQ4">
-        <v>0.2589696356888728</v>
+        <v>0.6011696809207039</v>
       </c>
       <c r="CR4">
-        <v>0.2768929882524183</v>
+        <v>0.6011696809207039</v>
       </c>
       <c r="CS4">
-        <v>0.2771681502232059</v>
+        <v>0.6011696809207039</v>
       </c>
       <c r="CT4">
-        <v>0.2951033229622504</v>
+        <v>0.6011696809207039</v>
       </c>
       <c r="CU4">
-        <v>0.2972482859109592</v>
+        <v>0.6011696809207039</v>
       </c>
       <c r="CV4">
-        <v>0.2979432781456769</v>
+        <v>0.6011696809207039</v>
       </c>
       <c r="CW4">
-        <v>0.3070662994580013</v>
+        <v>0.6011696809207039</v>
       </c>
       <c r="CX4">
-        <v>0.3121873765071235</v>
+        <v>0.6011696809207039</v>
       </c>
       <c r="CY4">
-        <v>0.3806479689515092</v>
+        <v>0.7610718699015167</v>
       </c>
       <c r="CZ4">
-        <v>0.3917729238163958</v>
+        <v>0.7610718699015167</v>
       </c>
       <c r="DA4">
-        <v>0.4240499231668919</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DB4">
-        <v>0.4337933851410061</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DC4">
-        <v>0.4407060250312485</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DD4">
-        <v>0.4420102920787557</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DE4">
-        <v>0.4431737364666424</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DF4">
-        <v>0.4448755435782495</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DG4">
-        <v>0.4464033620083947</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DH4">
-        <v>0.4518344978176675</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DI4">
-        <v>0.4566339555448127</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DJ4">
-        <v>0.466601287541082</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DK4">
-        <v>0.4675367464448462</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DL4">
-        <v>0.4705025868171772</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DM4">
-        <v>0.47991090304673</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DN4">
-        <v>0.4886643395352397</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DO4">
-        <v>0.4912640068776201</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DP4">
-        <v>0.4931577011075728</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DQ4">
-        <v>0.4946385003502269</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DR4">
-        <v>0.4962484966622022</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DS4">
-        <v>0.4964386714310906</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DT4">
-        <v>0.5169400958110512</v>
+        <v>0.7704960320301393</v>
       </c>
       <c r="DU4">
-        <v>0.5519199986358753</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="DV4">
-        <v>0.552637937417807</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="DW4">
-        <v>0.5686973178356027</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="DX4">
-        <v>0.570959342840281</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="DY4">
-        <v>0.5714463325404702</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="DZ4">
-        <v>0.5779116057498804</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EA4">
-        <v>0.5788774185741991</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EB4">
-        <v>0.5790643752340288</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EC4">
-        <v>0.5814909000654456</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="ED4">
-        <v>0.5859979165463211</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EE4">
-        <v>0.5904833857926758</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EF4">
-        <v>0.593797775778492</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EG4">
-        <v>0.6006504910305533</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EH4">
-        <v>0.6272605851097163</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EI4">
-        <v>0.6444486347186754</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EJ4">
-        <v>0.6586845357205837</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EK4">
-        <v>0.6595059792623824</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EL4">
-        <v>0.6597285018348528</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EM4">
-        <v>0.6627261571374456</v>
+        <v>0.7911608573105228</v>
       </c>
       <c r="EN4">
-        <v>0.7223896007240307</v>
+        <v>0.914478022835763</v>
       </c>
       <c r="EO4">
-        <v>0.7729649020404837</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7814200959425897</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.7852063340285004</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.7879213321688138</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7879422329335758</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7890843004615408</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.79145149031296</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.7996679887015252</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8003295578418416</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8051241743492443</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8322728282384224</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8462348553238216</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8503293783932295</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8510904578744447</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8663884834307493</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8748908769993696</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.874896237176239</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8769950319100576</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8787454674137507</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8788499386370867</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8792153377984967</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.883154788669081</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8940791447011718</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8943293659015689</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8947257677375922</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8950550259545821</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.901787164411735</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9105602304951212</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9107195075453516</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.914793493322445</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9149144942333538</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9176976654234399</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9195407692022131</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9231007614256999</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.934008077997012</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9417214163754698</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9421427514886026</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9431568390801717</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9431666255124902</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9431837473696463</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9465642044831509</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9575207556119606</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9732833190675664</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9811761497372579</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9844664339682977</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9852148288255126</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9854595280080777</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9860902520427728</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9872000735517225</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9893697093034914</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9913152743452334</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9923517649460267</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9939142141393547</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9950093237066369</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9960836953937765</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9978271060216068</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8973,763 +8973,763 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.428477751141392E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0003349298626988687</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008162824639251845</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001163946947030061</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001235702164520472</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001235702164520472</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001621297109147848</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002715070946095725</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.003537934079909997</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.004180590094279697</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.004434853385840553</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.004434853385840553</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.004448040766693989</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.004557985909620747</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.005120185462795273</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.005530464674760042</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.005773186784031109</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.006066740675023025</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.006198365848108984</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.006198365848108984</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.006292709575524614</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.006909227523838438</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.007420307592714285</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.007833704451878426</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.008333549496374318</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.008407355122313538</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.008407355122313538</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.008547240470711462</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.008857942584788246</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.009457288478566745</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.009781877146728891</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.009860893028840138</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.009864947063477141</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.01010149894342485</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.01059830096445513</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.01085036321695277</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.01101091440480576</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0111988928438957</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.01126442929654559</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.01128146996717118</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.01128146996717118</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.01146921218804153</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.01194558987368412</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.01246246693285369</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.01304309504777087</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.01328259049299281</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01331373956283053</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0133548276283492</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01369516900562462</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01430327814299334</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01450620922246396</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01492425257254272</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01508214054565673</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0151390928075451</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01558278419449474</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01639483853182771</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01684430164332035</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01687228743715634</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01687228743715634</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.01687228743715634</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01701237940503213</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01732216873243009</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.01753513674421115</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.01797630958014654</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.01819165193057036</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.01819165193057036</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01831078881178221</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01849063123781827</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.01871499002093329</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.01878363394627778</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0191446382442574</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01969719857752617</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01998722184314483</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01998722184314483</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.02020018985492589</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.02128949760182949</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.02241101080578675</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.02313525709069134</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.02375177503900517</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.02376001554434344</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.02383708132975637</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.02412710459537503</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.02475393476134832</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.02549486140661133</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0257375835158824</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.02600760436108118</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.02600760436108118</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.02633002581158203</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.03780017807210955</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.08399884691781323</v>
+        <v>0.0887935115695257</v>
       </c>
       <c r="CQ5">
-        <v>0.1745033947960083</v>
+        <v>0.4215719614953828</v>
       </c>
       <c r="CR5">
-        <v>0.2029034415577811</v>
+        <v>0.4215719614953828</v>
       </c>
       <c r="CS5">
-        <v>0.2328627101130881</v>
+        <v>0.4215719614953828</v>
       </c>
       <c r="CT5">
-        <v>0.2432514416031146</v>
+        <v>0.4215719614953828</v>
       </c>
       <c r="CU5">
-        <v>0.2442315034134226</v>
+        <v>0.4215719614953828</v>
       </c>
       <c r="CV5">
-        <v>0.2695463211706986</v>
+        <v>0.4215719614953828</v>
       </c>
       <c r="CW5">
-        <v>0.2740943032703148</v>
+        <v>0.4215719614953828</v>
       </c>
       <c r="CX5">
-        <v>0.2786729513112731</v>
+        <v>0.4215719614953828</v>
       </c>
       <c r="CY5">
-        <v>0.2979632516124141</v>
+        <v>0.4215719614953828</v>
       </c>
       <c r="CZ5">
-        <v>0.3306754859946628</v>
+        <v>0.4360979728354307</v>
       </c>
       <c r="DA5">
-        <v>0.3893138770950779</v>
+        <v>0.5933949185713316</v>
       </c>
       <c r="DB5">
-        <v>0.3918585152527193</v>
+        <v>0.5933949185713316</v>
       </c>
       <c r="DC5">
-        <v>0.4454309879285021</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DD5">
-        <v>0.446404707022343</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DE5">
-        <v>0.4503517167116269</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DF5">
-        <v>0.462845121846102</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DG5">
-        <v>0.4641394537879676</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DH5">
-        <v>0.4643243340883477</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DI5">
-        <v>0.4670205547142021</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DJ5">
-        <v>0.4675124359218556</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DK5">
-        <v>0.4741415516893477</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DL5">
-        <v>0.4758628758213297</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DM5">
-        <v>0.4761473464994128</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DN5">
-        <v>0.4777846332741068</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DO5">
-        <v>0.4828672326408416</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DP5">
-        <v>0.4886887504017853</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DQ5">
-        <v>0.4968217227692049</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DR5">
-        <v>0.4999259571849303</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DS5">
-        <v>0.5012833720594045</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DT5">
-        <v>0.5016939930460639</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DU5">
-        <v>0.5049285759672237</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DV5">
-        <v>0.5261417172497318</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DW5">
-        <v>0.5416169704362582</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DX5">
-        <v>0.5418068691927634</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DY5">
-        <v>0.5479050250584967</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="DZ5">
-        <v>0.5480218336090049</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EA5">
-        <v>0.5490087827686756</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EB5">
-        <v>0.5530745836126284</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EC5">
-        <v>0.553346877873888</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="ED5">
-        <v>0.5539275059888052</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EE5">
-        <v>0.5580452876795577</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EF5">
-        <v>0.5583050928665977</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EG5">
-        <v>0.5638881321312932</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EH5">
-        <v>0.5638881321312932</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EI5">
-        <v>0.5765957454959202</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EJ5">
-        <v>0.6039027100242819</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EK5">
-        <v>0.6225214187877781</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EL5">
-        <v>0.6321670167459466</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EM5">
-        <v>0.6324393110072062</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EN5">
-        <v>0.632547940274931</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EO5">
-        <v>0.6494486181099903</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="EP5">
-        <v>0.7227733080570446</v>
+        <v>0.9609666083733837</v>
       </c>
       <c r="EQ5">
-        <v>0.7599359033250713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.7697310085296096</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.77468190603333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.7750260566513115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.7754427034342611</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.7758118884593544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.7810899969934938</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.7845029464858435</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.7868973510193196</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8009481334171357</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8285405357331278</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.8360697985839376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.845254912939438</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.8459682467971601</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8647790204014247</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8695286461606231</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.871981314578439</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.8749301081579539</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.8757095012818034</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.8760415587124968</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.876053319037812</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.8897246753562343</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.8953165215254224</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.8953205755600594</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.8953205755600594</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.8972390007321319</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.905716786404373</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9078680892806332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9099501878715008</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9152604724745836</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9153698513698102</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9164246770339762</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9193579746541543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9257754689469966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9378355378709788</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9411406380139222</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9416544220196283</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9422069823528971</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9422912975231122</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9423398711445113</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9485628365088605</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9610037602959561</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9738067736849441</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.981202068879533</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9835863157587551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9839568185747941</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9840098195501004</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9871973893183926</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9895404579386819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9928856375461989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9951468638904007</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9976388730580065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9989052292240717</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9991316723263051</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9743,595 +9743,595 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000116118498405467</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000116118498405467</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001534992324127705</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0005484158197902971</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001586538145183769</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002169326184737776</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.002472381054642797</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.002742204541071596</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.002742204541071596</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.002742204541071596</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.002946095262411053</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.003320696404291298</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.003708830944361502</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.00390441277660129</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.003956826504460631</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.003997338182185185</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.003997338182185185</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.003997338182185185</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.004178709707145814</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.004264196756321106</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.004264196756321106</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.004264196756321106</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.004264196756321106</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.004264196756321106</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.004386407212616457</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.004822082585972832</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.00526785103740232</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.005421424130542526</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.005421424130542526</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.005681643279718315</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.006351182458615393</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.006649663174483512</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.007240232645739001</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.00744070279200932</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.00744070279200932</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.00744070279200932</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.007579924848605071</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.008040197971370339</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.00841928912692181</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00883713808089041</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.009244127055061727</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.009419629232278605</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.009419629232278605</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.009531863177527345</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0101200336661976</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.01053704585761343</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.01130725592559562</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01181690652730911</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.01188211263393131</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.01188211263393131</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.01188211263393131</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01226270512555886</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.01298744499491014</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.01329261734815837</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01351757728728033</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.01351757728728033</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.01353384527890614</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.01380366876533494</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.01395774800343524</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.01412399279645651</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.01435698950942271</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.01457107957586782</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01475591207182251</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.01475591207182251</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.01476599820859535</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01506567030400195</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.01552756683609187</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01616055233385631</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01629977439045206</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.01630986052722489</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01630986052722489</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01643459649725657</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01653565674036236</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0168300430356079</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01728244399105296</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01728244399105296</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01728244399105296</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.01759222860424459</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.01814760782044535</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01819498064780238</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01819498064780238</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01819498064780238</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01819498064780238</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01827398508230107</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.01827684187519095</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01846399343717696</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.01900390393517646</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01933685062925133</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.03228154724982371</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1189225215215308</v>
+        <v>0.2682374375512795</v>
       </c>
       <c r="CP6">
-        <v>0.2075409256810251</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CQ6">
-        <v>0.2286843340350486</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CR6">
-        <v>0.2453263315506176</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CS6">
-        <v>0.2479214191813241</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CT6">
-        <v>0.2524047440446141</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CU6">
-        <v>0.2631839620981528</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CV6">
-        <v>0.2666345619346627</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CW6">
-        <v>0.2712189220035238</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CX6">
-        <v>0.2743266404353818</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CY6">
-        <v>0.2962275166554726</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="CZ6">
-        <v>0.3481031391212899</v>
+        <v>0.6482406854453608</v>
       </c>
       <c r="DA6">
-        <v>0.3487363660073515</v>
+        <v>0.6482406854453608</v>
       </c>
       <c r="DB6">
-        <v>0.3910101977206418</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DC6">
-        <v>0.3915460696439346</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DD6">
-        <v>0.3971322728742868</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DE6">
-        <v>0.4011421379559438</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DF6">
-        <v>0.4011421379559438</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DG6">
-        <v>0.4040013736135616</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DH6">
-        <v>0.4096902979101563</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DI6">
-        <v>0.413086679270557</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DJ6">
-        <v>0.4187315767925754</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DK6">
-        <v>0.424842473419772</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DL6">
-        <v>0.42700589400323</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DM6">
-        <v>0.4394787043392704</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DN6">
-        <v>0.454814745061416</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DO6">
-        <v>0.4578637458943092</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DP6">
-        <v>0.458123965043485</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DQ6">
-        <v>0.458123965043485</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DR6">
-        <v>0.459092305316916</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DS6">
-        <v>0.459395360186821</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DT6">
-        <v>0.4657956813517974</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="DU6">
-        <v>0.5022126576262631</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="DV6">
-        <v>0.5230563076580531</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="DW6">
-        <v>0.5252864857389231</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="DX6">
-        <v>0.5430608434204707</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="DY6">
-        <v>0.543496724956552</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="DZ6">
-        <v>0.5442236900622466</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="EA6">
-        <v>0.552746057813798</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="EB6">
-        <v>0.552746057813798</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="EC6">
-        <v>0.5544417561804402</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="ED6">
-        <v>0.563551825099198</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="EE6">
-        <v>0.5644566471826059</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="EF6">
-        <v>0.5679783541266253</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="EG6">
-        <v>0.5680066669780057</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="EH6">
-        <v>0.5911645851980712</v>
+        <v>0.7333045281799936</v>
       </c>
       <c r="EI6">
-        <v>0.6233608631275643</v>
+        <v>0.7417191489386601</v>
       </c>
       <c r="EJ6">
-        <v>0.6387298567058791</v>
+        <v>0.7417191489386601</v>
       </c>
       <c r="EK6">
-        <v>0.6444930474193953</v>
+        <v>0.7417191489386601</v>
       </c>
       <c r="EL6">
-        <v>0.6450049562540729</v>
+        <v>0.7417191489386601</v>
       </c>
       <c r="EM6">
-        <v>0.6481533996610601</v>
+        <v>0.7417191489386601</v>
       </c>
       <c r="EN6">
-        <v>0.6726870357601207</v>
+        <v>0.7417191489386601</v>
       </c>
       <c r="EO6">
-        <v>0.7572252133400903</v>
+        <v>0.9999215491714228</v>
       </c>
       <c r="EP6">
-        <v>0.7876746845568262</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.7935952107314344</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.7981225283752493</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.7981225283752493</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.7981225283752493</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7987920675541464</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.805392737341749</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8119077014088618</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8129149161189815</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8229545472791683</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.847619557154941</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8521742695257736</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8581473732001805</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8584403993567968</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8749026579066258</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.875558948301</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.875558948301</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8764866248700171</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8766982895219755</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8767883544808179</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8767883544808179</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8889851819747532</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8914325174134513</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8940968019709693</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8958959367038297</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.8992801762847896</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9085274722673408</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9113525089934331</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9122641408791716</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9144406174174237</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9153628903571985</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.919673191199427</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9229089058852744</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9278839897111655</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9397563500930096</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9422325806787941</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9422325806787941</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9422938739479877</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9422938739479877</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.943047321030247</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9514219082953403</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9634884052431769</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9772739630405953</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9827409377341485</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9834206484624165</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9834206484624165</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9834206484624165</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9845972801601399</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9853076521282333</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9876568321867467</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9886248812716134</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.989503094155211</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9908550948528578</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9918112348241551</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9944498984520341</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0.001073209069802032</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5109347198227352</v>
+        <v>0.7036736576365064</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>0.01960851381302087</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5157993286025444</v>
+        <v>0.6634827895308413</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>0.007674643177248757</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5169400958110512</v>
+        <v>0.5243795753100855</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.03780017807210955</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5012833720594045</v>
+        <v>0.5933949185713316</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.01933685062925133</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5022126576262631</v>
+        <v>0.5459116327295166</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -10829,16 +10829,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0.001073209069802032</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7434582273518309</v>
+        <v>0.7036736576365064</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.01960851381302087</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7561914044171</v>
+        <v>0.7974747082097049</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.007674643177248757</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7223896007240307</v>
+        <v>0.7610718699015167</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.03780017807210955</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7227733080570446</v>
+        <v>0.7227947133750572</v>
       </c>
       <c r="G5">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.01933685062925133</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7572252133400903</v>
+        <v>0.7047477483774091</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -11088,16 +11088,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E2">
-        <v>0.001073209069802032</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8086601776120893</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E3">
-        <v>0.01960851381302087</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8111590581987572</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E4">
-        <v>0.007674643177248757</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8003295578418416</v>
+        <v>0.914478022835763</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E5">
-        <v>0.03780017807210955</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8009481334171357</v>
+        <v>0.9609666083733837</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E6">
-        <v>0.01933685062925133</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.805392737341749</v>
+        <v>0.9999215491714228</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -11347,16 +11347,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E2">
-        <v>0.001073209069802032</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9041803882381357</v>
+        <v>0.9731541769267916</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E3">
-        <v>0.01960851381302087</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9016068367858949</v>
+        <v>0.9665117616247755</v>
       </c>
       <c r="G3">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E4">
-        <v>0.007674643177248757</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.901787164411735</v>
+        <v>0.914478022835763</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="E5">
-        <v>0.03780017807210955</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.905716786404373</v>
+        <v>0.9609666083733837</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E6">
-        <v>0.01933685062925133</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9085274722673408</v>
+        <v>0.9999215491714228</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>50</v>

--- a/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
@@ -674,49 +674,49 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02409684053321085</v>
       </c>
       <c r="E2">
-        <v>0.2525082697093372</v>
+        <v>0.2066701687279229</v>
       </c>
       <c r="F2">
-        <v>0.2945922828258891</v>
+        <v>0.2368748211430806</v>
       </c>
       <c r="G2">
-        <v>0.06106214165066372</v>
+        <v>0.06926493272476017</v>
       </c>
       <c r="H2">
-        <v>0.03339237082027213</v>
+        <v>0.04940570950799093</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0214843957674714</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01623278281605089</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.001869262307145624</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.006627632163958432</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0007127135213769319</v>
       </c>
       <c r="O2">
-        <v>0.01958929091189215</v>
+        <v>0.03949892543450891</v>
       </c>
       <c r="P2">
-        <v>0.2352163941308691</v>
+        <v>0.194259396732218</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1036392499510768</v>
+        <v>0.09982349075711436</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.002239612674201767</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.01020288532981355</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.00321146578026286</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.00443113698871727</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01309382709019463</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -784,58 +784,58 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06649175130196754</v>
+        <v>0.06835532538458586</v>
       </c>
       <c r="E3">
-        <v>0.1594560814720949</v>
+        <v>0.1280394973148889</v>
       </c>
       <c r="F3">
-        <v>0.2106029237795415</v>
+        <v>0.1608763598446709</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.02482800652806261</v>
       </c>
       <c r="H3">
-        <v>0.0638616743898896</v>
+        <v>0.06666678567991512</v>
       </c>
       <c r="I3">
-        <v>0.002708218435139014</v>
+        <v>0.02740556180344403</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0247197601022466</v>
+        <v>0.0415372253663019</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01554962728700707</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0004366459704207822</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0231587589295313</v>
       </c>
       <c r="O3">
-        <v>0.06053069577220302</v>
+        <v>0.06452825899822606</v>
       </c>
       <c r="P3">
-        <v>0.2541834452205445</v>
+        <v>0.1888555571318137</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1532481815392794</v>
+        <v>0.1240539539754357</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0183028499472165</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.004514514844829508</v>
       </c>
       <c r="U3">
-        <v>0.004197267987093916</v>
+        <v>0.02836154878585952</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.01452952220779053</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4844663408805258</v>
+        <v>0.3700895542072284</v>
       </c>
       <c r="E4">
-        <v>0.09681746151217011</v>
+        <v>0.09452707538155031</v>
       </c>
       <c r="F4">
-        <v>0.1254232223901553</v>
+        <v>0.1148616482276693</v>
       </c>
       <c r="G4">
-        <v>0.003981003505486608</v>
+        <v>0.02853373487350601</v>
       </c>
       <c r="H4">
-        <v>0.01219478461498089</v>
+        <v>0.03437254933558269</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01223859080490105</v>
+        <v>0.03440368922253909</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -921,25 +921,25 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01118834869787645</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0006453502481165082</v>
       </c>
       <c r="O4">
-        <v>0.1994884443788497</v>
+        <v>0.1675113455497269</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.01646238075655795</v>
       </c>
       <c r="Q4">
-        <v>0.06539015191293046</v>
+        <v>0.07218678808315897</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01282288044175003</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.005365167170670121</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.001462190466922244</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.01341265909464961</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.01193994933802523</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.01021468890447012</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1007,28 +1007,28 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01824474329318395</v>
       </c>
       <c r="F5">
-        <v>0.1246384801741895</v>
+        <v>0.1124307001356686</v>
       </c>
       <c r="G5">
-        <v>0.2975407104657481</v>
+        <v>0.2325910761248871</v>
       </c>
       <c r="H5">
-        <v>0.05517994506259771</v>
+        <v>0.06415969934756204</v>
       </c>
       <c r="I5">
-        <v>0.06126475663858651</v>
+        <v>0.06838840851783386</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0153118610386494</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04313994072262053</v>
+        <v>0.05579236107804458</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1037,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0196294602323839</v>
+        <v>0.03945348464695239</v>
       </c>
       <c r="P5">
-        <v>0.07200811489688004</v>
+        <v>0.07585462781139984</v>
       </c>
       <c r="Q5">
-        <v>0.1731840856111075</v>
+        <v>0.1461680220434769</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1534145061958863</v>
+        <v>0.1324289274599313</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.02101987049414588</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.005115542882690435</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1085,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.000921291549764527</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.002925285466877849</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.009194098108931192</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1114,55 +1114,55 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.02540266555443305</v>
       </c>
       <c r="E6">
-        <v>0.3074547683701666</v>
+        <v>0.2427256254655629</v>
       </c>
       <c r="F6">
-        <v>0.3157322559521805</v>
+        <v>0.2485568686426603</v>
       </c>
       <c r="G6">
-        <v>0.03328308123012517</v>
+        <v>0.04957984733566602</v>
       </c>
       <c r="H6">
-        <v>0.01444025269447269</v>
+        <v>0.03630563650211673</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0004509256048816311</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.01901688560989294</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.000748868331838288</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03645382872103289</v>
+        <v>0.05181354439524598</v>
       </c>
       <c r="P6">
-        <v>0.1619276022062029</v>
+        <v>0.1402060763429704</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1217346708613268</v>
+        <v>0.1118913547139555</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.003703203722462036</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1174,25 +1174,25 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.004006117884106966</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.003876287324529264</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.005250472128443546</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.02401112004678332</v>
       </c>
       <c r="AD6">
-        <v>0.008973539964492502</v>
+        <v>0.03245450039445103</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1347,82 +1347,82 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02409684053321085</v>
       </c>
       <c r="E2">
-        <v>0.2525082697093372</v>
+        <v>0.2307670092611337</v>
       </c>
       <c r="F2">
-        <v>0.5471005525352262</v>
+        <v>0.4676418304042144</v>
       </c>
       <c r="G2">
-        <v>0.6081626941858899</v>
+        <v>0.5369067631289746</v>
       </c>
       <c r="H2">
-        <v>0.641555065006162</v>
+        <v>0.5863124726369655</v>
       </c>
       <c r="I2">
-        <v>0.641555065006162</v>
+        <v>0.6077968684044369</v>
       </c>
       <c r="J2">
-        <v>0.641555065006162</v>
+        <v>0.6077968684044369</v>
       </c>
       <c r="K2">
-        <v>0.641555065006162</v>
+        <v>0.6240296512204878</v>
       </c>
       <c r="L2">
-        <v>0.641555065006162</v>
+        <v>0.6258989135276334</v>
       </c>
       <c r="M2">
-        <v>0.641555065006162</v>
+        <v>0.6325265456915918</v>
       </c>
       <c r="N2">
-        <v>0.641555065006162</v>
+        <v>0.6332392592129688</v>
       </c>
       <c r="O2">
-        <v>0.6611443559180541</v>
+        <v>0.6727381846474777</v>
       </c>
       <c r="P2">
-        <v>0.8963607500489232</v>
+        <v>0.8669975813796956</v>
       </c>
       <c r="Q2">
-        <v>0.8963607500489232</v>
+        <v>0.8669975813796956</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.96682107213681</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.96682107213681</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.96682107213681</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.9690606848110118</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.9690606848110118</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9690606848110118</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9792635701408253</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9792635701408253</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9824750359210882</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9869061729098054</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9869061729098054</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9869061729098054</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -1457,64 +1457,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06649175130196754</v>
+        <v>0.06835532538458586</v>
       </c>
       <c r="E3">
-        <v>0.2259478327740625</v>
+        <v>0.1963948226994748</v>
       </c>
       <c r="F3">
-        <v>0.436550756553604</v>
+        <v>0.3572711825441456</v>
       </c>
       <c r="G3">
-        <v>0.436550756553604</v>
+        <v>0.3820991890722082</v>
       </c>
       <c r="H3">
-        <v>0.5004124309434936</v>
+        <v>0.4487659747521233</v>
       </c>
       <c r="I3">
-        <v>0.5031206493786327</v>
+        <v>0.4761715365555674</v>
       </c>
       <c r="J3">
-        <v>0.5031206493786327</v>
+        <v>0.4761715365555674</v>
       </c>
       <c r="K3">
-        <v>0.5278404094808793</v>
+        <v>0.5177087619218693</v>
       </c>
       <c r="L3">
-        <v>0.5278404094808793</v>
+        <v>0.5332583892088764</v>
       </c>
       <c r="M3">
-        <v>0.5278404094808793</v>
+        <v>0.5336950351792972</v>
       </c>
       <c r="N3">
-        <v>0.5278404094808793</v>
+        <v>0.5568537941088285</v>
       </c>
       <c r="O3">
-        <v>0.5883711052530823</v>
+        <v>0.6213820531070546</v>
       </c>
       <c r="P3">
-        <v>0.8425545504736269</v>
+        <v>0.8102376102388683</v>
       </c>
       <c r="Q3">
-        <v>0.8425545504736269</v>
+        <v>0.8102376102388683</v>
       </c>
       <c r="R3">
-        <v>0.9958027320129064</v>
+        <v>0.934291564214304</v>
       </c>
       <c r="S3">
-        <v>0.9958027320129064</v>
+        <v>0.9525944141615206</v>
       </c>
       <c r="T3">
-        <v>0.9958027320129064</v>
+        <v>0.95710892900635</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.9854704777922095</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.9854704777922095</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.9854704777922095</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4844663408805258</v>
+        <v>0.3700895542072284</v>
       </c>
       <c r="E4">
-        <v>0.5812838023926959</v>
+        <v>0.4646166295887788</v>
       </c>
       <c r="F4">
-        <v>0.7067070247828513</v>
+        <v>0.579478277816448</v>
       </c>
       <c r="G4">
-        <v>0.7106880282883379</v>
+        <v>0.608012012689954</v>
       </c>
       <c r="H4">
-        <v>0.7228828129033188</v>
+        <v>0.6423845620255366</v>
       </c>
       <c r="I4">
-        <v>0.7228828129033188</v>
+        <v>0.6423845620255366</v>
       </c>
       <c r="J4">
-        <v>0.7351214037082199</v>
+        <v>0.6767882512480757</v>
       </c>
       <c r="K4">
-        <v>0.7351214037082199</v>
+        <v>0.6767882512480757</v>
       </c>
       <c r="L4">
-        <v>0.7351214037082199</v>
+        <v>0.6767882512480757</v>
       </c>
       <c r="M4">
-        <v>0.7351214037082199</v>
+        <v>0.6879765999459522</v>
       </c>
       <c r="N4">
-        <v>0.7351214037082199</v>
+        <v>0.6886219501940687</v>
       </c>
       <c r="O4">
-        <v>0.9346098480870696</v>
+        <v>0.8561332957437955</v>
       </c>
       <c r="P4">
-        <v>0.9346098480870696</v>
+        <v>0.8725956765003534</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.9447824645835123</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.9576053450252624</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.9629705121959325</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.9629705121959325</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9629705121959325</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9629705121959325</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9629705121959325</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9644327026628547</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9644327026628547</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9778453617575044</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9778453617575044</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9778453617575044</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9897853110955296</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1680,100 +1680,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01824474329318395</v>
       </c>
       <c r="F5">
-        <v>0.1246384801741895</v>
+        <v>0.1306754434288525</v>
       </c>
       <c r="G5">
-        <v>0.4221791906399376</v>
+        <v>0.3632665195537396</v>
       </c>
       <c r="H5">
-        <v>0.4773591357025354</v>
+        <v>0.4274262189013017</v>
       </c>
       <c r="I5">
-        <v>0.5386238923411218</v>
+        <v>0.4958146274191355</v>
       </c>
       <c r="J5">
-        <v>0.5386238923411218</v>
+        <v>0.5111264884577849</v>
       </c>
       <c r="K5">
-        <v>0.5386238923411218</v>
+        <v>0.5111264884577849</v>
       </c>
       <c r="L5">
-        <v>0.5817638330637424</v>
+        <v>0.5669188495358294</v>
       </c>
       <c r="M5">
-        <v>0.5817638330637424</v>
+        <v>0.5669188495358294</v>
       </c>
       <c r="N5">
-        <v>0.5817638330637424</v>
+        <v>0.5669188495358294</v>
       </c>
       <c r="O5">
-        <v>0.6013932932961262</v>
+        <v>0.6063723341827818</v>
       </c>
       <c r="P5">
-        <v>0.6734014081930063</v>
+        <v>0.6822269619941816</v>
       </c>
       <c r="Q5">
-        <v>0.8465854938041139</v>
+        <v>0.8283949840376585</v>
       </c>
       <c r="R5">
-        <v>0.8465854938041139</v>
+        <v>0.8283949840376585</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.9608239114975898</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9608239114975898</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9608239114975898</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9818437819917357</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9818437819917357</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9818437819917357</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9818437819917357</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9818437819917357</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9869593248744262</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9869593248744262</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9869593248744262</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9869593248744262</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9878806164241907</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9908059018910685</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.02540266555443305</v>
       </c>
       <c r="E6">
-        <v>0.3074547683701666</v>
+        <v>0.268128291019996</v>
       </c>
       <c r="F6">
-        <v>0.6231870243223471</v>
+        <v>0.5166851596626563</v>
       </c>
       <c r="G6">
-        <v>0.6564701055524722</v>
+        <v>0.5662650069983223</v>
       </c>
       <c r="H6">
-        <v>0.6709103582469449</v>
+        <v>0.602570643500439</v>
       </c>
       <c r="I6">
-        <v>0.6709103582469449</v>
+        <v>0.602570643500439</v>
       </c>
       <c r="J6">
-        <v>0.6709103582469449</v>
+        <v>0.6030215691053206</v>
       </c>
       <c r="K6">
-        <v>0.6709103582469449</v>
+        <v>0.6220384547152135</v>
       </c>
       <c r="L6">
-        <v>0.6709103582469449</v>
+        <v>0.6220384547152135</v>
       </c>
       <c r="M6">
-        <v>0.6709103582469449</v>
+        <v>0.6227873230470518</v>
       </c>
       <c r="N6">
-        <v>0.6709103582469449</v>
+        <v>0.6227873230470518</v>
       </c>
       <c r="O6">
-        <v>0.7073641869679778</v>
+        <v>0.6746008674422977</v>
       </c>
       <c r="P6">
-        <v>0.8692917891741807</v>
+        <v>0.8148069437852681</v>
       </c>
       <c r="Q6">
-        <v>0.8692917891741807</v>
+        <v>0.8148069437852681</v>
       </c>
       <c r="R6">
-        <v>0.9910264600355075</v>
+        <v>0.9266982984992236</v>
       </c>
       <c r="S6">
-        <v>0.9910264600355075</v>
+        <v>0.9266982984992236</v>
       </c>
       <c r="T6">
-        <v>0.9910264600355075</v>
+        <v>0.9304015022216856</v>
       </c>
       <c r="U6">
-        <v>0.9910264600355075</v>
+        <v>0.9304015022216856</v>
       </c>
       <c r="V6">
-        <v>0.9910264600355075</v>
+        <v>0.9304015022216856</v>
       </c>
       <c r="W6">
-        <v>0.9910264600355075</v>
+        <v>0.9304015022216856</v>
       </c>
       <c r="X6">
-        <v>0.9910264600355075</v>
+        <v>0.9344076201057926</v>
       </c>
       <c r="Y6">
-        <v>0.9910264600355075</v>
+        <v>0.9344076201057926</v>
       </c>
       <c r="Z6">
-        <v>0.9910264600355075</v>
+        <v>0.9382839074303219</v>
       </c>
       <c r="AA6">
-        <v>0.9910264600355075</v>
+        <v>0.9435343795587654</v>
       </c>
       <c r="AB6">
-        <v>0.9910264600355075</v>
+        <v>0.9435343795587654</v>
       </c>
       <c r="AC6">
-        <v>0.9910264600355075</v>
+        <v>0.9675454996055487</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5471005525352262</v>
+        <v>0.5369067631289746</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -1992,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5004124309434936</v>
+        <v>0.5177087619218693</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -2033,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.579478277816448</v>
+      </c>
+      <c r="G4">
         <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5812838023926959</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -2074,16 +2074,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5386238923411218</v>
+        <v>0.5111264884577849</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6231870243223471</v>
+        <v>0.5166851596626563</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8963607500489232</v>
+        <v>0.8669975813796956</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8425545504736269</v>
+        <v>0.8102376102388683</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -2292,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7067070247828513</v>
+        <v>0.8561332957437955</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8465854938041139</v>
+        <v>0.8283949840376585</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7073641869679778</v>
+        <v>0.8148069437852681</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8963607500489232</v>
+        <v>0.8669975813796956</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8425545504736269</v>
+        <v>0.8102376102388683</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9346098480870696</v>
+        <v>0.8561332957437955</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8465854938041139</v>
+        <v>0.8283949840376585</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8692917891741807</v>
+        <v>0.8148069437852681</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.96682107213681</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9958027320129064</v>
+        <v>0.934291564214304</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -2810,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9346098480870696</v>
+        <v>0.9447824645835123</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.9608239114975898</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9910264600355075</v>
+        <v>0.9266982984992236</v>
       </c>
       <c r="G6">
         <v>15</v>
